--- a/src/Department MI.xlsx
+++ b/src/Department MI.xlsx
@@ -14,6 +14,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="L3-MATH_1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="M1-ISI_1" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="M1-RéSys_1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="M1-AF_1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="M1-MCO_1" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -710,7 +712,7 @@
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G1, B1, Mlle Bouabdelli</t>
+          <t>ANA2, TD/ G1, B1, Mme Bouabdelli</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
@@ -745,7 +747,7 @@
       </c>
       <c r="E9" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G2, B1, Mlle Bouabdelli</t>
+          <t>ANA2, TD/ G2, B1, Mme Bouabdelli</t>
         </is>
       </c>
       <c r="F9" s="27" t="inlineStr">
@@ -912,7 +914,7 @@
       </c>
       <c r="H17" s="17" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G1, B4, Mekemmeche</t>
+          <t>OPM, TP/ G1, A1, Mlle Lakeb Ouda</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1071,7 @@
       </c>
       <c r="C26" s="17" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G2, B3, Mekemmeche</t>
+          <t>OPM, TP/ G2, A1, Mlle Lakeb Ouda</t>
         </is>
       </c>
       <c r="D26" s="29" t="inlineStr">
@@ -1079,17 +1081,17 @@
       </c>
       <c r="E26" s="17" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G3, B2, Mekemmeche</t>
+          <t>PHY2, TD/ G1, B2, Mekemmeche</t>
         </is>
       </c>
       <c r="F26" s="17" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G4, B1, Mekemmeche</t>
+          <t>PHY2, TD/ G2, B1, Mekemmeche</t>
         </is>
       </c>
       <c r="G26" s="17" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G5, B1, Mekemmeche</t>
+          <t>PHY2, TD/ G3, B1, Mekemmeche</t>
         </is>
       </c>
       <c r="H26" s="17" t="n"/>
@@ -1099,21 +1101,25 @@
       <c r="B27" s="31" t="n"/>
       <c r="C27" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G4, B2, Mlle Benaouad</t>
+          <t>OPM, TP/ G3, A2, Mlle Bouzid</t>
         </is>
       </c>
       <c r="D27" s="31" t="n"/>
       <c r="E27" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G6, B1, M. Benzidane</t>
+          <t>OPM, TP/ G4, A1, Mlle Bouzid</t>
         </is>
       </c>
       <c r="F27" s="27" t="inlineStr">
         <is>
+          <t>OPM, TP/ G5, A1, Mlle Bouzid</t>
+        </is>
+      </c>
+      <c r="G27" s="27" t="inlineStr">
+        <is>
           <t>PHY2, TD/ G6, B2, Labdelli</t>
         </is>
       </c>
-      <c r="G27" s="27" t="n"/>
       <c r="H27" s="27" t="n"/>
     </row>
     <row r="28" ht="21.75" customHeight="1" s="24">
@@ -1121,12 +1127,20 @@
       <c r="B28" s="31" t="n"/>
       <c r="C28" s="27" t="inlineStr">
         <is>
-          <t>SM2, TD/ G6, B1, HAMAMI</t>
+          <t>IPSD, TD/ G4, B2, Mlle Benaouad</t>
         </is>
       </c>
       <c r="D28" s="31" t="n"/>
-      <c r="E28" s="27" t="n"/>
-      <c r="F28" s="27" t="n"/>
+      <c r="E28" s="27" t="inlineStr">
+        <is>
+          <t>IPSD, TD/ G6, B1, M. Benzidane</t>
+        </is>
+      </c>
+      <c r="F28" s="27" t="inlineStr">
+        <is>
+          <t>OPM, TP/ G6, A2, Mlle Hamou Maamar.M</t>
+        </is>
+      </c>
       <c r="G28" s="27" t="n"/>
       <c r="H28" s="27" t="n"/>
     </row>
@@ -1135,12 +1149,20 @@
       <c r="B29" s="31" t="n"/>
       <c r="C29" s="27" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G7, B4, Labdelli</t>
+          <t>SM2, TD/ G6, B1, HAMAMI</t>
         </is>
       </c>
       <c r="D29" s="31" t="n"/>
-      <c r="E29" s="27" t="n"/>
-      <c r="F29" s="27" t="n"/>
+      <c r="E29" s="27" t="inlineStr">
+        <is>
+          <t>OPM, TP/ G7, A2, Mlle Hamou Maamar.M</t>
+        </is>
+      </c>
+      <c r="F29" s="27" t="inlineStr">
+        <is>
+          <t>PHY2, TD/ G7, B2, Labdelli</t>
+        </is>
+      </c>
       <c r="G29" s="27" t="n"/>
       <c r="H29" s="27" t="n"/>
     </row>
@@ -1210,8 +1232,16 @@
           <t>OPM, COUR/ section 1, Amphi1, Mlle Ali Merina.H</t>
         </is>
       </c>
-      <c r="D35" s="17" t="n"/>
-      <c r="E35" s="17" t="n"/>
+      <c r="D35" s="17" t="inlineStr">
+        <is>
+          <t>PHY2, TD/ G4, B1, Mekemmeche</t>
+        </is>
+      </c>
+      <c r="E35" s="17" t="inlineStr">
+        <is>
+          <t>PHY2, TD/ G5, B1, Mekemmeche</t>
+        </is>
+      </c>
       <c r="F35" s="17" t="n"/>
       <c r="G35" s="17" t="n"/>
       <c r="H35" s="17" t="n"/>
@@ -2390,6 +2420,1649 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Z52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="26.375" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col width="4.75" customWidth="1" style="24" min="1" max="1"/>
+    <col width="30.625" customWidth="1" style="24" min="2" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1" s="24">
+      <c r="A1" s="23" t="inlineStr">
+        <is>
+          <t>UNIVERSITE ABDELHAMID IBN BADIS</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="n"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" s="24">
+      <c r="A2" s="25" t="inlineStr">
+        <is>
+          <t>FACULTE DES SCIENCES EXACTES ET DE L'INFORMATIQUE</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="24">
+      <c r="A3" s="26" t="inlineStr">
+        <is>
+          <t>Département de Mathématiques et Informatique</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" s="24">
+      <c r="A4" s="5" t="n"/>
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="6" t="n"/>
+      <c r="F4" s="6" t="n"/>
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="4" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" s="24">
+      <c r="A5" s="23" t="inlineStr">
+        <is>
+          <t>Emploi du M1-MCO</t>
+        </is>
+      </c>
+      <c r="H5" s="7" t="n"/>
+    </row>
+    <row r="6" ht="27" customHeight="1" s="24">
+      <c r="A6" s="8" t="n"/>
+      <c r="B6" s="23" t="n"/>
+      <c r="C6" s="23" t="n"/>
+      <c r="D6" s="23" t="n"/>
+      <c r="E6" s="23" t="n"/>
+      <c r="F6" s="23" t="n"/>
+      <c r="G6" s="23" t="n"/>
+      <c r="H6" s="7" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" s="24">
+      <c r="A7" s="9" t="n"/>
+      <c r="B7" s="12" t="inlineStr">
+        <is>
+          <t>8h 30 - 09h 30</t>
+        </is>
+      </c>
+      <c r="C7" s="12" t="inlineStr">
+        <is>
+          <t>9h  30 - 10h 30</t>
+        </is>
+      </c>
+      <c r="D7" s="12" t="inlineStr">
+        <is>
+          <t>10h 30 - 11h 30</t>
+        </is>
+      </c>
+      <c r="E7" s="12" t="inlineStr">
+        <is>
+          <t>11h 30 - 12h 30</t>
+        </is>
+      </c>
+      <c r="F7" s="12" t="inlineStr">
+        <is>
+          <t>12h 30 - 13h 30</t>
+        </is>
+      </c>
+      <c r="G7" s="13" t="inlineStr">
+        <is>
+          <t>13h30-14h30</t>
+        </is>
+      </c>
+      <c r="H7" s="11" t="inlineStr">
+        <is>
+          <t>14h30-15h30</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="21.75" customHeight="1" s="24">
+      <c r="A8" s="28" t="inlineStr">
+        <is>
+          <t>Dimanche</t>
+        </is>
+      </c>
+      <c r="B8" s="29" t="inlineStr">
+        <is>
+          <t>Mod2, COUR/ section 1, C3, Mlle Bouzid Leila</t>
+        </is>
+      </c>
+      <c r="C8" s="17" t="inlineStr">
+        <is>
+          <t>Mod2, TD/ G1, S1, Mlle Bouzid Leila</t>
+        </is>
+      </c>
+      <c r="D8" s="29" t="inlineStr">
+        <is>
+          <t>OAF 2, COUR/ section 1, Amphi1, Mr S. M. Bahri</t>
+        </is>
+      </c>
+      <c r="E8" s="17" t="inlineStr">
+        <is>
+          <t>OAF 2, TD/ G1, S7, Mr S. M. Bahri</t>
+        </is>
+      </c>
+      <c r="F8" s="17" t="inlineStr">
+        <is>
+          <t>TCONTROL, TD/ G1, S7, Mr. BOUAGADA</t>
+        </is>
+      </c>
+      <c r="G8" s="17" t="inlineStr">
+        <is>
+          <t>CFRAC, TD/ G1, S4, M. Zoubir DAHMANI</t>
+        </is>
+      </c>
+      <c r="H8" s="17" t="inlineStr">
+        <is>
+          <t>TG, TD/ G1, S4, Mr Ablaoui H.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="21.75" customHeight="1" s="24">
+      <c r="A9" s="30" t="n"/>
+      <c r="B9" s="31" t="n"/>
+      <c r="C9" s="27" t="n"/>
+      <c r="D9" s="31" t="n"/>
+      <c r="E9" s="27" t="n"/>
+      <c r="F9" s="27" t="n"/>
+      <c r="G9" s="27" t="n"/>
+      <c r="H9" s="27" t="n"/>
+    </row>
+    <row r="10" ht="21.75" customHeight="1" s="24">
+      <c r="A10" s="30" t="n"/>
+      <c r="B10" s="31" t="n"/>
+      <c r="C10" s="27" t="n"/>
+      <c r="D10" s="31" t="n"/>
+      <c r="E10" s="27" t="n"/>
+      <c r="F10" s="27" t="n"/>
+      <c r="G10" s="27" t="n"/>
+      <c r="H10" s="27" t="n"/>
+    </row>
+    <row r="11" ht="21.75" customHeight="1" s="24">
+      <c r="A11" s="30" t="n"/>
+      <c r="B11" s="31" t="n"/>
+      <c r="C11" s="27" t="n"/>
+      <c r="D11" s="31" t="n"/>
+      <c r="E11" s="27" t="n"/>
+      <c r="F11" s="27" t="n"/>
+      <c r="G11" s="27" t="n"/>
+      <c r="H11" s="27" t="n"/>
+    </row>
+    <row r="12" ht="21.75" customHeight="1" s="24">
+      <c r="A12" s="30" t="n"/>
+      <c r="B12" s="31" t="n"/>
+      <c r="C12" s="27" t="n"/>
+      <c r="D12" s="31" t="n"/>
+      <c r="E12" s="27" t="n"/>
+      <c r="F12" s="27" t="n"/>
+      <c r="G12" s="27" t="n"/>
+      <c r="H12" s="27" t="n"/>
+    </row>
+    <row r="13" ht="21.75" customHeight="1" s="24">
+      <c r="A13" s="30" t="n"/>
+      <c r="B13" s="31" t="n"/>
+      <c r="C13" s="27" t="n"/>
+      <c r="D13" s="31" t="n"/>
+      <c r="E13" s="27" t="n"/>
+      <c r="F13" s="27" t="n"/>
+      <c r="G13" s="27" t="n"/>
+      <c r="H13" s="27" t="n"/>
+    </row>
+    <row r="14" ht="21.75" customHeight="1" s="24">
+      <c r="A14" s="30" t="n"/>
+      <c r="B14" s="31" t="n"/>
+      <c r="C14" s="27" t="n"/>
+      <c r="D14" s="31" t="n"/>
+      <c r="E14" s="27" t="n"/>
+      <c r="F14" s="27" t="n"/>
+      <c r="G14" s="27" t="n"/>
+      <c r="H14" s="27" t="n"/>
+    </row>
+    <row r="15" ht="21.75" customHeight="1" s="24">
+      <c r="A15" s="30" t="n"/>
+      <c r="B15" s="31" t="n"/>
+      <c r="C15" s="27" t="n"/>
+      <c r="D15" s="31" t="n"/>
+      <c r="E15" s="27" t="n"/>
+      <c r="F15" s="27" t="n"/>
+      <c r="G15" s="27" t="n"/>
+      <c r="H15" s="27" t="n"/>
+    </row>
+    <row r="16" ht="21.75" customHeight="1" s="24">
+      <c r="A16" s="32" t="n"/>
+      <c r="B16" s="33" t="n"/>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="33" t="n"/>
+      <c r="E16" s="16" t="n"/>
+      <c r="F16" s="16" t="n"/>
+      <c r="G16" s="16" t="n"/>
+      <c r="H16" s="16" t="n"/>
+    </row>
+    <row r="17" ht="21.75" customHeight="1" s="24">
+      <c r="A17" s="28" t="inlineStr">
+        <is>
+          <t>Lundi</t>
+        </is>
+      </c>
+      <c r="B17" s="29" t="inlineStr">
+        <is>
+          <t>OAF 2, COUR/ section 1, C4, Mr S. M. Bahri</t>
+        </is>
+      </c>
+      <c r="C17" s="29" t="inlineStr">
+        <is>
+          <t>TCONTROL, COUR/ section 1, C3, Mr. BOUAGADA</t>
+        </is>
+      </c>
+      <c r="D17" s="17" t="inlineStr">
+        <is>
+          <t>PROGQUAD, TD/ G1, S12, M. AMIR A.</t>
+        </is>
+      </c>
+      <c r="E17" s="17" t="inlineStr">
+        <is>
+          <t>TG, TP/ G1, M3, Mr Ablaoui H.</t>
+        </is>
+      </c>
+      <c r="F17" s="17" t="n"/>
+      <c r="G17" s="17" t="n"/>
+      <c r="H17" s="17" t="n"/>
+    </row>
+    <row r="18" ht="21.75" customHeight="1" s="24">
+      <c r="A18" s="30" t="n"/>
+      <c r="B18" s="31" t="n"/>
+      <c r="C18" s="31" t="n"/>
+      <c r="D18" s="27" t="n"/>
+      <c r="E18" s="27" t="n"/>
+      <c r="F18" s="27" t="n"/>
+      <c r="G18" s="27" t="n"/>
+      <c r="H18" s="27" t="n"/>
+    </row>
+    <row r="19" ht="21.75" customHeight="1" s="24">
+      <c r="A19" s="30" t="n"/>
+      <c r="B19" s="31" t="n"/>
+      <c r="C19" s="31" t="n"/>
+      <c r="D19" s="27" t="n"/>
+      <c r="E19" s="27" t="n"/>
+      <c r="F19" s="27" t="n"/>
+      <c r="G19" s="27" t="n"/>
+      <c r="H19" s="27" t="n"/>
+    </row>
+    <row r="20" ht="21.75" customHeight="1" s="24">
+      <c r="A20" s="30" t="n"/>
+      <c r="B20" s="31" t="n"/>
+      <c r="C20" s="31" t="n"/>
+      <c r="D20" s="27" t="n"/>
+      <c r="E20" s="27" t="n"/>
+      <c r="F20" s="27" t="n"/>
+      <c r="G20" s="27" t="n"/>
+      <c r="H20" s="27" t="n"/>
+    </row>
+    <row r="21" ht="21.75" customHeight="1" s="24">
+      <c r="A21" s="30" t="n"/>
+      <c r="B21" s="31" t="n"/>
+      <c r="C21" s="31" t="n"/>
+      <c r="D21" s="27" t="n"/>
+      <c r="E21" s="27" t="n"/>
+      <c r="F21" s="27" t="n"/>
+      <c r="G21" s="27" t="n"/>
+      <c r="H21" s="27" t="n"/>
+    </row>
+    <row r="22" ht="21.75" customHeight="1" s="24">
+      <c r="A22" s="30" t="n"/>
+      <c r="B22" s="31" t="n"/>
+      <c r="C22" s="31" t="n"/>
+      <c r="D22" s="27" t="n"/>
+      <c r="E22" s="27" t="n"/>
+      <c r="F22" s="27" t="n"/>
+      <c r="G22" s="27" t="n"/>
+      <c r="H22" s="27" t="n"/>
+    </row>
+    <row r="23" ht="21.75" customHeight="1" s="24">
+      <c r="A23" s="30" t="n"/>
+      <c r="B23" s="31" t="n"/>
+      <c r="C23" s="31" t="n"/>
+      <c r="D23" s="27" t="n"/>
+      <c r="E23" s="27" t="n"/>
+      <c r="F23" s="27" t="n"/>
+      <c r="G23" s="27" t="n"/>
+      <c r="H23" s="27" t="n"/>
+    </row>
+    <row r="24" ht="21.75" customHeight="1" s="24">
+      <c r="A24" s="30" t="n"/>
+      <c r="B24" s="31" t="n"/>
+      <c r="C24" s="31" t="n"/>
+      <c r="D24" s="27" t="n"/>
+      <c r="E24" s="27" t="n"/>
+      <c r="F24" s="27" t="n"/>
+      <c r="G24" s="27" t="n"/>
+      <c r="H24" s="27" t="n"/>
+    </row>
+    <row r="25" ht="21.75" customHeight="1" s="24">
+      <c r="A25" s="32" t="n"/>
+      <c r="B25" s="33" t="n"/>
+      <c r="C25" s="33" t="n"/>
+      <c r="D25" s="16" t="n"/>
+      <c r="E25" s="16" t="n"/>
+      <c r="F25" s="16" t="n"/>
+      <c r="G25" s="16" t="n"/>
+      <c r="H25" s="16" t="n"/>
+    </row>
+    <row r="26" ht="21.75" customHeight="1" s="24">
+      <c r="A26" s="28" t="inlineStr">
+        <is>
+          <t>Mardi</t>
+        </is>
+      </c>
+      <c r="B26" s="29" t="inlineStr">
+        <is>
+          <t>CFRAC, COUR/ section 1, S1, M. Zoubir DAHMANI</t>
+        </is>
+      </c>
+      <c r="C26" s="29" t="inlineStr">
+        <is>
+          <t>TG, COUR/ section 1, C2, Mr Ablaoui H.</t>
+        </is>
+      </c>
+      <c r="D26" s="17" t="inlineStr">
+        <is>
+          <t>PROGQUAD, TP/ G1, M2, M. AMIR A.</t>
+        </is>
+      </c>
+      <c r="E26" s="17" t="n"/>
+      <c r="F26" s="17" t="n"/>
+      <c r="G26" s="17" t="n"/>
+      <c r="H26" s="17" t="n"/>
+    </row>
+    <row r="27" ht="21.75" customHeight="1" s="24">
+      <c r="A27" s="30" t="n"/>
+      <c r="B27" s="31" t="n"/>
+      <c r="C27" s="31" t="n"/>
+      <c r="D27" s="27" t="n"/>
+      <c r="E27" s="27" t="n"/>
+      <c r="F27" s="27" t="n"/>
+      <c r="G27" s="27" t="n"/>
+      <c r="H27" s="27" t="n"/>
+    </row>
+    <row r="28" ht="21.75" customHeight="1" s="24">
+      <c r="A28" s="30" t="n"/>
+      <c r="B28" s="31" t="n"/>
+      <c r="C28" s="31" t="n"/>
+      <c r="D28" s="27" t="n"/>
+      <c r="E28" s="27" t="n"/>
+      <c r="F28" s="27" t="n"/>
+      <c r="G28" s="27" t="n"/>
+      <c r="H28" s="27" t="n"/>
+    </row>
+    <row r="29" ht="21.75" customHeight="1" s="24">
+      <c r="A29" s="30" t="n"/>
+      <c r="B29" s="31" t="n"/>
+      <c r="C29" s="31" t="n"/>
+      <c r="D29" s="27" t="n"/>
+      <c r="E29" s="27" t="n"/>
+      <c r="F29" s="27" t="n"/>
+      <c r="G29" s="27" t="n"/>
+      <c r="H29" s="27" t="n"/>
+    </row>
+    <row r="30" ht="21.75" customHeight="1" s="24">
+      <c r="A30" s="30" t="n"/>
+      <c r="B30" s="31" t="n"/>
+      <c r="C30" s="31" t="n"/>
+      <c r="D30" s="27" t="n"/>
+      <c r="E30" s="27" t="n"/>
+      <c r="F30" s="27" t="n"/>
+      <c r="G30" s="27" t="n"/>
+      <c r="H30" s="27" t="n"/>
+    </row>
+    <row r="31" ht="21.75" customHeight="1" s="24">
+      <c r="A31" s="30" t="n"/>
+      <c r="B31" s="31" t="n"/>
+      <c r="C31" s="31" t="n"/>
+      <c r="D31" s="27" t="n"/>
+      <c r="E31" s="27" t="n"/>
+      <c r="F31" s="27" t="n"/>
+      <c r="G31" s="27" t="n"/>
+      <c r="H31" s="27" t="n"/>
+    </row>
+    <row r="32" ht="21.75" customHeight="1" s="24">
+      <c r="A32" s="30" t="n"/>
+      <c r="B32" s="31" t="n"/>
+      <c r="C32" s="31" t="n"/>
+      <c r="D32" s="27" t="n"/>
+      <c r="E32" s="27" t="n"/>
+      <c r="F32" s="27" t="n"/>
+      <c r="G32" s="27" t="n"/>
+      <c r="H32" s="27" t="n"/>
+    </row>
+    <row r="33" ht="21.75" customHeight="1" s="24">
+      <c r="A33" s="30" t="n"/>
+      <c r="B33" s="31" t="n"/>
+      <c r="C33" s="31" t="n"/>
+      <c r="D33" s="27" t="n"/>
+      <c r="E33" s="27" t="n"/>
+      <c r="F33" s="27" t="n"/>
+      <c r="G33" s="27" t="n"/>
+      <c r="H33" s="27" t="n"/>
+    </row>
+    <row r="34" ht="21.75" customHeight="1" s="24">
+      <c r="A34" s="32" t="n"/>
+      <c r="B34" s="33" t="n"/>
+      <c r="C34" s="33" t="n"/>
+      <c r="D34" s="16" t="n"/>
+      <c r="E34" s="16" t="n"/>
+      <c r="F34" s="16" t="n"/>
+      <c r="G34" s="16" t="n"/>
+      <c r="H34" s="16" t="n"/>
+    </row>
+    <row r="35" ht="21.75" customHeight="1" s="24">
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>Mercredi</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>PROGQUAD, COUR/ section 1, B3, M. AMIR A.</t>
+        </is>
+      </c>
+      <c r="C35" s="29" t="inlineStr">
+        <is>
+          <t>Latex, COUR/ section 1, B3, Mme Bouabdelli</t>
+        </is>
+      </c>
+      <c r="D35" s="17" t="n"/>
+      <c r="E35" s="17" t="n"/>
+      <c r="F35" s="17" t="n"/>
+      <c r="G35" s="17" t="n"/>
+      <c r="H35" s="17" t="n"/>
+    </row>
+    <row r="36" ht="21.75" customHeight="1" s="24">
+      <c r="A36" s="30" t="n"/>
+      <c r="B36" s="31" t="n"/>
+      <c r="C36" s="31" t="n"/>
+      <c r="D36" s="27" t="n"/>
+      <c r="E36" s="27" t="n"/>
+      <c r="F36" s="27" t="n"/>
+      <c r="G36" s="27" t="n"/>
+      <c r="H36" s="27" t="n"/>
+    </row>
+    <row r="37" ht="21.75" customHeight="1" s="24">
+      <c r="A37" s="30" t="n"/>
+      <c r="B37" s="31" t="n"/>
+      <c r="C37" s="31" t="n"/>
+      <c r="D37" s="27" t="n"/>
+      <c r="E37" s="27" t="n"/>
+      <c r="F37" s="27" t="n"/>
+      <c r="G37" s="27" t="n"/>
+      <c r="H37" s="27" t="n"/>
+    </row>
+    <row r="38" ht="21.75" customHeight="1" s="24">
+      <c r="A38" s="30" t="n"/>
+      <c r="B38" s="31" t="n"/>
+      <c r="C38" s="31" t="n"/>
+      <c r="D38" s="27" t="n"/>
+      <c r="E38" s="27" t="n"/>
+      <c r="F38" s="27" t="n"/>
+      <c r="G38" s="27" t="n"/>
+      <c r="H38" s="27" t="n"/>
+    </row>
+    <row r="39" ht="21.75" customHeight="1" s="24">
+      <c r="A39" s="30" t="n"/>
+      <c r="B39" s="31" t="n"/>
+      <c r="C39" s="31" t="n"/>
+      <c r="D39" s="27" t="n"/>
+      <c r="E39" s="27" t="n"/>
+      <c r="F39" s="27" t="n"/>
+      <c r="G39" s="27" t="n"/>
+      <c r="H39" s="27" t="n"/>
+    </row>
+    <row r="40" ht="21.75" customHeight="1" s="24">
+      <c r="A40" s="30" t="n"/>
+      <c r="B40" s="31" t="n"/>
+      <c r="C40" s="31" t="n"/>
+      <c r="D40" s="27" t="n"/>
+      <c r="E40" s="27" t="n"/>
+      <c r="F40" s="27" t="n"/>
+      <c r="G40" s="27" t="n"/>
+      <c r="H40" s="27" t="n"/>
+    </row>
+    <row r="41" ht="21.75" customHeight="1" s="24">
+      <c r="A41" s="30" t="n"/>
+      <c r="B41" s="31" t="n"/>
+      <c r="C41" s="31" t="n"/>
+      <c r="D41" s="27" t="n"/>
+      <c r="E41" s="27" t="n"/>
+      <c r="F41" s="27" t="n"/>
+      <c r="G41" s="27" t="n"/>
+      <c r="H41" s="27" t="n"/>
+    </row>
+    <row r="42" ht="21.75" customHeight="1" s="24">
+      <c r="A42" s="30" t="n"/>
+      <c r="B42" s="31" t="n"/>
+      <c r="C42" s="31" t="n"/>
+      <c r="D42" s="27" t="n"/>
+      <c r="E42" s="27" t="n"/>
+      <c r="F42" s="27" t="n"/>
+      <c r="G42" s="27" t="n"/>
+      <c r="H42" s="27" t="n"/>
+    </row>
+    <row r="43" ht="21.75" customHeight="1" s="24">
+      <c r="A43" s="32" t="n"/>
+      <c r="B43" s="33" t="n"/>
+      <c r="C43" s="33" t="n"/>
+      <c r="D43" s="16" t="n"/>
+      <c r="E43" s="16" t="n"/>
+      <c r="F43" s="16" t="n"/>
+      <c r="G43" s="16" t="n"/>
+      <c r="H43" s="16" t="n"/>
+    </row>
+    <row r="44" ht="21.75" customHeight="1" s="24">
+      <c r="A44" s="28" t="inlineStr">
+        <is>
+          <t>Jeudi</t>
+        </is>
+      </c>
+      <c r="B44" s="29" t="inlineStr">
+        <is>
+          <t>Anglais, COUR/ section 1, B1, M. Dahmani Z.</t>
+        </is>
+      </c>
+      <c r="C44" s="17" t="n"/>
+      <c r="D44" s="17" t="n"/>
+      <c r="E44" s="17" t="n"/>
+      <c r="F44" s="17" t="n"/>
+      <c r="G44" s="17" t="n"/>
+      <c r="H44" s="17" t="n"/>
+    </row>
+    <row r="45" ht="21.75" customHeight="1" s="24">
+      <c r="A45" s="30" t="n"/>
+      <c r="B45" s="31" t="n"/>
+      <c r="C45" s="27" t="n"/>
+      <c r="D45" s="27" t="n"/>
+      <c r="E45" s="27" t="n"/>
+      <c r="F45" s="27" t="n"/>
+      <c r="G45" s="27" t="n"/>
+      <c r="H45" s="27" t="n"/>
+    </row>
+    <row r="46" ht="21.75" customHeight="1" s="24">
+      <c r="A46" s="30" t="n"/>
+      <c r="B46" s="31" t="n"/>
+      <c r="C46" s="27" t="n"/>
+      <c r="D46" s="27" t="n"/>
+      <c r="E46" s="27" t="n"/>
+      <c r="F46" s="27" t="n"/>
+      <c r="G46" s="27" t="n"/>
+      <c r="H46" s="27" t="n"/>
+    </row>
+    <row r="47" ht="21.75" customHeight="1" s="24">
+      <c r="A47" s="30" t="n"/>
+      <c r="B47" s="31" t="n"/>
+      <c r="C47" s="27" t="n"/>
+      <c r="D47" s="27" t="n"/>
+      <c r="E47" s="27" t="n"/>
+      <c r="F47" s="27" t="n"/>
+      <c r="G47" s="27" t="n"/>
+      <c r="H47" s="27" t="n"/>
+    </row>
+    <row r="48" ht="21.75" customHeight="1" s="24">
+      <c r="A48" s="30" t="n"/>
+      <c r="B48" s="31" t="n"/>
+      <c r="C48" s="27" t="n"/>
+      <c r="D48" s="27" t="n"/>
+      <c r="E48" s="27" t="n"/>
+      <c r="F48" s="27" t="n"/>
+      <c r="G48" s="27" t="n"/>
+      <c r="H48" s="27" t="n"/>
+    </row>
+    <row r="49" ht="21.75" customHeight="1" s="24">
+      <c r="A49" s="30" t="n"/>
+      <c r="B49" s="31" t="n"/>
+      <c r="C49" s="27" t="n"/>
+      <c r="D49" s="27" t="n"/>
+      <c r="E49" s="27" t="n"/>
+      <c r="F49" s="27" t="n"/>
+      <c r="G49" s="27" t="n"/>
+      <c r="H49" s="27" t="n"/>
+    </row>
+    <row r="50" ht="21.75" customHeight="1" s="24">
+      <c r="A50" s="30" t="n"/>
+      <c r="B50" s="31" t="n"/>
+      <c r="C50" s="27" t="n"/>
+      <c r="D50" s="27" t="n"/>
+      <c r="E50" s="27" t="n"/>
+      <c r="F50" s="27" t="n"/>
+      <c r="G50" s="27" t="n"/>
+      <c r="H50" s="27" t="n"/>
+    </row>
+    <row r="51" ht="21.75" customHeight="1" s="24">
+      <c r="A51" s="30" t="n"/>
+      <c r="B51" s="31" t="n"/>
+      <c r="C51" s="27" t="n"/>
+      <c r="D51" s="27" t="n"/>
+      <c r="E51" s="27" t="n"/>
+      <c r="F51" s="27" t="n"/>
+      <c r="G51" s="27" t="n"/>
+      <c r="H51" s="27" t="n"/>
+    </row>
+    <row r="52" ht="21.75" customHeight="1" s="24">
+      <c r="A52" s="32" t="n"/>
+      <c r="B52" s="33" t="n"/>
+      <c r="C52" s="16" t="n"/>
+      <c r="D52" s="16" t="n"/>
+      <c r="E52" s="16" t="n"/>
+      <c r="F52" s="16" t="n"/>
+      <c r="G52" s="16" t="n"/>
+      <c r="H52" s="16" t="n"/>
+    </row>
+    <row r="53" ht="18.75" customHeight="1" s="24"/>
+    <row r="54" ht="18.75" customHeight="1" s="24"/>
+    <row r="55" ht="18.75" customHeight="1" s="24"/>
+    <row r="56" ht="18.75" customHeight="1" s="24"/>
+    <row r="57" ht="18.75" customHeight="1" s="24"/>
+    <row r="58" ht="18.75" customHeight="1" s="24"/>
+    <row r="59" ht="18.75" customHeight="1" s="24"/>
+    <row r="60" ht="18.75" customHeight="1" s="24"/>
+    <row r="61" ht="18.75" customHeight="1" s="24"/>
+    <row r="62" ht="18.75" customHeight="1" s="24"/>
+    <row r="63" ht="18.75" customHeight="1" s="24"/>
+    <row r="64" ht="18.75" customHeight="1" s="24"/>
+    <row r="65" ht="18.75" customHeight="1" s="24"/>
+    <row r="66" ht="18.75" customHeight="1" s="24"/>
+    <row r="67" ht="18.75" customHeight="1" s="24"/>
+    <row r="68" ht="18.75" customHeight="1" s="24"/>
+    <row r="69" ht="18.75" customHeight="1" s="24"/>
+    <row r="70" ht="18.75" customHeight="1" s="24"/>
+    <row r="71" ht="18.75" customHeight="1" s="24"/>
+    <row r="72" ht="18.75" customHeight="1" s="24"/>
+    <row r="73" ht="18.75" customHeight="1" s="24"/>
+    <row r="74" ht="18.75" customHeight="1" s="24"/>
+    <row r="75" ht="18.75" customHeight="1" s="24"/>
+    <row r="76" ht="18.75" customHeight="1" s="24"/>
+    <row r="77" ht="18.75" customHeight="1" s="24"/>
+    <row r="78" ht="18.75" customHeight="1" s="24"/>
+    <row r="79" ht="18.75" customHeight="1" s="24"/>
+    <row r="80" ht="18.75" customHeight="1" s="24"/>
+    <row r="81" ht="18.75" customHeight="1" s="24"/>
+    <row r="82" ht="18.75" customHeight="1" s="24"/>
+    <row r="83" ht="18.75" customHeight="1" s="24"/>
+    <row r="84" ht="18.75" customHeight="1" s="24"/>
+    <row r="85" ht="18.75" customHeight="1" s="24"/>
+    <row r="86" ht="18.75" customHeight="1" s="24"/>
+    <row r="87" ht="18.75" customHeight="1" s="24"/>
+    <row r="88" ht="18.75" customHeight="1" s="24"/>
+    <row r="89" ht="18.75" customHeight="1" s="24"/>
+    <row r="90" ht="18.75" customHeight="1" s="24"/>
+    <row r="91" ht="18.75" customHeight="1" s="24"/>
+    <row r="92" ht="18.75" customHeight="1" s="24"/>
+    <row r="93" ht="18.75" customHeight="1" s="24"/>
+    <row r="94" ht="18.75" customHeight="1" s="24"/>
+    <row r="95" ht="18.75" customHeight="1" s="24"/>
+    <row r="96" ht="18.75" customHeight="1" s="24"/>
+    <row r="97" ht="18.75" customHeight="1" s="24"/>
+    <row r="98" ht="18.75" customHeight="1" s="24"/>
+    <row r="99" ht="18.75" customHeight="1" s="24"/>
+    <row r="100" ht="18.75" customHeight="1" s="24"/>
+    <row r="101" ht="18.75" customHeight="1" s="24"/>
+    <row r="102" ht="18.75" customHeight="1" s="24"/>
+    <row r="103" ht="18.75" customHeight="1" s="24"/>
+    <row r="104" ht="18.75" customHeight="1" s="24"/>
+    <row r="105" ht="18.75" customHeight="1" s="24"/>
+    <row r="106" ht="18.75" customHeight="1" s="24"/>
+    <row r="107" ht="18.75" customHeight="1" s="24"/>
+    <row r="108" ht="18.75" customHeight="1" s="24"/>
+    <row r="109" ht="18.75" customHeight="1" s="24"/>
+    <row r="110" ht="18.75" customHeight="1" s="24"/>
+    <row r="111" ht="18.75" customHeight="1" s="24"/>
+    <row r="112" ht="18.75" customHeight="1" s="24"/>
+    <row r="113" ht="18.75" customHeight="1" s="24"/>
+    <row r="114" ht="18.75" customHeight="1" s="24"/>
+    <row r="115" ht="18.75" customHeight="1" s="24"/>
+    <row r="116" ht="18.75" customHeight="1" s="24"/>
+    <row r="117" ht="18.75" customHeight="1" s="24"/>
+    <row r="118" ht="18.75" customHeight="1" s="24"/>
+    <row r="119" ht="18.75" customHeight="1" s="24"/>
+    <row r="120" ht="18.75" customHeight="1" s="24"/>
+    <row r="121" ht="18.75" customHeight="1" s="24"/>
+    <row r="122" ht="18.75" customHeight="1" s="24"/>
+    <row r="123" ht="18.75" customHeight="1" s="24"/>
+    <row r="124" ht="18.75" customHeight="1" s="24"/>
+    <row r="125" ht="18.75" customHeight="1" s="24"/>
+    <row r="126" ht="18.75" customHeight="1" s="24"/>
+    <row r="127" ht="18.75" customHeight="1" s="24"/>
+    <row r="128" ht="18.75" customHeight="1" s="24"/>
+    <row r="129" ht="18.75" customHeight="1" s="24"/>
+    <row r="130" ht="18.75" customHeight="1" s="24"/>
+    <row r="131" ht="18.75" customHeight="1" s="24"/>
+    <row r="132" ht="18.75" customHeight="1" s="24"/>
+    <row r="133" ht="18.75" customHeight="1" s="24"/>
+    <row r="134" ht="18.75" customHeight="1" s="24"/>
+    <row r="135" ht="18.75" customHeight="1" s="24"/>
+    <row r="136" ht="18.75" customHeight="1" s="24"/>
+    <row r="137" ht="18.75" customHeight="1" s="24"/>
+    <row r="138" ht="18.75" customHeight="1" s="24"/>
+    <row r="139" ht="18.75" customHeight="1" s="24"/>
+    <row r="140" ht="18.75" customHeight="1" s="24"/>
+    <row r="141" ht="18.75" customHeight="1" s="24"/>
+    <row r="142" ht="18.75" customHeight="1" s="24"/>
+    <row r="143" ht="18.75" customHeight="1" s="24"/>
+    <row r="144" ht="18.75" customHeight="1" s="24"/>
+    <row r="145" ht="18.75" customHeight="1" s="24"/>
+    <row r="146" ht="18.75" customHeight="1" s="24"/>
+    <row r="147" ht="18.75" customHeight="1" s="24"/>
+    <row r="148" ht="18.75" customHeight="1" s="24"/>
+    <row r="149" ht="18.75" customHeight="1" s="24"/>
+    <row r="150" ht="18.75" customHeight="1" s="24"/>
+    <row r="151" ht="18.75" customHeight="1" s="24"/>
+    <row r="152" ht="18.75" customHeight="1" s="24"/>
+    <row r="153" ht="18.75" customHeight="1" s="24"/>
+    <row r="154" ht="18.75" customHeight="1" s="24"/>
+    <row r="155" ht="18.75" customHeight="1" s="24"/>
+    <row r="156" ht="18.75" customHeight="1" s="24"/>
+    <row r="157" ht="18.75" customHeight="1" s="24"/>
+    <row r="158" ht="18.75" customHeight="1" s="24"/>
+    <row r="159" ht="18.75" customHeight="1" s="24"/>
+    <row r="160" ht="18.75" customHeight="1" s="24"/>
+    <row r="161" ht="18.75" customHeight="1" s="24"/>
+    <row r="162" ht="18.75" customHeight="1" s="24"/>
+    <row r="163" ht="18.75" customHeight="1" s="24"/>
+    <row r="164" ht="18.75" customHeight="1" s="24"/>
+    <row r="165" ht="18.75" customHeight="1" s="24"/>
+    <row r="166" ht="18.75" customHeight="1" s="24"/>
+    <row r="167" ht="18.75" customHeight="1" s="24"/>
+    <row r="168" ht="18.75" customHeight="1" s="24"/>
+    <row r="169" ht="18.75" customHeight="1" s="24"/>
+    <row r="170" ht="18.75" customHeight="1" s="24"/>
+    <row r="171" ht="18.75" customHeight="1" s="24"/>
+    <row r="172" ht="18.75" customHeight="1" s="24"/>
+    <row r="173" ht="18.75" customHeight="1" s="24"/>
+    <row r="174" ht="18.75" customHeight="1" s="24"/>
+    <row r="175" ht="18.75" customHeight="1" s="24"/>
+    <row r="176" ht="18.75" customHeight="1" s="24"/>
+    <row r="177" ht="18.75" customHeight="1" s="24"/>
+    <row r="178" ht="18.75" customHeight="1" s="24"/>
+    <row r="179" ht="18.75" customHeight="1" s="24"/>
+    <row r="180" ht="18.75" customHeight="1" s="24"/>
+    <row r="181" ht="18.75" customHeight="1" s="24"/>
+    <row r="182" ht="18.75" customHeight="1" s="24"/>
+    <row r="183" ht="18.75" customHeight="1" s="24"/>
+    <row r="184" ht="18.75" customHeight="1" s="24"/>
+    <row r="185" ht="18.75" customHeight="1" s="24"/>
+    <row r="186" ht="18.75" customHeight="1" s="24"/>
+    <row r="187" ht="18.75" customHeight="1" s="24"/>
+    <row r="188" ht="18.75" customHeight="1" s="24"/>
+    <row r="189" ht="18.75" customHeight="1" s="24"/>
+    <row r="190" ht="18.75" customHeight="1" s="24"/>
+    <row r="191" ht="18.75" customHeight="1" s="24"/>
+    <row r="192" ht="18.75" customHeight="1" s="24"/>
+    <row r="193" ht="18.75" customHeight="1" s="24"/>
+    <row r="194" ht="18.75" customHeight="1" s="24"/>
+    <row r="195" ht="18.75" customHeight="1" s="24"/>
+    <row r="196" ht="18.75" customHeight="1" s="24"/>
+    <row r="197" ht="18.75" customHeight="1" s="24"/>
+    <row r="198" ht="18.75" customHeight="1" s="24"/>
+    <row r="199" ht="18.75" customHeight="1" s="24"/>
+    <row r="200" ht="18.75" customHeight="1" s="24"/>
+    <row r="201" ht="18.75" customHeight="1" s="24"/>
+    <row r="202" ht="18.75" customHeight="1" s="24"/>
+    <row r="203" ht="18.75" customHeight="1" s="24"/>
+    <row r="204" ht="18.75" customHeight="1" s="24"/>
+    <row r="205" ht="18.75" customHeight="1" s="24"/>
+    <row r="206" ht="18.75" customHeight="1" s="24"/>
+    <row r="207" ht="18.75" customHeight="1" s="24"/>
+    <row r="208" ht="18.75" customHeight="1" s="24"/>
+    <row r="209" ht="18.75" customHeight="1" s="24"/>
+    <row r="210" ht="18.75" customHeight="1" s="24"/>
+    <row r="211" ht="18.75" customHeight="1" s="24"/>
+    <row r="212" ht="18.75" customHeight="1" s="24"/>
+    <row r="213" ht="18.75" customHeight="1" s="24"/>
+    <row r="214" ht="18.75" customHeight="1" s="24"/>
+    <row r="215" ht="18.75" customHeight="1" s="24"/>
+    <row r="216" ht="18.75" customHeight="1" s="24"/>
+    <row r="217" ht="18.75" customHeight="1" s="24"/>
+    <row r="218" ht="18.75" customHeight="1" s="24"/>
+    <row r="219" ht="18.75" customHeight="1" s="24"/>
+    <row r="220" ht="18.75" customHeight="1" s="24"/>
+    <row r="221" ht="18.75" customHeight="1" s="24"/>
+    <row r="222" ht="18.75" customHeight="1" s="24"/>
+    <row r="223" ht="18.75" customHeight="1" s="24"/>
+    <row r="224" ht="18.75" customHeight="1" s="24"/>
+    <row r="225" ht="18.75" customHeight="1" s="24"/>
+    <row r="226" ht="18.75" customHeight="1" s="24"/>
+    <row r="227" ht="18.75" customHeight="1" s="24"/>
+    <row r="228" ht="18.75" customHeight="1" s="24"/>
+    <row r="229" ht="18.75" customHeight="1" s="24"/>
+    <row r="230" ht="18.75" customHeight="1" s="24"/>
+    <row r="231" ht="18.75" customHeight="1" s="24"/>
+    <row r="232" ht="18.75" customHeight="1" s="24"/>
+    <row r="233" ht="18.75" customHeight="1" s="24"/>
+    <row r="234" ht="18.75" customHeight="1" s="24"/>
+    <row r="235" ht="18.75" customHeight="1" s="24"/>
+    <row r="236" ht="18.75" customHeight="1" s="24"/>
+    <row r="237" ht="18.75" customHeight="1" s="24"/>
+    <row r="238" ht="18.75" customHeight="1" s="24"/>
+    <row r="239" ht="18.75" customHeight="1" s="24"/>
+    <row r="240" ht="18.75" customHeight="1" s="24"/>
+    <row r="241" ht="18.75" customHeight="1" s="24"/>
+    <row r="242" ht="18.75" customHeight="1" s="24"/>
+    <row r="243" ht="18.75" customHeight="1" s="24"/>
+    <row r="244" ht="18.75" customHeight="1" s="24"/>
+    <row r="245" ht="18.75" customHeight="1" s="24"/>
+    <row r="246" ht="18.75" customHeight="1" s="24"/>
+    <row r="247" ht="18.75" customHeight="1" s="24"/>
+    <row r="248" ht="18.75" customHeight="1" s="24"/>
+    <row r="249" ht="18.75" customHeight="1" s="24"/>
+    <row r="250" ht="18.75" customHeight="1" s="24"/>
+    <row r="251" ht="18.75" customHeight="1" s="24"/>
+    <row r="252" ht="18.75" customHeight="1" s="24"/>
+    <row r="253" ht="18.75" customHeight="1" s="24"/>
+    <row r="254" ht="18.75" customHeight="1" s="24"/>
+    <row r="255" ht="18.75" customHeight="1" s="24"/>
+    <row r="256" ht="18.75" customHeight="1" s="24"/>
+    <row r="257" ht="18.75" customHeight="1" s="24"/>
+    <row r="258" ht="18.75" customHeight="1" s="24"/>
+    <row r="259" ht="18.75" customHeight="1" s="24"/>
+    <row r="260" ht="18.75" customHeight="1" s="24"/>
+    <row r="261" ht="18.75" customHeight="1" s="24"/>
+    <row r="262" ht="18.75" customHeight="1" s="24"/>
+    <row r="263" ht="18.75" customHeight="1" s="24"/>
+    <row r="264" ht="18.75" customHeight="1" s="24"/>
+    <row r="265" ht="18.75" customHeight="1" s="24"/>
+    <row r="266" ht="18.75" customHeight="1" s="24"/>
+    <row r="267" ht="18.75" customHeight="1" s="24"/>
+    <row r="268" ht="18.75" customHeight="1" s="24"/>
+    <row r="269" ht="18.75" customHeight="1" s="24"/>
+    <row r="270" ht="18.75" customHeight="1" s="24"/>
+    <row r="271" ht="18.75" customHeight="1" s="24"/>
+    <row r="272" ht="18.75" customHeight="1" s="24"/>
+    <row r="273" ht="18.75" customHeight="1" s="24"/>
+    <row r="274" ht="18.75" customHeight="1" s="24"/>
+    <row r="275" ht="18.75" customHeight="1" s="24"/>
+    <row r="276" ht="18.75" customHeight="1" s="24"/>
+    <row r="277" ht="18.75" customHeight="1" s="24"/>
+    <row r="278" ht="18.75" customHeight="1" s="24"/>
+    <row r="279" ht="18.75" customHeight="1" s="24"/>
+    <row r="280" ht="18.75" customHeight="1" s="24"/>
+    <row r="281" ht="18.75" customHeight="1" s="24"/>
+    <row r="282" ht="18.75" customHeight="1" s="24"/>
+    <row r="283" ht="18.75" customHeight="1" s="24"/>
+    <row r="284" ht="18.75" customHeight="1" s="24"/>
+    <row r="285" ht="18.75" customHeight="1" s="24"/>
+    <row r="286" ht="18.75" customHeight="1" s="24"/>
+    <row r="287" ht="18.75" customHeight="1" s="24"/>
+    <row r="288" ht="18.75" customHeight="1" s="24"/>
+    <row r="289" ht="18.75" customHeight="1" s="24"/>
+    <row r="290" ht="18.75" customHeight="1" s="24"/>
+    <row r="291" ht="18.75" customHeight="1" s="24"/>
+    <row r="292" ht="18.75" customHeight="1" s="24"/>
+    <row r="293" ht="18.75" customHeight="1" s="24"/>
+    <row r="294" ht="18.75" customHeight="1" s="24"/>
+    <row r="295" ht="18.75" customHeight="1" s="24"/>
+    <row r="296" ht="18.75" customHeight="1" s="24"/>
+    <row r="297" ht="18.75" customHeight="1" s="24"/>
+    <row r="298" ht="18.75" customHeight="1" s="24"/>
+    <row r="299" ht="18.75" customHeight="1" s="24"/>
+    <row r="300" ht="18.75" customHeight="1" s="24"/>
+    <row r="301" ht="18.75" customHeight="1" s="24"/>
+    <row r="302" ht="18.75" customHeight="1" s="24"/>
+    <row r="303" ht="18.75" customHeight="1" s="24"/>
+    <row r="304" ht="18.75" customHeight="1" s="24"/>
+    <row r="305" ht="18.75" customHeight="1" s="24"/>
+    <row r="306" ht="18.75" customHeight="1" s="24"/>
+    <row r="307" ht="18.75" customHeight="1" s="24"/>
+    <row r="308" ht="18.75" customHeight="1" s="24"/>
+    <row r="309" ht="18.75" customHeight="1" s="24"/>
+    <row r="310" ht="18.75" customHeight="1" s="24"/>
+    <row r="311" ht="18.75" customHeight="1" s="24"/>
+    <row r="312" ht="18.75" customHeight="1" s="24"/>
+    <row r="313" ht="18.75" customHeight="1" s="24"/>
+    <row r="314" ht="18.75" customHeight="1" s="24"/>
+    <row r="315" ht="18.75" customHeight="1" s="24"/>
+    <row r="316" ht="18.75" customHeight="1" s="24"/>
+    <row r="317" ht="18.75" customHeight="1" s="24"/>
+    <row r="318" ht="18.75" customHeight="1" s="24"/>
+    <row r="319" ht="18.75" customHeight="1" s="24"/>
+    <row r="320" ht="18.75" customHeight="1" s="24"/>
+    <row r="321" ht="18.75" customHeight="1" s="24"/>
+    <row r="322" ht="18.75" customHeight="1" s="24"/>
+    <row r="323" ht="18.75" customHeight="1" s="24"/>
+    <row r="324" ht="18.75" customHeight="1" s="24"/>
+    <row r="325" ht="18.75" customHeight="1" s="24"/>
+    <row r="326" ht="18.75" customHeight="1" s="24"/>
+    <row r="327" ht="18.75" customHeight="1" s="24"/>
+    <row r="328" ht="18.75" customHeight="1" s="24"/>
+    <row r="329" ht="18.75" customHeight="1" s="24"/>
+    <row r="330" ht="18.75" customHeight="1" s="24"/>
+    <row r="331" ht="18.75" customHeight="1" s="24"/>
+    <row r="332" ht="18.75" customHeight="1" s="24"/>
+    <row r="333" ht="18.75" customHeight="1" s="24"/>
+    <row r="334" ht="18.75" customHeight="1" s="24"/>
+    <row r="335" ht="18.75" customHeight="1" s="24"/>
+    <row r="336" ht="18.75" customHeight="1" s="24"/>
+    <row r="337" ht="18.75" customHeight="1" s="24"/>
+    <row r="338" ht="18.75" customHeight="1" s="24"/>
+    <row r="339" ht="18.75" customHeight="1" s="24"/>
+    <row r="340" ht="18.75" customHeight="1" s="24"/>
+    <row r="341" ht="18.75" customHeight="1" s="24"/>
+    <row r="342" ht="18.75" customHeight="1" s="24"/>
+    <row r="343" ht="18.75" customHeight="1" s="24"/>
+    <row r="344" ht="18.75" customHeight="1" s="24"/>
+    <row r="345" ht="18.75" customHeight="1" s="24"/>
+    <row r="346" ht="18.75" customHeight="1" s="24"/>
+    <row r="347" ht="18.75" customHeight="1" s="24"/>
+    <row r="348" ht="18.75" customHeight="1" s="24"/>
+    <row r="349" ht="18.75" customHeight="1" s="24"/>
+    <row r="350" ht="18.75" customHeight="1" s="24"/>
+    <row r="351" ht="18.75" customHeight="1" s="24"/>
+    <row r="352" ht="18.75" customHeight="1" s="24"/>
+    <row r="353" ht="18.75" customHeight="1" s="24"/>
+    <row r="354" ht="18.75" customHeight="1" s="24"/>
+    <row r="355" ht="18.75" customHeight="1" s="24"/>
+    <row r="356" ht="18.75" customHeight="1" s="24"/>
+    <row r="357" ht="18.75" customHeight="1" s="24"/>
+    <row r="358" ht="18.75" customHeight="1" s="24"/>
+    <row r="359" ht="18.75" customHeight="1" s="24"/>
+    <row r="360" ht="18.75" customHeight="1" s="24"/>
+    <row r="361" ht="18.75" customHeight="1" s="24"/>
+    <row r="362" ht="18.75" customHeight="1" s="24"/>
+    <row r="363" ht="18.75" customHeight="1" s="24"/>
+    <row r="364" ht="18.75" customHeight="1" s="24"/>
+    <row r="365" ht="18.75" customHeight="1" s="24"/>
+    <row r="366" ht="18.75" customHeight="1" s="24"/>
+    <row r="367" ht="18.75" customHeight="1" s="24"/>
+    <row r="368" ht="18.75" customHeight="1" s="24"/>
+    <row r="369" ht="18.75" customHeight="1" s="24"/>
+    <row r="370" ht="18.75" customHeight="1" s="24"/>
+    <row r="371" ht="18.75" customHeight="1" s="24"/>
+    <row r="372" ht="18.75" customHeight="1" s="24"/>
+    <row r="373" ht="18.75" customHeight="1" s="24"/>
+    <row r="374" ht="18.75" customHeight="1" s="24"/>
+    <row r="375" ht="18.75" customHeight="1" s="24"/>
+    <row r="376" ht="18.75" customHeight="1" s="24"/>
+    <row r="377" ht="18.75" customHeight="1" s="24"/>
+    <row r="378" ht="18.75" customHeight="1" s="24"/>
+    <row r="379" ht="18.75" customHeight="1" s="24"/>
+    <row r="380" ht="18.75" customHeight="1" s="24"/>
+    <row r="381" ht="18.75" customHeight="1" s="24"/>
+    <row r="382" ht="18.75" customHeight="1" s="24"/>
+    <row r="383" ht="18.75" customHeight="1" s="24"/>
+    <row r="384" ht="18.75" customHeight="1" s="24"/>
+    <row r="385" ht="18.75" customHeight="1" s="24"/>
+    <row r="386" ht="18.75" customHeight="1" s="24"/>
+    <row r="387" ht="18.75" customHeight="1" s="24"/>
+    <row r="388" ht="18.75" customHeight="1" s="24"/>
+    <row r="389" ht="18.75" customHeight="1" s="24"/>
+    <row r="390" ht="18.75" customHeight="1" s="24"/>
+    <row r="391" ht="18.75" customHeight="1" s="24"/>
+    <row r="392" ht="18.75" customHeight="1" s="24"/>
+    <row r="393" ht="18.75" customHeight="1" s="24"/>
+    <row r="394" ht="18.75" customHeight="1" s="24"/>
+    <row r="395" ht="18.75" customHeight="1" s="24"/>
+    <row r="396" ht="18.75" customHeight="1" s="24"/>
+    <row r="397" ht="18.75" customHeight="1" s="24"/>
+    <row r="398" ht="18.75" customHeight="1" s="24"/>
+    <row r="399" ht="18.75" customHeight="1" s="24"/>
+    <row r="400" ht="18.75" customHeight="1" s="24"/>
+    <row r="401" ht="18.75" customHeight="1" s="24"/>
+    <row r="402" ht="18.75" customHeight="1" s="24"/>
+    <row r="403" ht="18.75" customHeight="1" s="24"/>
+    <row r="404" ht="18.75" customHeight="1" s="24"/>
+    <row r="405" ht="18.75" customHeight="1" s="24"/>
+    <row r="406" ht="18.75" customHeight="1" s="24"/>
+    <row r="407" ht="18.75" customHeight="1" s="24"/>
+    <row r="408" ht="18.75" customHeight="1" s="24"/>
+    <row r="409" ht="18.75" customHeight="1" s="24"/>
+    <row r="410" ht="18.75" customHeight="1" s="24"/>
+    <row r="411" ht="18.75" customHeight="1" s="24"/>
+    <row r="412" ht="18.75" customHeight="1" s="24"/>
+    <row r="413" ht="18.75" customHeight="1" s="24"/>
+    <row r="414" ht="18.75" customHeight="1" s="24"/>
+    <row r="415" ht="18.75" customHeight="1" s="24"/>
+    <row r="416" ht="18.75" customHeight="1" s="24"/>
+    <row r="417" ht="18.75" customHeight="1" s="24"/>
+    <row r="418" ht="18.75" customHeight="1" s="24"/>
+    <row r="419" ht="18.75" customHeight="1" s="24"/>
+    <row r="420" ht="18.75" customHeight="1" s="24"/>
+    <row r="421" ht="18.75" customHeight="1" s="24"/>
+    <row r="422" ht="18.75" customHeight="1" s="24"/>
+    <row r="423" ht="18.75" customHeight="1" s="24"/>
+    <row r="424" ht="18.75" customHeight="1" s="24"/>
+    <row r="425" ht="18.75" customHeight="1" s="24"/>
+    <row r="426" ht="18.75" customHeight="1" s="24"/>
+    <row r="427" ht="18.75" customHeight="1" s="24"/>
+    <row r="428" ht="18.75" customHeight="1" s="24"/>
+    <row r="429" ht="18.75" customHeight="1" s="24"/>
+    <row r="430" ht="18.75" customHeight="1" s="24"/>
+    <row r="431" ht="18.75" customHeight="1" s="24"/>
+    <row r="432" ht="18.75" customHeight="1" s="24"/>
+    <row r="433" ht="18.75" customHeight="1" s="24"/>
+    <row r="434" ht="18.75" customHeight="1" s="24"/>
+    <row r="435" ht="18.75" customHeight="1" s="24"/>
+    <row r="436" ht="18.75" customHeight="1" s="24"/>
+    <row r="437" ht="18.75" customHeight="1" s="24"/>
+    <row r="438" ht="18.75" customHeight="1" s="24"/>
+    <row r="439" ht="18.75" customHeight="1" s="24"/>
+    <row r="440" ht="18.75" customHeight="1" s="24"/>
+    <row r="441" ht="18.75" customHeight="1" s="24"/>
+    <row r="442" ht="18.75" customHeight="1" s="24"/>
+    <row r="443" ht="18.75" customHeight="1" s="24"/>
+    <row r="444" ht="18.75" customHeight="1" s="24"/>
+    <row r="445" ht="18.75" customHeight="1" s="24"/>
+    <row r="446" ht="18.75" customHeight="1" s="24"/>
+    <row r="447" ht="18.75" customHeight="1" s="24"/>
+    <row r="448" ht="18.75" customHeight="1" s="24"/>
+    <row r="449" ht="18.75" customHeight="1" s="24"/>
+    <row r="450" ht="18.75" customHeight="1" s="24"/>
+    <row r="451" ht="18.75" customHeight="1" s="24"/>
+    <row r="452" ht="18.75" customHeight="1" s="24"/>
+    <row r="453" ht="18.75" customHeight="1" s="24"/>
+    <row r="454" ht="18.75" customHeight="1" s="24"/>
+    <row r="455" ht="18.75" customHeight="1" s="24"/>
+    <row r="456" ht="18.75" customHeight="1" s="24"/>
+    <row r="457" ht="18.75" customHeight="1" s="24"/>
+    <row r="458" ht="18.75" customHeight="1" s="24"/>
+    <row r="459" ht="18.75" customHeight="1" s="24"/>
+    <row r="460" ht="18.75" customHeight="1" s="24"/>
+    <row r="461" ht="18.75" customHeight="1" s="24"/>
+    <row r="462" ht="18.75" customHeight="1" s="24"/>
+    <row r="463" ht="18.75" customHeight="1" s="24"/>
+    <row r="464" ht="18.75" customHeight="1" s="24"/>
+    <row r="465" ht="18.75" customHeight="1" s="24"/>
+    <row r="466" ht="18.75" customHeight="1" s="24"/>
+    <row r="467" ht="18.75" customHeight="1" s="24"/>
+    <row r="468" ht="18.75" customHeight="1" s="24"/>
+    <row r="469" ht="18.75" customHeight="1" s="24"/>
+    <row r="470" ht="18.75" customHeight="1" s="24"/>
+    <row r="471" ht="18.75" customHeight="1" s="24"/>
+    <row r="472" ht="18.75" customHeight="1" s="24"/>
+    <row r="473" ht="18.75" customHeight="1" s="24"/>
+    <row r="474" ht="18.75" customHeight="1" s="24"/>
+    <row r="475" ht="18.75" customHeight="1" s="24"/>
+    <row r="476" ht="18.75" customHeight="1" s="24"/>
+    <row r="477" ht="18.75" customHeight="1" s="24"/>
+    <row r="478" ht="18.75" customHeight="1" s="24"/>
+    <row r="479" ht="18.75" customHeight="1" s="24"/>
+    <row r="480" ht="18.75" customHeight="1" s="24"/>
+    <row r="481" ht="18.75" customHeight="1" s="24"/>
+    <row r="482" ht="18.75" customHeight="1" s="24"/>
+    <row r="483" ht="18.75" customHeight="1" s="24"/>
+    <row r="484" ht="18.75" customHeight="1" s="24"/>
+    <row r="485" ht="18.75" customHeight="1" s="24"/>
+    <row r="486" ht="18.75" customHeight="1" s="24"/>
+    <row r="487" ht="18.75" customHeight="1" s="24"/>
+    <row r="488" ht="18.75" customHeight="1" s="24"/>
+    <row r="489" ht="18.75" customHeight="1" s="24"/>
+    <row r="490" ht="18.75" customHeight="1" s="24"/>
+    <row r="491" ht="18.75" customHeight="1" s="24"/>
+    <row r="492" ht="18.75" customHeight="1" s="24"/>
+    <row r="493" ht="18.75" customHeight="1" s="24"/>
+    <row r="494" ht="18.75" customHeight="1" s="24"/>
+    <row r="495" ht="18.75" customHeight="1" s="24"/>
+    <row r="496" ht="18.75" customHeight="1" s="24"/>
+    <row r="497" ht="18.75" customHeight="1" s="24"/>
+    <row r="498" ht="18.75" customHeight="1" s="24"/>
+    <row r="499" ht="18.75" customHeight="1" s="24"/>
+    <row r="500" ht="18.75" customHeight="1" s="24"/>
+    <row r="501" ht="18.75" customHeight="1" s="24"/>
+    <row r="502" ht="18.75" customHeight="1" s="24"/>
+    <row r="503" ht="18.75" customHeight="1" s="24"/>
+    <row r="504" ht="18.75" customHeight="1" s="24"/>
+    <row r="505" ht="18.75" customHeight="1" s="24"/>
+    <row r="506" ht="18.75" customHeight="1" s="24"/>
+    <row r="507" ht="18.75" customHeight="1" s="24"/>
+    <row r="508" ht="18.75" customHeight="1" s="24"/>
+    <row r="509" ht="18.75" customHeight="1" s="24"/>
+    <row r="510" ht="18.75" customHeight="1" s="24"/>
+    <row r="511" ht="18.75" customHeight="1" s="24"/>
+    <row r="512" ht="18.75" customHeight="1" s="24"/>
+    <row r="513" ht="18.75" customHeight="1" s="24"/>
+    <row r="514" ht="18.75" customHeight="1" s="24"/>
+    <row r="515" ht="18.75" customHeight="1" s="24"/>
+    <row r="516" ht="18.75" customHeight="1" s="24"/>
+    <row r="517" ht="18.75" customHeight="1" s="24"/>
+    <row r="518" ht="18.75" customHeight="1" s="24"/>
+    <row r="519" ht="18.75" customHeight="1" s="24"/>
+    <row r="520" ht="18.75" customHeight="1" s="24"/>
+    <row r="521" ht="18.75" customHeight="1" s="24"/>
+    <row r="522" ht="18.75" customHeight="1" s="24"/>
+    <row r="523" ht="18.75" customHeight="1" s="24"/>
+    <row r="524" ht="18.75" customHeight="1" s="24"/>
+    <row r="525" ht="18.75" customHeight="1" s="24"/>
+    <row r="526" ht="18.75" customHeight="1" s="24"/>
+    <row r="527" ht="18.75" customHeight="1" s="24"/>
+    <row r="528" ht="18.75" customHeight="1" s="24"/>
+    <row r="529" ht="18.75" customHeight="1" s="24"/>
+    <row r="530" ht="18.75" customHeight="1" s="24"/>
+    <row r="531" ht="18.75" customHeight="1" s="24"/>
+    <row r="532" ht="18.75" customHeight="1" s="24"/>
+    <row r="533" ht="18.75" customHeight="1" s="24"/>
+    <row r="534" ht="18.75" customHeight="1" s="24"/>
+    <row r="535" ht="18.75" customHeight="1" s="24"/>
+    <row r="536" ht="18.75" customHeight="1" s="24"/>
+    <row r="537" ht="18.75" customHeight="1" s="24"/>
+    <row r="538" ht="18.75" customHeight="1" s="24"/>
+    <row r="539" ht="18.75" customHeight="1" s="24"/>
+    <row r="540" ht="18.75" customHeight="1" s="24"/>
+    <row r="541" ht="18.75" customHeight="1" s="24"/>
+    <row r="542" ht="18.75" customHeight="1" s="24"/>
+    <row r="543" ht="18.75" customHeight="1" s="24"/>
+    <row r="544" ht="18.75" customHeight="1" s="24"/>
+    <row r="545" ht="18.75" customHeight="1" s="24"/>
+    <row r="546" ht="18.75" customHeight="1" s="24"/>
+    <row r="547" ht="18.75" customHeight="1" s="24"/>
+    <row r="548" ht="18.75" customHeight="1" s="24"/>
+    <row r="549" ht="18.75" customHeight="1" s="24"/>
+    <row r="550" ht="18.75" customHeight="1" s="24"/>
+    <row r="551" ht="18.75" customHeight="1" s="24"/>
+    <row r="552" ht="18.75" customHeight="1" s="24"/>
+    <row r="553" ht="18.75" customHeight="1" s="24"/>
+    <row r="554" ht="18.75" customHeight="1" s="24"/>
+    <row r="555" ht="18.75" customHeight="1" s="24"/>
+    <row r="556" ht="18.75" customHeight="1" s="24"/>
+    <row r="557" ht="18.75" customHeight="1" s="24"/>
+    <row r="558" ht="18.75" customHeight="1" s="24"/>
+    <row r="559" ht="18.75" customHeight="1" s="24"/>
+    <row r="560" ht="18.75" customHeight="1" s="24"/>
+    <row r="561" ht="18.75" customHeight="1" s="24"/>
+    <row r="562" ht="18.75" customHeight="1" s="24"/>
+    <row r="563" ht="18.75" customHeight="1" s="24"/>
+    <row r="564" ht="18.75" customHeight="1" s="24"/>
+    <row r="565" ht="18.75" customHeight="1" s="24"/>
+    <row r="566" ht="18.75" customHeight="1" s="24"/>
+    <row r="567" ht="18.75" customHeight="1" s="24"/>
+    <row r="568" ht="18.75" customHeight="1" s="24"/>
+    <row r="569" ht="18.75" customHeight="1" s="24"/>
+    <row r="570" ht="18.75" customHeight="1" s="24"/>
+    <row r="571" ht="18.75" customHeight="1" s="24"/>
+    <row r="572" ht="18.75" customHeight="1" s="24"/>
+    <row r="573" ht="18.75" customHeight="1" s="24"/>
+    <row r="574" ht="18.75" customHeight="1" s="24"/>
+    <row r="575" ht="18.75" customHeight="1" s="24"/>
+    <row r="576" ht="18.75" customHeight="1" s="24"/>
+    <row r="577" ht="18.75" customHeight="1" s="24"/>
+    <row r="578" ht="18.75" customHeight="1" s="24"/>
+    <row r="579" ht="18.75" customHeight="1" s="24"/>
+    <row r="580" ht="18.75" customHeight="1" s="24"/>
+    <row r="581" ht="18.75" customHeight="1" s="24"/>
+    <row r="582" ht="18.75" customHeight="1" s="24"/>
+    <row r="583" ht="18.75" customHeight="1" s="24"/>
+    <row r="584" ht="18.75" customHeight="1" s="24"/>
+    <row r="585" ht="18.75" customHeight="1" s="24"/>
+    <row r="586" ht="18.75" customHeight="1" s="24"/>
+    <row r="587" ht="18.75" customHeight="1" s="24"/>
+    <row r="588" ht="18.75" customHeight="1" s="24"/>
+    <row r="589" ht="18.75" customHeight="1" s="24"/>
+    <row r="590" ht="18.75" customHeight="1" s="24"/>
+    <row r="591" ht="18.75" customHeight="1" s="24"/>
+    <row r="592" ht="18.75" customHeight="1" s="24"/>
+    <row r="593" ht="18.75" customHeight="1" s="24"/>
+    <row r="594" ht="18.75" customHeight="1" s="24"/>
+    <row r="595" ht="18.75" customHeight="1" s="24"/>
+    <row r="596" ht="18.75" customHeight="1" s="24"/>
+    <row r="597" ht="18.75" customHeight="1" s="24"/>
+    <row r="598" ht="18.75" customHeight="1" s="24"/>
+    <row r="599" ht="18.75" customHeight="1" s="24"/>
+    <row r="600" ht="18.75" customHeight="1" s="24"/>
+    <row r="601" ht="18.75" customHeight="1" s="24"/>
+    <row r="602" ht="18.75" customHeight="1" s="24"/>
+    <row r="603" ht="18.75" customHeight="1" s="24"/>
+    <row r="604" ht="18.75" customHeight="1" s="24"/>
+    <row r="605" ht="18.75" customHeight="1" s="24"/>
+    <row r="606" ht="18.75" customHeight="1" s="24"/>
+    <row r="607" ht="18.75" customHeight="1" s="24"/>
+    <row r="608" ht="18.75" customHeight="1" s="24"/>
+    <row r="609" ht="18.75" customHeight="1" s="24"/>
+    <row r="610" ht="18.75" customHeight="1" s="24"/>
+    <row r="611" ht="18.75" customHeight="1" s="24"/>
+    <row r="612" ht="18.75" customHeight="1" s="24"/>
+    <row r="613" ht="18.75" customHeight="1" s="24"/>
+    <row r="614" ht="18.75" customHeight="1" s="24"/>
+    <row r="615" ht="18.75" customHeight="1" s="24"/>
+    <row r="616" ht="18.75" customHeight="1" s="24"/>
+    <row r="617" ht="18.75" customHeight="1" s="24"/>
+    <row r="618" ht="18.75" customHeight="1" s="24"/>
+    <row r="619" ht="18.75" customHeight="1" s="24"/>
+    <row r="620" ht="18.75" customHeight="1" s="24"/>
+    <row r="621" ht="18.75" customHeight="1" s="24"/>
+    <row r="622" ht="18.75" customHeight="1" s="24"/>
+    <row r="623" ht="18.75" customHeight="1" s="24"/>
+    <row r="624" ht="18.75" customHeight="1" s="24"/>
+    <row r="625" ht="18.75" customHeight="1" s="24"/>
+    <row r="626" ht="18.75" customHeight="1" s="24"/>
+    <row r="627" ht="18.75" customHeight="1" s="24"/>
+    <row r="628" ht="18.75" customHeight="1" s="24"/>
+    <row r="629" ht="18.75" customHeight="1" s="24"/>
+    <row r="630" ht="18.75" customHeight="1" s="24"/>
+    <row r="631" ht="18.75" customHeight="1" s="24"/>
+    <row r="632" ht="18.75" customHeight="1" s="24"/>
+    <row r="633" ht="18.75" customHeight="1" s="24"/>
+    <row r="634" ht="18.75" customHeight="1" s="24"/>
+    <row r="635" ht="18.75" customHeight="1" s="24"/>
+    <row r="636" ht="18.75" customHeight="1" s="24"/>
+    <row r="637" ht="18.75" customHeight="1" s="24"/>
+    <row r="638" ht="18.75" customHeight="1" s="24"/>
+    <row r="639" ht="18.75" customHeight="1" s="24"/>
+    <row r="640" ht="18.75" customHeight="1" s="24"/>
+    <row r="641" ht="18.75" customHeight="1" s="24"/>
+    <row r="642" ht="18.75" customHeight="1" s="24"/>
+    <row r="643" ht="18.75" customHeight="1" s="24"/>
+    <row r="644" ht="18.75" customHeight="1" s="24"/>
+    <row r="645" ht="18.75" customHeight="1" s="24"/>
+    <row r="646" ht="18.75" customHeight="1" s="24"/>
+    <row r="647" ht="18.75" customHeight="1" s="24"/>
+    <row r="648" ht="18.75" customHeight="1" s="24"/>
+    <row r="649" ht="18.75" customHeight="1" s="24"/>
+    <row r="650" ht="18.75" customHeight="1" s="24"/>
+    <row r="651" ht="18.75" customHeight="1" s="24"/>
+    <row r="652" ht="18.75" customHeight="1" s="24"/>
+    <row r="653" ht="18.75" customHeight="1" s="24"/>
+    <row r="654" ht="18.75" customHeight="1" s="24"/>
+    <row r="655" ht="18.75" customHeight="1" s="24"/>
+    <row r="656" ht="18.75" customHeight="1" s="24"/>
+    <row r="657" ht="18.75" customHeight="1" s="24"/>
+    <row r="658" ht="18.75" customHeight="1" s="24"/>
+    <row r="659" ht="18.75" customHeight="1" s="24"/>
+    <row r="660" ht="18.75" customHeight="1" s="24"/>
+    <row r="661" ht="18.75" customHeight="1" s="24"/>
+    <row r="662" ht="18.75" customHeight="1" s="24"/>
+    <row r="663" ht="18.75" customHeight="1" s="24"/>
+    <row r="664" ht="18.75" customHeight="1" s="24"/>
+    <row r="665" ht="18.75" customHeight="1" s="24"/>
+    <row r="666" ht="18.75" customHeight="1" s="24"/>
+    <row r="667" ht="18.75" customHeight="1" s="24"/>
+    <row r="668" ht="18.75" customHeight="1" s="24"/>
+    <row r="669" ht="18.75" customHeight="1" s="24"/>
+    <row r="670" ht="18.75" customHeight="1" s="24"/>
+    <row r="671" ht="18.75" customHeight="1" s="24"/>
+    <row r="672" ht="18.75" customHeight="1" s="24"/>
+    <row r="673" ht="18.75" customHeight="1" s="24"/>
+    <row r="674" ht="18.75" customHeight="1" s="24"/>
+    <row r="675" ht="18.75" customHeight="1" s="24"/>
+    <row r="676" ht="18.75" customHeight="1" s="24"/>
+    <row r="677" ht="18.75" customHeight="1" s="24"/>
+    <row r="678" ht="18.75" customHeight="1" s="24"/>
+    <row r="679" ht="18.75" customHeight="1" s="24"/>
+    <row r="680" ht="18.75" customHeight="1" s="24"/>
+    <row r="681" ht="18.75" customHeight="1" s="24"/>
+    <row r="682" ht="18.75" customHeight="1" s="24"/>
+    <row r="683" ht="18.75" customHeight="1" s="24"/>
+    <row r="684" ht="18.75" customHeight="1" s="24"/>
+    <row r="685" ht="18.75" customHeight="1" s="24"/>
+    <row r="686" ht="18.75" customHeight="1" s="24"/>
+    <row r="687" ht="18.75" customHeight="1" s="24"/>
+    <row r="688" ht="18.75" customHeight="1" s="24"/>
+    <row r="689" ht="18.75" customHeight="1" s="24"/>
+    <row r="690" ht="18.75" customHeight="1" s="24"/>
+    <row r="691" ht="18.75" customHeight="1" s="24"/>
+    <row r="692" ht="18.75" customHeight="1" s="24"/>
+    <row r="693" ht="18.75" customHeight="1" s="24"/>
+    <row r="694" ht="18.75" customHeight="1" s="24"/>
+    <row r="695" ht="18.75" customHeight="1" s="24"/>
+    <row r="696" ht="18.75" customHeight="1" s="24"/>
+    <row r="697" ht="18.75" customHeight="1" s="24"/>
+    <row r="698" ht="18.75" customHeight="1" s="24"/>
+    <row r="699" ht="18.75" customHeight="1" s="24"/>
+    <row r="700" ht="18.75" customHeight="1" s="24"/>
+    <row r="701" ht="18.75" customHeight="1" s="24"/>
+    <row r="702" ht="18.75" customHeight="1" s="24"/>
+    <row r="703" ht="18.75" customHeight="1" s="24"/>
+    <row r="704" ht="18.75" customHeight="1" s="24"/>
+    <row r="705" ht="18.75" customHeight="1" s="24"/>
+    <row r="706" ht="18.75" customHeight="1" s="24"/>
+    <row r="707" ht="18.75" customHeight="1" s="24"/>
+    <row r="708" ht="18.75" customHeight="1" s="24"/>
+    <row r="709" ht="18.75" customHeight="1" s="24"/>
+    <row r="710" ht="18.75" customHeight="1" s="24"/>
+    <row r="711" ht="18.75" customHeight="1" s="24"/>
+    <row r="712" ht="18.75" customHeight="1" s="24"/>
+    <row r="713" ht="18.75" customHeight="1" s="24"/>
+    <row r="714" ht="18.75" customHeight="1" s="24"/>
+    <row r="715" ht="18.75" customHeight="1" s="24"/>
+    <row r="716" ht="18.75" customHeight="1" s="24"/>
+    <row r="717" ht="18.75" customHeight="1" s="24"/>
+    <row r="718" ht="18.75" customHeight="1" s="24"/>
+    <row r="719" ht="18.75" customHeight="1" s="24"/>
+    <row r="720" ht="18.75" customHeight="1" s="24"/>
+    <row r="721" ht="18.75" customHeight="1" s="24"/>
+    <row r="722" ht="18.75" customHeight="1" s="24"/>
+    <row r="723" ht="18.75" customHeight="1" s="24"/>
+    <row r="724" ht="18.75" customHeight="1" s="24"/>
+    <row r="725" ht="18.75" customHeight="1" s="24"/>
+    <row r="726" ht="18.75" customHeight="1" s="24"/>
+    <row r="727" ht="18.75" customHeight="1" s="24"/>
+    <row r="728" ht="18.75" customHeight="1" s="24"/>
+    <row r="729" ht="18.75" customHeight="1" s="24"/>
+    <row r="730" ht="18.75" customHeight="1" s="24"/>
+    <row r="731" ht="18.75" customHeight="1" s="24"/>
+    <row r="732" ht="18.75" customHeight="1" s="24"/>
+    <row r="733" ht="18.75" customHeight="1" s="24"/>
+    <row r="734" ht="18.75" customHeight="1" s="24"/>
+    <row r="735" ht="18.75" customHeight="1" s="24"/>
+    <row r="736" ht="18.75" customHeight="1" s="24"/>
+    <row r="737" ht="18.75" customHeight="1" s="24"/>
+    <row r="738" ht="18.75" customHeight="1" s="24"/>
+    <row r="739" ht="18.75" customHeight="1" s="24"/>
+    <row r="740" ht="18.75" customHeight="1" s="24"/>
+    <row r="741" ht="18.75" customHeight="1" s="24"/>
+    <row r="742" ht="18.75" customHeight="1" s="24"/>
+    <row r="743" ht="18.75" customHeight="1" s="24"/>
+    <row r="744" ht="18.75" customHeight="1" s="24"/>
+    <row r="745" ht="18.75" customHeight="1" s="24"/>
+    <row r="746" ht="18.75" customHeight="1" s="24"/>
+    <row r="747" ht="18.75" customHeight="1" s="24"/>
+    <row r="748" ht="18.75" customHeight="1" s="24"/>
+    <row r="749" ht="18.75" customHeight="1" s="24"/>
+    <row r="750" ht="18.75" customHeight="1" s="24"/>
+    <row r="751" ht="18.75" customHeight="1" s="24"/>
+    <row r="752" ht="18.75" customHeight="1" s="24"/>
+    <row r="753" ht="18.75" customHeight="1" s="24"/>
+    <row r="754" ht="18.75" customHeight="1" s="24"/>
+    <row r="755" ht="18.75" customHeight="1" s="24"/>
+    <row r="756" ht="18.75" customHeight="1" s="24"/>
+    <row r="757" ht="18.75" customHeight="1" s="24"/>
+    <row r="758" ht="18.75" customHeight="1" s="24"/>
+    <row r="759" ht="18.75" customHeight="1" s="24"/>
+    <row r="760" ht="18.75" customHeight="1" s="24"/>
+    <row r="761" ht="18.75" customHeight="1" s="24"/>
+    <row r="762" ht="18.75" customHeight="1" s="24"/>
+    <row r="763" ht="18.75" customHeight="1" s="24"/>
+    <row r="764" ht="18.75" customHeight="1" s="24"/>
+    <row r="765" ht="18.75" customHeight="1" s="24"/>
+    <row r="766" ht="18.75" customHeight="1" s="24"/>
+    <row r="767" ht="18.75" customHeight="1" s="24"/>
+    <row r="768" ht="18.75" customHeight="1" s="24"/>
+    <row r="769" ht="18.75" customHeight="1" s="24"/>
+    <row r="770" ht="18.75" customHeight="1" s="24"/>
+    <row r="771" ht="18.75" customHeight="1" s="24"/>
+    <row r="772" ht="18.75" customHeight="1" s="24"/>
+    <row r="773" ht="18.75" customHeight="1" s="24"/>
+    <row r="774" ht="18.75" customHeight="1" s="24"/>
+    <row r="775" ht="18.75" customHeight="1" s="24"/>
+    <row r="776" ht="18.75" customHeight="1" s="24"/>
+    <row r="777" ht="18.75" customHeight="1" s="24"/>
+    <row r="778" ht="18.75" customHeight="1" s="24"/>
+    <row r="779" ht="18.75" customHeight="1" s="24"/>
+    <row r="780" ht="18.75" customHeight="1" s="24"/>
+    <row r="781" ht="18.75" customHeight="1" s="24"/>
+    <row r="782" ht="18.75" customHeight="1" s="24"/>
+    <row r="783" ht="18.75" customHeight="1" s="24"/>
+    <row r="784" ht="18.75" customHeight="1" s="24"/>
+    <row r="785" ht="18.75" customHeight="1" s="24"/>
+    <row r="786" ht="18.75" customHeight="1" s="24"/>
+    <row r="787" ht="18.75" customHeight="1" s="24"/>
+    <row r="788" ht="18.75" customHeight="1" s="24"/>
+    <row r="789" ht="18.75" customHeight="1" s="24"/>
+    <row r="790" ht="18.75" customHeight="1" s="24"/>
+    <row r="791" ht="18.75" customHeight="1" s="24"/>
+    <row r="792" ht="18.75" customHeight="1" s="24"/>
+    <row r="793" ht="18.75" customHeight="1" s="24"/>
+    <row r="794" ht="18.75" customHeight="1" s="24"/>
+    <row r="795" ht="18.75" customHeight="1" s="24"/>
+    <row r="796" ht="18.75" customHeight="1" s="24"/>
+    <row r="797" ht="18.75" customHeight="1" s="24"/>
+    <row r="798" ht="18.75" customHeight="1" s="24"/>
+    <row r="799" ht="18.75" customHeight="1" s="24"/>
+    <row r="800" ht="18.75" customHeight="1" s="24"/>
+    <row r="801" ht="18.75" customHeight="1" s="24"/>
+    <row r="802" ht="18.75" customHeight="1" s="24"/>
+    <row r="803" ht="18.75" customHeight="1" s="24"/>
+    <row r="804" ht="18.75" customHeight="1" s="24"/>
+    <row r="805" ht="18.75" customHeight="1" s="24"/>
+    <row r="806" ht="18.75" customHeight="1" s="24"/>
+    <row r="807" ht="18.75" customHeight="1" s="24"/>
+    <row r="808" ht="18.75" customHeight="1" s="24"/>
+    <row r="809" ht="18.75" customHeight="1" s="24"/>
+    <row r="810" ht="18.75" customHeight="1" s="24"/>
+    <row r="811" ht="18.75" customHeight="1" s="24"/>
+    <row r="812" ht="18.75" customHeight="1" s="24"/>
+    <row r="813" ht="18.75" customHeight="1" s="24"/>
+    <row r="814" ht="18.75" customHeight="1" s="24"/>
+    <row r="815" ht="18.75" customHeight="1" s="24"/>
+    <row r="816" ht="18.75" customHeight="1" s="24"/>
+    <row r="817" ht="18.75" customHeight="1" s="24"/>
+    <row r="818" ht="18.75" customHeight="1" s="24"/>
+    <row r="819" ht="18.75" customHeight="1" s="24"/>
+    <row r="820" ht="18.75" customHeight="1" s="24"/>
+    <row r="821" ht="18.75" customHeight="1" s="24"/>
+    <row r="822" ht="18.75" customHeight="1" s="24"/>
+    <row r="823" ht="18.75" customHeight="1" s="24"/>
+    <row r="824" ht="18.75" customHeight="1" s="24"/>
+    <row r="825" ht="18.75" customHeight="1" s="24"/>
+    <row r="826" ht="18.75" customHeight="1" s="24"/>
+    <row r="827" ht="18.75" customHeight="1" s="24"/>
+    <row r="828" ht="18.75" customHeight="1" s="24"/>
+    <row r="829" ht="18.75" customHeight="1" s="24"/>
+    <row r="830" ht="18.75" customHeight="1" s="24"/>
+    <row r="831" ht="18.75" customHeight="1" s="24"/>
+    <row r="832" ht="18.75" customHeight="1" s="24"/>
+    <row r="833" ht="18.75" customHeight="1" s="24"/>
+    <row r="834" ht="18.75" customHeight="1" s="24"/>
+    <row r="835" ht="18.75" customHeight="1" s="24"/>
+    <row r="836" ht="18.75" customHeight="1" s="24"/>
+    <row r="837" ht="18.75" customHeight="1" s="24"/>
+    <row r="838" ht="18.75" customHeight="1" s="24"/>
+    <row r="839" ht="18.75" customHeight="1" s="24"/>
+    <row r="840" ht="18.75" customHeight="1" s="24"/>
+    <row r="841" ht="18.75" customHeight="1" s="24"/>
+    <row r="842" ht="18.75" customHeight="1" s="24"/>
+    <row r="843" ht="18.75" customHeight="1" s="24"/>
+    <row r="844" ht="18.75" customHeight="1" s="24"/>
+    <row r="845" ht="18.75" customHeight="1" s="24"/>
+    <row r="846" ht="18.75" customHeight="1" s="24"/>
+    <row r="847" ht="18.75" customHeight="1" s="24"/>
+    <row r="848" ht="18.75" customHeight="1" s="24"/>
+    <row r="849" ht="18.75" customHeight="1" s="24"/>
+    <row r="850" ht="18.75" customHeight="1" s="24"/>
+    <row r="851" ht="18.75" customHeight="1" s="24"/>
+    <row r="852" ht="18.75" customHeight="1" s="24"/>
+    <row r="853" ht="18.75" customHeight="1" s="24"/>
+    <row r="854" ht="18.75" customHeight="1" s="24"/>
+    <row r="855" ht="18.75" customHeight="1" s="24"/>
+    <row r="856" ht="18.75" customHeight="1" s="24"/>
+    <row r="857" ht="18.75" customHeight="1" s="24"/>
+    <row r="858" ht="18.75" customHeight="1" s="24"/>
+    <row r="859" ht="18.75" customHeight="1" s="24"/>
+    <row r="860" ht="18.75" customHeight="1" s="24"/>
+    <row r="861" ht="18.75" customHeight="1" s="24"/>
+    <row r="862" ht="18.75" customHeight="1" s="24"/>
+    <row r="863" ht="18.75" customHeight="1" s="24"/>
+    <row r="864" ht="18.75" customHeight="1" s="24"/>
+    <row r="865" ht="18.75" customHeight="1" s="24"/>
+    <row r="866" ht="18.75" customHeight="1" s="24"/>
+    <row r="867" ht="18.75" customHeight="1" s="24"/>
+    <row r="868" ht="18.75" customHeight="1" s="24"/>
+    <row r="869" ht="18.75" customHeight="1" s="24"/>
+    <row r="870" ht="18.75" customHeight="1" s="24"/>
+    <row r="871" ht="18.75" customHeight="1" s="24"/>
+    <row r="872" ht="18.75" customHeight="1" s="24"/>
+    <row r="873" ht="18.75" customHeight="1" s="24"/>
+    <row r="874" ht="18.75" customHeight="1" s="24"/>
+    <row r="875" ht="18.75" customHeight="1" s="24"/>
+    <row r="876" ht="18.75" customHeight="1" s="24"/>
+    <row r="877" ht="18.75" customHeight="1" s="24"/>
+    <row r="878" ht="18.75" customHeight="1" s="24"/>
+    <row r="879" ht="18.75" customHeight="1" s="24"/>
+    <row r="880" ht="18.75" customHeight="1" s="24"/>
+    <row r="881" ht="18.75" customHeight="1" s="24"/>
+    <row r="882" ht="18.75" customHeight="1" s="24"/>
+    <row r="883" ht="18.75" customHeight="1" s="24"/>
+    <row r="884" ht="18.75" customHeight="1" s="24"/>
+    <row r="885" ht="18.75" customHeight="1" s="24"/>
+    <row r="886" ht="18.75" customHeight="1" s="24"/>
+    <row r="887" ht="18.75" customHeight="1" s="24"/>
+    <row r="888" ht="18.75" customHeight="1" s="24"/>
+    <row r="889" ht="18.75" customHeight="1" s="24"/>
+    <row r="890" ht="18.75" customHeight="1" s="24"/>
+    <row r="891" ht="18.75" customHeight="1" s="24"/>
+    <row r="892" ht="18.75" customHeight="1" s="24"/>
+    <row r="893" ht="18.75" customHeight="1" s="24"/>
+    <row r="894" ht="18.75" customHeight="1" s="24"/>
+    <row r="895" ht="18.75" customHeight="1" s="24"/>
+    <row r="896" ht="18.75" customHeight="1" s="24"/>
+    <row r="897" ht="18.75" customHeight="1" s="24"/>
+    <row r="898" ht="18.75" customHeight="1" s="24"/>
+    <row r="899" ht="18.75" customHeight="1" s="24"/>
+    <row r="900" ht="18.75" customHeight="1" s="24"/>
+    <row r="901" ht="18.75" customHeight="1" s="24"/>
+    <row r="902" ht="18.75" customHeight="1" s="24"/>
+    <row r="903" ht="18.75" customHeight="1" s="24"/>
+    <row r="904" ht="18.75" customHeight="1" s="24"/>
+    <row r="905" ht="18.75" customHeight="1" s="24"/>
+    <row r="906" ht="18.75" customHeight="1" s="24"/>
+    <row r="907" ht="18.75" customHeight="1" s="24"/>
+    <row r="908" ht="18.75" customHeight="1" s="24"/>
+    <row r="909" ht="18.75" customHeight="1" s="24"/>
+    <row r="910" ht="18.75" customHeight="1" s="24"/>
+    <row r="911" ht="18.75" customHeight="1" s="24"/>
+    <row r="912" ht="18.75" customHeight="1" s="24"/>
+    <row r="913" ht="18.75" customHeight="1" s="24"/>
+    <row r="914" ht="18.75" customHeight="1" s="24"/>
+    <row r="915" ht="18.75" customHeight="1" s="24"/>
+    <row r="916" ht="18.75" customHeight="1" s="24"/>
+    <row r="917" ht="18.75" customHeight="1" s="24"/>
+    <row r="918" ht="18.75" customHeight="1" s="24"/>
+    <row r="919" ht="18.75" customHeight="1" s="24"/>
+    <row r="920" ht="18.75" customHeight="1" s="24"/>
+    <row r="921" ht="18.75" customHeight="1" s="24"/>
+    <row r="922" ht="18.75" customHeight="1" s="24"/>
+    <row r="923" ht="18.75" customHeight="1" s="24"/>
+    <row r="924" ht="18.75" customHeight="1" s="24"/>
+    <row r="925" ht="18.75" customHeight="1" s="24"/>
+    <row r="926" ht="18.75" customHeight="1" s="24"/>
+    <row r="927" ht="18.75" customHeight="1" s="24"/>
+    <row r="928" ht="18.75" customHeight="1" s="24"/>
+    <row r="929" ht="18.75" customHeight="1" s="24"/>
+    <row r="930" ht="18.75" customHeight="1" s="24"/>
+    <row r="931" ht="18.75" customHeight="1" s="24"/>
+    <row r="932" ht="18.75" customHeight="1" s="24"/>
+    <row r="933" ht="18.75" customHeight="1" s="24"/>
+    <row r="934" ht="18.75" customHeight="1" s="24"/>
+    <row r="935" ht="18.75" customHeight="1" s="24"/>
+    <row r="936" ht="18.75" customHeight="1" s="24"/>
+    <row r="937" ht="18.75" customHeight="1" s="24"/>
+    <row r="938" ht="18.75" customHeight="1" s="24"/>
+    <row r="939" ht="18.75" customHeight="1" s="24"/>
+    <row r="940" ht="18.75" customHeight="1" s="24"/>
+    <row r="941" ht="18.75" customHeight="1" s="24"/>
+    <row r="942" ht="18.75" customHeight="1" s="24"/>
+    <row r="943" ht="18.75" customHeight="1" s="24"/>
+    <row r="944" ht="18.75" customHeight="1" s="24"/>
+    <row r="945" ht="18.75" customHeight="1" s="24"/>
+    <row r="946" ht="18.75" customHeight="1" s="24"/>
+    <row r="947" ht="18.75" customHeight="1" s="24"/>
+    <row r="948" ht="18.75" customHeight="1" s="24"/>
+    <row r="949" ht="18.75" customHeight="1" s="24"/>
+    <row r="950" ht="18.75" customHeight="1" s="24"/>
+    <row r="951" ht="18.75" customHeight="1" s="24"/>
+    <row r="952" ht="18.75" customHeight="1" s="24"/>
+    <row r="953" ht="18.75" customHeight="1" s="24"/>
+    <row r="954" ht="18.75" customHeight="1" s="24"/>
+    <row r="955" ht="18.75" customHeight="1" s="24"/>
+    <row r="956" ht="18.75" customHeight="1" s="24"/>
+    <row r="957" ht="18.75" customHeight="1" s="24"/>
+    <row r="958" ht="18.75" customHeight="1" s="24"/>
+    <row r="959" ht="18.75" customHeight="1" s="24"/>
+    <row r="960" ht="18.75" customHeight="1" s="24"/>
+    <row r="961" ht="18.75" customHeight="1" s="24"/>
+    <row r="962" ht="18.75" customHeight="1" s="24"/>
+    <row r="963" ht="18.75" customHeight="1" s="24"/>
+    <row r="964" ht="18.75" customHeight="1" s="24"/>
+    <row r="965" ht="18.75" customHeight="1" s="24"/>
+    <row r="966" ht="18.75" customHeight="1" s="24"/>
+    <row r="967" ht="18.75" customHeight="1" s="24"/>
+    <row r="968" ht="18.75" customHeight="1" s="24"/>
+    <row r="969" ht="18.75" customHeight="1" s="24"/>
+    <row r="970" ht="18.75" customHeight="1" s="24"/>
+    <row r="971" ht="18.75" customHeight="1" s="24"/>
+    <row r="972" ht="18.75" customHeight="1" s="24"/>
+    <row r="973" ht="18.75" customHeight="1" s="24"/>
+    <row r="974" ht="18.75" customHeight="1" s="24"/>
+    <row r="975" ht="18.75" customHeight="1" s="24"/>
+    <row r="976" ht="18.75" customHeight="1" s="24"/>
+    <row r="977" ht="18.75" customHeight="1" s="24"/>
+    <row r="978" ht="18.75" customHeight="1" s="24"/>
+    <row r="979" ht="18.75" customHeight="1" s="24"/>
+    <row r="980" ht="18.75" customHeight="1" s="24"/>
+    <row r="981" ht="18.75" customHeight="1" s="24"/>
+    <row r="982" ht="18.75" customHeight="1" s="24"/>
+    <row r="983" ht="18.75" customHeight="1" s="24"/>
+    <row r="984" ht="18.75" customHeight="1" s="24"/>
+    <row r="985" ht="18.75" customHeight="1" s="24"/>
+    <row r="986" ht="18.75" customHeight="1" s="24"/>
+    <row r="987" ht="18.75" customHeight="1" s="24"/>
+    <row r="988" ht="18.75" customHeight="1" s="24"/>
+    <row r="989" ht="18.75" customHeight="1" s="24"/>
+    <row r="990" ht="18.75" customHeight="1" s="24"/>
+    <row r="991" ht="18.75" customHeight="1" s="24"/>
+    <row r="992" ht="18.75" customHeight="1" s="24"/>
+    <row r="993" ht="18.75" customHeight="1" s="24"/>
+    <row r="994" ht="18.75" customHeight="1" s="24"/>
+    <row r="995" ht="18.75" customHeight="1" s="24"/>
+    <row r="996" ht="18.75" customHeight="1" s="24"/>
+    <row r="997" ht="18.75" customHeight="1" s="24"/>
+    <row r="998" ht="18.75" customHeight="1" s="24"/>
+    <row r="999" ht="18.75" customHeight="1" s="24"/>
+    <row r="1000" ht="18.75" customHeight="1" s="24"/>
+    <row r="1001" ht="18.75" customHeight="1" s="24"/>
+    <row r="1002" ht="18.75" customHeight="1" s="24"/>
+    <row r="1003" ht="18.75" customHeight="1" s="24"/>
+    <row r="1004" ht="18.75" customHeight="1" s="24"/>
+    <row r="1005" ht="18.75" customHeight="1" s="24"/>
+    <row r="1006" ht="18.75" customHeight="1" s="24"/>
+    <row r="1007" ht="18.75" customHeight="1" s="24"/>
+    <row r="1008" ht="18.75" customHeight="1" s="24"/>
+    <row r="1009" ht="18.75" customHeight="1" s="24"/>
+    <row r="1010" ht="18.75" customHeight="1" s="24"/>
+    <row r="1011" ht="18.75" customHeight="1" s="24"/>
+    <row r="1012" ht="18.75" customHeight="1" s="24"/>
+    <row r="1013" ht="18.75" customHeight="1" s="24"/>
+    <row r="1014" ht="18.75" customHeight="1" s="24"/>
+    <row r="1015" ht="18.75" customHeight="1" s="24"/>
+    <row r="1016" ht="18.75" customHeight="1" s="24"/>
+    <row r="1017" ht="18.75" customHeight="1" s="24"/>
+    <row r="1018" ht="18.75" customHeight="1" s="24"/>
+    <row r="1019" ht="18.75" customHeight="1" s="24"/>
+    <row r="1020" ht="18.75" customHeight="1" s="24"/>
+    <row r="1021" ht="18.75" customHeight="1" s="24"/>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A44:A52"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="A35:A43"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="D8:D16"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="C17:C25"/>
+    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="C26:C34"/>
+    <mergeCell ref="B35:B43"/>
+    <mergeCell ref="C35:C43"/>
+    <mergeCell ref="B44:B52"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.433070866141732" right="0.196850393700787" top="0.196850393700787" bottom="0.393700787401575" header="0" footer="0"/>
+  <pageSetup orientation="landscape" paperSize="9"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -2719,7 +4392,7 @@
       </c>
       <c r="H17" s="17" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G1, C3, Labdelli</t>
+          <t>OPM, TP/ G1, A3, Mlle Hamou Maamar.M</t>
         </is>
       </c>
     </row>
@@ -2749,7 +4422,7 @@
       </c>
       <c r="H18" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G3, A1, BENSALLOUA</t>
+          <t>ASD2, TP/ G3, A2, BENSALLOUA</t>
         </is>
       </c>
     </row>
@@ -2779,7 +4452,7 @@
       </c>
       <c r="H19" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G6, C2, M. Benyatou Kamel</t>
+          <t>IPSD, TD/ G6, C1, M. Benyatou Kamel</t>
         </is>
       </c>
     </row>
@@ -2809,7 +4482,7 @@
       </c>
       <c r="H20" s="27" t="inlineStr">
         <is>
-          <t>SM2, TD/ G7, C1, HASSAINE</t>
+          <t>SM2, TD/ G7, B4, HASSAINE</t>
         </is>
       </c>
     </row>
@@ -2871,7 +4544,7 @@
       </c>
       <c r="B26" s="17" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G2, B3, Labdelli</t>
+          <t>OPM, TP/ G2, A1, Mlle Hamou Maamar.M</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
@@ -2881,7 +4554,7 @@
       </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G3, B2, Labdelli</t>
+          <t>PHY2, TD/ G1, B2, Labdelli</t>
         </is>
       </c>
       <c r="E26" s="29" t="inlineStr">
@@ -2891,15 +4564,19 @@
       </c>
       <c r="F26" s="17" t="inlineStr">
         <is>
+          <t>OPM, TP/ G4, A3, Mlle Ali Merina.H</t>
+        </is>
+      </c>
+      <c r="G26" s="17" t="inlineStr">
+        <is>
           <t>PHY2, TD/ G4, B3, M. Benchehida</t>
         </is>
       </c>
-      <c r="G26" s="17" t="inlineStr">
-        <is>
-          <t>PHY2, TD/ G7, B2, M. Benchehida</t>
-        </is>
-      </c>
-      <c r="H26" s="17" t="n"/>
+      <c r="H26" s="17" t="inlineStr">
+        <is>
+          <t>PHY2, TD/ G2, B1, Labdelli</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="21.75" customHeight="1" s="24">
       <c r="A27" s="30" t="n"/>
@@ -2911,13 +4588,25 @@
       <c r="C27" s="31" t="n"/>
       <c r="D27" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G4, B1, Mme Kaisserli</t>
+          <t>OPM, TP/ G3, A1, Mlle Hamou Maamar.M</t>
         </is>
       </c>
       <c r="E27" s="31" t="n"/>
-      <c r="F27" s="27" t="n"/>
-      <c r="G27" s="27" t="n"/>
-      <c r="H27" s="27" t="n"/>
+      <c r="F27" s="27" t="inlineStr">
+        <is>
+          <t>PHY2, TD/ G5, B3, M. Benchehida</t>
+        </is>
+      </c>
+      <c r="G27" s="27" t="inlineStr">
+        <is>
+          <t>OPM, TP/ G7, A1, Mlle Ali Merina.H</t>
+        </is>
+      </c>
+      <c r="H27" s="27" t="inlineStr">
+        <is>
+          <t>PHY2, TD/ G6, B2, M. Benchehida</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="21.75" customHeight="1" s="24">
       <c r="A28" s="30" t="n"/>
@@ -2929,7 +4618,7 @@
       <c r="C28" s="31" t="n"/>
       <c r="D28" s="27" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G6, B3, M. Benchehida</t>
+          <t>IPSD, TD/ G4, B1, Mme Kaisserli</t>
         </is>
       </c>
       <c r="E28" s="31" t="n"/>
@@ -2941,11 +4630,15 @@
       <c r="A29" s="30" t="n"/>
       <c r="B29" s="27" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G5, B4, M. Benchehida</t>
+          <t>OPM, TP/ G5, A2, Mlle Ali Merina.H</t>
         </is>
       </c>
       <c r="C29" s="31" t="n"/>
-      <c r="D29" s="27" t="n"/>
+      <c r="D29" s="27" t="inlineStr">
+        <is>
+          <t>OPM, TP/ G6, A2, Mlle Ali Merina.H</t>
+        </is>
+      </c>
       <c r="E29" s="31" t="n"/>
       <c r="F29" s="27" t="n"/>
       <c r="G29" s="27" t="n"/>
@@ -3017,7 +4710,11 @@
           <t>TIC, COUR/ section 2, Amphi2, HENNI K.</t>
         </is>
       </c>
-      <c r="D35" s="17" t="n"/>
+      <c r="D35" s="17" t="inlineStr">
+        <is>
+          <t>PHY2, TD/ G3, B2, Labdelli</t>
+        </is>
+      </c>
       <c r="E35" s="17" t="n"/>
       <c r="F35" s="17" t="n"/>
       <c r="G35" s="17" t="n"/>
@@ -3027,7 +4724,11 @@
       <c r="A36" s="30" t="n"/>
       <c r="B36" s="31" t="n"/>
       <c r="C36" s="31" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>PHY2, TD/ G7, B3, M. Benchehida</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -4562,7 +6263,7 @@
       </c>
       <c r="H17" s="17" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G2, S1, BOUZEBIBA</t>
+          <t>RÉS, TD/ G2, C3, BOUZEBIBA</t>
         </is>
       </c>
     </row>
@@ -4592,7 +6293,7 @@
       </c>
       <c r="H18" s="27" t="inlineStr">
         <is>
-          <t>BDD, TP/ G6, A2, BETOUATI</t>
+          <t>BDD, TP/ G6, A4, BETOUATI</t>
         </is>
       </c>
     </row>
@@ -4622,7 +6323,7 @@
       </c>
       <c r="H19" s="27" t="inlineStr">
         <is>
-          <t>BDD, TD/ G7, C4, MAGHNI SANDID Z.</t>
+          <t>BDD, TD/ G7, C2, MAGHNI SANDID Z.</t>
         </is>
       </c>
     </row>
@@ -4652,7 +6353,7 @@
       </c>
       <c r="H20" s="27" t="inlineStr">
         <is>
-          <t>BDD, TP/ G8, A3, MIROUD</t>
+          <t>BDD, TP/ G8, M1, MIROUD</t>
         </is>
       </c>
     </row>
@@ -4682,7 +6383,7 @@
       </c>
       <c r="H21" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G9, S12, LAREDJ A. M</t>
+          <t>RÉS, TD/ G9, C4, LAREDJ A. M</t>
         </is>
       </c>
     </row>
@@ -4734,12 +6435,12 @@
       </c>
       <c r="B26" s="17" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G1, A2,  MOUSSA M.</t>
+          <t>RÉS, TP/ G1, A4,  MOUSSA M.</t>
         </is>
       </c>
       <c r="C26" s="17" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G2, A1,  MOUSSA M.</t>
+          <t>POO, TP/ G1, M1, BETOUATI</t>
         </is>
       </c>
       <c r="D26" s="29" t="inlineStr">
@@ -4749,22 +6450,22 @@
       </c>
       <c r="E26" s="17" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G4, A1, BENHAMED</t>
+          <t>DAW, TP/ G1, M2, HENNI K</t>
         </is>
       </c>
       <c r="F26" s="17" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G5, A1, BENHAMED</t>
+          <t>DAW, TP/ G2, M3, HENNI K</t>
         </is>
       </c>
       <c r="G26" s="17" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G6, A1, BENHAMED</t>
+          <t>DAW, TP/ G3, A4, HENNI K</t>
         </is>
       </c>
       <c r="H26" s="29" t="inlineStr">
         <is>
-          <t>POO, COUR/ section 1, Amphi1, ABID M.</t>
+          <t>DAW, COUR/ section 1, Amphi1, SEHABA K.</t>
         </is>
       </c>
     </row>
@@ -4772,75 +6473,115 @@
       <c r="A27" s="30" t="n"/>
       <c r="B27" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G3, C2, BOUZEBIBA</t>
+          <t>RÉS, TD/ G3, B4, BOUZEBIBA</t>
         </is>
       </c>
       <c r="C27" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G3, A2, BENHAMED</t>
+          <t>RÉS, TP/ G2, A3,  MOUSSA M.</t>
         </is>
       </c>
       <c r="D27" s="31" t="n"/>
       <c r="E27" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G5, B3, BOUZEBIBA</t>
+          <t>POO, TP/ G2, A4, BETOUATI</t>
         </is>
       </c>
       <c r="F27" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G6, B4, BOUZEBIBA</t>
-        </is>
-      </c>
-      <c r="G27" s="27" t="n"/>
+          <t>POO, TP/ G3, M1, BETOUATI</t>
+        </is>
+      </c>
+      <c r="G27" s="27" t="inlineStr">
+        <is>
+          <t>POO, TP/ G5, A3, ABID M.</t>
+        </is>
+      </c>
       <c r="H27" s="31" t="n"/>
     </row>
     <row r="28" ht="21.75" customHeight="1" s="24">
       <c r="A28" s="30" t="n"/>
       <c r="B28" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G7, C3, LAREDJ A. M</t>
+          <t>RÉS, TD/ G7, C1, LAREDJ A. M</t>
         </is>
       </c>
       <c r="C28" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G4, C2, BOUZEBIBA</t>
+          <t>RÉS, TP/ G3, A4, BENHAMED</t>
         </is>
       </c>
       <c r="D28" s="31" t="n"/>
-      <c r="E28" s="27" t="n"/>
-      <c r="F28" s="27" t="n"/>
-      <c r="G28" s="27" t="n"/>
+      <c r="E28" s="27" t="inlineStr">
+        <is>
+          <t>RÉS, TP/ G4, A3, BENHAMED</t>
+        </is>
+      </c>
+      <c r="F28" s="27" t="inlineStr">
+        <is>
+          <t>POO, TP/ G4, M2, ABID M.</t>
+        </is>
+      </c>
+      <c r="G28" s="27" t="inlineStr">
+        <is>
+          <t>RÉS, TP/ G6, A2, BENHAMED</t>
+        </is>
+      </c>
       <c r="H28" s="31" t="n"/>
     </row>
     <row r="29" ht="21.75" customHeight="1" s="24">
       <c r="A29" s="30" t="n"/>
       <c r="B29" s="27" t="inlineStr">
         <is>
-          <t>BDD, TD/ G8, C1, MAGHNI SANDID Z.</t>
+          <t>BDD, TD/ G8, B3, MAGHNI SANDID Z.</t>
         </is>
       </c>
       <c r="C29" s="27" t="inlineStr">
         <is>
-          <t>BDD, TD/ G9, C1, MAGHNI SANDID Z.</t>
+          <t>RÉS, TD/ G4, B4, BOUZEBIBA</t>
         </is>
       </c>
       <c r="D29" s="31" t="n"/>
-      <c r="E29" s="27" t="n"/>
-      <c r="F29" s="27" t="n"/>
-      <c r="G29" s="27" t="n"/>
+      <c r="E29" s="27" t="inlineStr">
+        <is>
+          <t>RÉS, TD/ G5, B3, BOUZEBIBA</t>
+        </is>
+      </c>
+      <c r="F29" s="27" t="inlineStr">
+        <is>
+          <t>RÉS, TP/ G5, A4, BENHAMED</t>
+        </is>
+      </c>
+      <c r="G29" s="27" t="inlineStr">
+        <is>
+          <t>DAW, TP/ G7, M1, SEHABA K.</t>
+        </is>
+      </c>
       <c r="H29" s="31" t="n"/>
     </row>
     <row r="30" ht="21.75" customHeight="1" s="24">
       <c r="A30" s="30" t="n"/>
       <c r="B30" s="27" t="inlineStr">
         <is>
-          <t>BDD, TP/ G9, A1, MIROUD</t>
-        </is>
-      </c>
-      <c r="C30" s="27" t="n"/>
+          <t>BDD, TP/ G9, A3, MIROUD</t>
+        </is>
+      </c>
+      <c r="C30" s="27" t="inlineStr">
+        <is>
+          <t>BDD, TD/ G9, B3, MAGHNI SANDID Z.</t>
+        </is>
+      </c>
       <c r="D30" s="31" t="n"/>
-      <c r="E30" s="27" t="n"/>
-      <c r="F30" s="27" t="n"/>
+      <c r="E30" s="27" t="inlineStr">
+        <is>
+          <t>POO, TP/ G6, M1, ABID M.</t>
+        </is>
+      </c>
+      <c r="F30" s="27" t="inlineStr">
+        <is>
+          <t>RÉS, TD/ G6, B4, BOUZEBIBA</t>
+        </is>
+      </c>
       <c r="G30" s="27" t="n"/>
       <c r="H30" s="31" t="n"/>
     </row>
@@ -4892,33 +6633,53 @@
       </c>
       <c r="B35" s="17" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G7, A1, BENHAMED</t>
+          <t>DAW, TP/ G4, A3, HENNI K</t>
         </is>
       </c>
       <c r="C35" s="17" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G8, A1, BENHAMED</t>
+          <t>DAW, TP/ G6, A3, SEHABA K.</t>
         </is>
       </c>
       <c r="D35" s="17" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G9, A1, BENHAMED</t>
+          <t>DAW, TP/ G8, A2, SEHABA K.</t>
         </is>
       </c>
       <c r="E35" s="29" t="inlineStr">
         <is>
-          <t>DAW, COUR/ section 1, Amphi1, SEHABA K.</t>
-        </is>
-      </c>
-      <c r="F35" s="17" t="n"/>
-      <c r="G35" s="17" t="n"/>
+          <t>POO, COUR/ section 1, Amphi1, ABID M.</t>
+        </is>
+      </c>
+      <c r="F35" s="17" t="inlineStr">
+        <is>
+          <t>POO, TP/ G9, A1, ABID M.</t>
+        </is>
+      </c>
+      <c r="G35" s="17" t="inlineStr">
+        <is>
+          <t>DAW, TP/ G9, A1, SEHABA K.</t>
+        </is>
+      </c>
       <c r="H35" s="17" t="n"/>
     </row>
     <row r="36" ht="21.75" customHeight="1" s="24">
       <c r="A36" s="30" t="n"/>
-      <c r="B36" s="27" t="n"/>
-      <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="B36" s="27" t="inlineStr">
+        <is>
+          <t>DAW, TP/ G5, A4, SEHABA K.</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>POO, TP/ G7, A2, ABID M.</t>
+        </is>
+      </c>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>RÉS, TP/ G9, A1, BENHAMED</t>
+        </is>
+      </c>
       <c r="E36" s="31" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -4926,8 +6687,16 @@
     </row>
     <row r="37" ht="21.75" customHeight="1" s="24">
       <c r="A37" s="30" t="n"/>
-      <c r="B37" s="27" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="B37" s="27" t="inlineStr">
+        <is>
+          <t>RÉS, TP/ G7, A1, BENHAMED</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>RÉS, TP/ G8, A1, BENHAMED</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="31" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -4936,7 +6705,11 @@
     </row>
     <row r="38" ht="21.75" customHeight="1" s="24">
       <c r="A38" s="30" t="n"/>
-      <c r="B38" s="27" t="n"/>
+      <c r="B38" s="27" t="inlineStr">
+        <is>
+          <t>POO, TP/ G8, A2, ABID M.</t>
+        </is>
+      </c>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="31" t="n"/>
@@ -6201,9 +7974,9 @@
           <t>AP, COUR/ section 1, Amphi4, MECHAOUI M. D.G</t>
         </is>
       </c>
-      <c r="C8" s="29" t="inlineStr">
-        <is>
-          <t>SI, COUR/ section 1, Amphi3, BENIDRIS F.Z</t>
+      <c r="C8" s="17" t="inlineStr">
+        <is>
+          <t>AP, TP/ G1, A1, MECHAOUI M. D.G</t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
@@ -6211,75 +7984,119 @@
           <t>SI, TD/ G1, S2, BENIDRIS F.Z</t>
         </is>
       </c>
-      <c r="E8" s="17" t="inlineStr">
-        <is>
-          <t>RS, TD/ G1, S2, HOCINE N.</t>
+      <c r="E8" s="29" t="inlineStr">
+        <is>
+          <t>SI, COUR/ section 1, Amphi1, BENIDRIS F.Z</t>
         </is>
       </c>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>RS, TD/ G3, S14, HOCINE N.</t>
+          <t>IA, TP/ G1, A4, HOCINE</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>SI, TD/ G3, S12, BENIDRIS F.Z</t>
+          <t>DSS, TP/ G1, M3, DELALI A.</t>
         </is>
       </c>
       <c r="H8" s="17" t="inlineStr">
         <is>
-          <t>SI, TD/ G4, C4, BENIDRIS F.Z</t>
+          <t>RS, TD/ G1, S1, HOCINE N.</t>
         </is>
       </c>
     </row>
     <row r="9" ht="21.75" customHeight="1" s="24">
       <c r="A9" s="30" t="n"/>
       <c r="B9" s="31" t="n"/>
-      <c r="C9" s="31" t="n"/>
+      <c r="C9" s="27" t="inlineStr">
+        <is>
+          <t>SI, TD/ G2, C2, BENIDRIS F.Z</t>
+        </is>
+      </c>
       <c r="D9" s="27" t="inlineStr">
         <is>
-          <t>RS, TD/ G2, S3, HOCINE N.</t>
-        </is>
-      </c>
-      <c r="E9" s="27" t="inlineStr">
-        <is>
-          <t>SI, TD/ G2, S15, BENIDRIS F.Z</t>
-        </is>
-      </c>
-      <c r="F9" s="27" t="n"/>
-      <c r="G9" s="27" t="n"/>
+          <t>AP, TP/ G2, A1, MECHAOUI M. D.G</t>
+        </is>
+      </c>
+      <c r="E9" s="31" t="n"/>
+      <c r="F9" s="27" t="inlineStr">
+        <is>
+          <t>DSS, TP/ G2, M1, DELALI A.</t>
+        </is>
+      </c>
+      <c r="G9" s="27" t="inlineStr">
+        <is>
+          <t>IA, TP/ G2, M2, HOCINE</t>
+        </is>
+      </c>
       <c r="H9" s="27" t="inlineStr">
         <is>
-          <t>RS, TD/ G5, S1, HOCINE N.</t>
+          <t>SI, TD/ G4, C4, BENIDRIS F.Z</t>
         </is>
       </c>
     </row>
     <row r="10" ht="21.75" customHeight="1" s="24">
       <c r="A10" s="30" t="n"/>
       <c r="B10" s="31" t="n"/>
-      <c r="C10" s="31" t="n"/>
-      <c r="D10" s="27" t="n"/>
-      <c r="E10" s="27" t="n"/>
-      <c r="F10" s="27" t="n"/>
-      <c r="G10" s="27" t="n"/>
-      <c r="H10" s="27" t="n"/>
+      <c r="C10" s="27" t="inlineStr">
+        <is>
+          <t>IA, TP/ G3, A2, HOCINE</t>
+        </is>
+      </c>
+      <c r="D10" s="27" t="inlineStr">
+        <is>
+          <t>DSS, TP/ G3, A3, DELALI A.</t>
+        </is>
+      </c>
+      <c r="E10" s="31" t="n"/>
+      <c r="F10" s="27" t="inlineStr">
+        <is>
+          <t>AP, TP/ G3, A3, MECHAOUI M. D.G</t>
+        </is>
+      </c>
+      <c r="G10" s="27" t="inlineStr">
+        <is>
+          <t>SI, TD/ G3, S12, BENIDRIS F.Z</t>
+        </is>
+      </c>
+      <c r="H10" s="27" t="inlineStr">
+        <is>
+          <t>AP, TP/ G5, M3, MECHAOUI M. D.G</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="21.75" customHeight="1" s="24">
       <c r="A11" s="30" t="n"/>
       <c r="B11" s="31" t="n"/>
-      <c r="C11" s="31" t="n"/>
-      <c r="D11" s="27" t="n"/>
-      <c r="E11" s="27" t="n"/>
-      <c r="F11" s="27" t="n"/>
-      <c r="G11" s="27" t="n"/>
+      <c r="C11" s="27" t="inlineStr">
+        <is>
+          <t>DSS, TP/ G4, A3, DELALI A.</t>
+        </is>
+      </c>
+      <c r="D11" s="27" t="inlineStr">
+        <is>
+          <t>IA, TP/ G4, A2, HOCINE</t>
+        </is>
+      </c>
+      <c r="E11" s="31" t="n"/>
+      <c r="F11" s="27" t="inlineStr">
+        <is>
+          <t>RS, TD/ G4, S14, HOCINE N.</t>
+        </is>
+      </c>
+      <c r="G11" s="27" t="inlineStr">
+        <is>
+          <t>AP, TP/ G4, M1, MECHAOUI M. D.G</t>
+        </is>
+      </c>
       <c r="H11" s="27" t="n"/>
     </row>
     <row r="12" ht="21.75" customHeight="1" s="24">
       <c r="A12" s="30" t="n"/>
       <c r="B12" s="31" t="n"/>
-      <c r="C12" s="31" t="n"/>
+      <c r="C12" s="27" t="n"/>
       <c r="D12" s="27" t="n"/>
-      <c r="E12" s="27" t="n"/>
+      <c r="E12" s="31" t="n"/>
       <c r="F12" s="27" t="n"/>
       <c r="G12" s="27" t="n"/>
       <c r="H12" s="27" t="n"/>
@@ -6287,9 +8104,9 @@
     <row r="13" ht="21.75" customHeight="1" s="24">
       <c r="A13" s="30" t="n"/>
       <c r="B13" s="31" t="n"/>
-      <c r="C13" s="31" t="n"/>
+      <c r="C13" s="27" t="n"/>
       <c r="D13" s="27" t="n"/>
-      <c r="E13" s="27" t="n"/>
+      <c r="E13" s="31" t="n"/>
       <c r="F13" s="27" t="n"/>
       <c r="G13" s="27" t="n"/>
       <c r="H13" s="27" t="n"/>
@@ -6297,9 +8114,9 @@
     <row r="14" ht="21.75" customHeight="1" s="24">
       <c r="A14" s="30" t="n"/>
       <c r="B14" s="31" t="n"/>
-      <c r="C14" s="31" t="n"/>
+      <c r="C14" s="27" t="n"/>
       <c r="D14" s="27" t="n"/>
-      <c r="E14" s="27" t="n"/>
+      <c r="E14" s="31" t="n"/>
       <c r="F14" s="27" t="n"/>
       <c r="G14" s="27" t="n"/>
       <c r="H14" s="27" t="n"/>
@@ -6307,9 +8124,9 @@
     <row r="15" ht="21.75" customHeight="1" s="24">
       <c r="A15" s="30" t="n"/>
       <c r="B15" s="31" t="n"/>
-      <c r="C15" s="31" t="n"/>
+      <c r="C15" s="27" t="n"/>
       <c r="D15" s="27" t="n"/>
-      <c r="E15" s="27" t="n"/>
+      <c r="E15" s="31" t="n"/>
       <c r="F15" s="27" t="n"/>
       <c r="G15" s="27" t="n"/>
       <c r="H15" s="27" t="n"/>
@@ -6317,9 +8134,9 @@
     <row r="16" ht="21.75" customHeight="1" s="24">
       <c r="A16" s="32" t="n"/>
       <c r="B16" s="33" t="n"/>
-      <c r="C16" s="33" t="n"/>
+      <c r="C16" s="16" t="n"/>
       <c r="D16" s="16" t="n"/>
-      <c r="E16" s="16" t="n"/>
+      <c r="E16" s="33" t="n"/>
       <c r="F16" s="16" t="n"/>
       <c r="G16" s="16" t="n"/>
       <c r="H16" s="16" t="n"/>
@@ -6332,31 +8149,39 @@
       </c>
       <c r="B17" s="17" t="inlineStr">
         <is>
-          <t>RS, TD/ G4, C1, HOCINE N.</t>
+          <t>RS, TD/ G2, C1, HOCINE N.</t>
         </is>
       </c>
       <c r="C17" s="17" t="inlineStr">
         <is>
-          <t>SI, TD/ G6, B3, BENIDRIS F.Z</t>
+          <t>RS, TD/ G3, B4, HOCINE N.</t>
         </is>
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>RS, TD/ G6, C2, HOCINE N.</t>
+          <t>DSS, TP/ G5, M3, DELALI A.</t>
         </is>
       </c>
       <c r="E17" s="29" t="inlineStr">
         <is>
-          <t>DSS, COUR/ section 1, Amphi3, DELALI A.</t>
-        </is>
-      </c>
-      <c r="F17" s="29" t="inlineStr">
-        <is>
-          <t>IA, COUR/ section 1, Amphi1, HOCINE N.</t>
-        </is>
-      </c>
-      <c r="G17" s="17" t="n"/>
-      <c r="H17" s="17" t="n"/>
+          <t>IA, COUR/ section 1, Amphi3, HOCINE N.</t>
+        </is>
+      </c>
+      <c r="F17" s="17" t="inlineStr">
+        <is>
+          <t>RS, TD/ G5, C4, HOCINE N.</t>
+        </is>
+      </c>
+      <c r="G17" s="29" t="inlineStr">
+        <is>
+          <t>DSS, COUR/ section 1, Amphi1, DELALI A.</t>
+        </is>
+      </c>
+      <c r="H17" s="17" t="inlineStr">
+        <is>
+          <t>DSS, TP/ G6, M2, DELALI A.</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="21.75" customHeight="1" s="24">
       <c r="A18" s="30" t="n"/>
@@ -6367,37 +8192,61 @@
       </c>
       <c r="C18" s="27" t="inlineStr">
         <is>
-          <t>RS, TD/ G7, B4, HOCINE N.</t>
+          <t>IA, TP/ G5, A4, HOCINE</t>
         </is>
       </c>
       <c r="D18" s="27" t="inlineStr">
         <is>
-          <t>SI, TD/ G7, C1, BENIDRIS F.Z</t>
+          <t>IA, TP/ G6, M2, HOCINE</t>
         </is>
       </c>
       <c r="E18" s="31" t="n"/>
-      <c r="F18" s="31" t="n"/>
-      <c r="G18" s="27" t="n"/>
-      <c r="H18" s="27" t="n"/>
+      <c r="F18" s="27" t="inlineStr">
+        <is>
+          <t>IA, TP/ G7, M3, HOCINE</t>
+        </is>
+      </c>
+      <c r="G18" s="31" t="n"/>
+      <c r="H18" s="27" t="inlineStr">
+        <is>
+          <t>RS, TD/ G7, S1, HOCINE N.</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="21.75" customHeight="1" s="24">
       <c r="A19" s="30" t="n"/>
-      <c r="B19" s="27" t="n"/>
-      <c r="C19" s="27" t="n"/>
-      <c r="D19" s="27" t="n"/>
+      <c r="B19" s="27" t="inlineStr">
+        <is>
+          <t>AP, TP/ G6, M3, MECHAOUI M. D.G</t>
+        </is>
+      </c>
+      <c r="C19" s="27" t="inlineStr">
+        <is>
+          <t>SI, TD/ G6, B3, BENIDRIS F.Z</t>
+        </is>
+      </c>
+      <c r="D19" s="27" t="inlineStr">
+        <is>
+          <t>SI, TD/ G7, C1, BENIDRIS F.Z</t>
+        </is>
+      </c>
       <c r="E19" s="31" t="n"/>
-      <c r="F19" s="31" t="n"/>
-      <c r="G19" s="27" t="n"/>
+      <c r="F19" s="27" t="n"/>
+      <c r="G19" s="31" t="n"/>
       <c r="H19" s="27" t="n"/>
     </row>
     <row r="20" ht="21.75" customHeight="1" s="24">
       <c r="A20" s="30" t="n"/>
       <c r="B20" s="27" t="n"/>
-      <c r="C20" s="27" t="n"/>
+      <c r="C20" s="27" t="inlineStr">
+        <is>
+          <t>AP, TP/ G7, A3, MECHAOUI M. D.G</t>
+        </is>
+      </c>
       <c r="D20" s="27" t="n"/>
       <c r="E20" s="31" t="n"/>
-      <c r="F20" s="31" t="n"/>
-      <c r="G20" s="27" t="n"/>
+      <c r="F20" s="27" t="n"/>
+      <c r="G20" s="31" t="n"/>
       <c r="H20" s="27" t="n"/>
     </row>
     <row r="21" ht="21.75" customHeight="1" s="24">
@@ -6406,8 +8255,8 @@
       <c r="C21" s="27" t="n"/>
       <c r="D21" s="27" t="n"/>
       <c r="E21" s="31" t="n"/>
-      <c r="F21" s="31" t="n"/>
-      <c r="G21" s="27" t="n"/>
+      <c r="F21" s="27" t="n"/>
+      <c r="G21" s="31" t="n"/>
       <c r="H21" s="27" t="n"/>
     </row>
     <row r="22" ht="21.75" customHeight="1" s="24">
@@ -6416,8 +8265,8 @@
       <c r="C22" s="27" t="n"/>
       <c r="D22" s="27" t="n"/>
       <c r="E22" s="31" t="n"/>
-      <c r="F22" s="31" t="n"/>
-      <c r="G22" s="27" t="n"/>
+      <c r="F22" s="27" t="n"/>
+      <c r="G22" s="31" t="n"/>
       <c r="H22" s="27" t="n"/>
     </row>
     <row r="23" ht="21.75" customHeight="1" s="24">
@@ -6426,8 +8275,8 @@
       <c r="C23" s="27" t="n"/>
       <c r="D23" s="27" t="n"/>
       <c r="E23" s="31" t="n"/>
-      <c r="F23" s="31" t="n"/>
-      <c r="G23" s="27" t="n"/>
+      <c r="F23" s="27" t="n"/>
+      <c r="G23" s="31" t="n"/>
       <c r="H23" s="27" t="n"/>
     </row>
     <row r="24" ht="21.75" customHeight="1" s="24">
@@ -6436,8 +8285,8 @@
       <c r="C24" s="27" t="n"/>
       <c r="D24" s="27" t="n"/>
       <c r="E24" s="31" t="n"/>
-      <c r="F24" s="31" t="n"/>
-      <c r="G24" s="27" t="n"/>
+      <c r="F24" s="27" t="n"/>
+      <c r="G24" s="31" t="n"/>
       <c r="H24" s="27" t="n"/>
     </row>
     <row r="25" ht="21.75" customHeight="1" s="24">
@@ -6446,8 +8295,8 @@
       <c r="C25" s="16" t="n"/>
       <c r="D25" s="16" t="n"/>
       <c r="E25" s="33" t="n"/>
-      <c r="F25" s="33" t="n"/>
-      <c r="G25" s="16" t="n"/>
+      <c r="F25" s="16" t="n"/>
+      <c r="G25" s="33" t="n"/>
       <c r="H25" s="16" t="n"/>
     </row>
     <row r="26" ht="21.75" customHeight="1" s="24">
@@ -6456,12 +8305,16 @@
           <t>Mardi</t>
         </is>
       </c>
-      <c r="B26" s="29" t="inlineStr">
+      <c r="B26" s="17" t="inlineStr">
+        <is>
+          <t>RS, TD/ G6, C2, HOCINE N.</t>
+        </is>
+      </c>
+      <c r="C26" s="29" t="inlineStr">
         <is>
           <t>CDS, COUR/ section 1, Amphi2, MIDOUN M.</t>
         </is>
       </c>
-      <c r="C26" s="17" t="n"/>
       <c r="D26" s="17" t="n"/>
       <c r="E26" s="17" t="n"/>
       <c r="F26" s="17" t="n"/>
@@ -6470,8 +8323,12 @@
     </row>
     <row r="27" ht="21.75" customHeight="1" s="24">
       <c r="A27" s="30" t="n"/>
-      <c r="B27" s="31" t="n"/>
-      <c r="C27" s="27" t="n"/>
+      <c r="B27" s="27" t="inlineStr">
+        <is>
+          <t>DSS, TP/ G7, M1, DELALI A.</t>
+        </is>
+      </c>
+      <c r="C27" s="31" t="n"/>
       <c r="D27" s="27" t="n"/>
       <c r="E27" s="27" t="n"/>
       <c r="F27" s="27" t="n"/>
@@ -6480,8 +8337,8 @@
     </row>
     <row r="28" ht="21.75" customHeight="1" s="24">
       <c r="A28" s="30" t="n"/>
-      <c r="B28" s="31" t="n"/>
-      <c r="C28" s="27" t="n"/>
+      <c r="B28" s="27" t="n"/>
+      <c r="C28" s="31" t="n"/>
       <c r="D28" s="27" t="n"/>
       <c r="E28" s="27" t="n"/>
       <c r="F28" s="27" t="n"/>
@@ -6490,8 +8347,8 @@
     </row>
     <row r="29" ht="21.75" customHeight="1" s="24">
       <c r="A29" s="30" t="n"/>
-      <c r="B29" s="31" t="n"/>
-      <c r="C29" s="27" t="n"/>
+      <c r="B29" s="27" t="n"/>
+      <c r="C29" s="31" t="n"/>
       <c r="D29" s="27" t="n"/>
       <c r="E29" s="27" t="n"/>
       <c r="F29" s="27" t="n"/>
@@ -6500,8 +8357,8 @@
     </row>
     <row r="30" ht="21.75" customHeight="1" s="24">
       <c r="A30" s="30" t="n"/>
-      <c r="B30" s="31" t="n"/>
-      <c r="C30" s="27" t="n"/>
+      <c r="B30" s="27" t="n"/>
+      <c r="C30" s="31" t="n"/>
       <c r="D30" s="27" t="n"/>
       <c r="E30" s="27" t="n"/>
       <c r="F30" s="27" t="n"/>
@@ -6510,8 +8367,8 @@
     </row>
     <row r="31" ht="21.75" customHeight="1" s="24">
       <c r="A31" s="30" t="n"/>
-      <c r="B31" s="31" t="n"/>
-      <c r="C31" s="27" t="n"/>
+      <c r="B31" s="27" t="n"/>
+      <c r="C31" s="31" t="n"/>
       <c r="D31" s="27" t="n"/>
       <c r="E31" s="27" t="n"/>
       <c r="F31" s="27" t="n"/>
@@ -6520,8 +8377,8 @@
     </row>
     <row r="32" ht="21.75" customHeight="1" s="24">
       <c r="A32" s="30" t="n"/>
-      <c r="B32" s="31" t="n"/>
-      <c r="C32" s="27" t="n"/>
+      <c r="B32" s="27" t="n"/>
+      <c r="C32" s="31" t="n"/>
       <c r="D32" s="27" t="n"/>
       <c r="E32" s="27" t="n"/>
       <c r="F32" s="27" t="n"/>
@@ -6530,8 +8387,8 @@
     </row>
     <row r="33" ht="21.75" customHeight="1" s="24">
       <c r="A33" s="30" t="n"/>
-      <c r="B33" s="31" t="n"/>
-      <c r="C33" s="27" t="n"/>
+      <c r="B33" s="27" t="n"/>
+      <c r="C33" s="31" t="n"/>
       <c r="D33" s="27" t="n"/>
       <c r="E33" s="27" t="n"/>
       <c r="F33" s="27" t="n"/>
@@ -6540,8 +8397,8 @@
     </row>
     <row r="34" ht="21.75" customHeight="1" s="24">
       <c r="A34" s="32" t="n"/>
-      <c r="B34" s="33" t="n"/>
-      <c r="C34" s="16" t="n"/>
+      <c r="B34" s="16" t="n"/>
+      <c r="C34" s="33" t="n"/>
       <c r="D34" s="16" t="n"/>
       <c r="E34" s="16" t="n"/>
       <c r="F34" s="16" t="n"/>
@@ -7717,10 +9574,10 @@
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="B8:B16"/>
-    <mergeCell ref="C8:C16"/>
+    <mergeCell ref="E8:E16"/>
     <mergeCell ref="E17:E25"/>
-    <mergeCell ref="F17:F25"/>
-    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="G17:G25"/>
+    <mergeCell ref="C26:C34"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.433070866141732" right="0.196850393700787" top="0.196850393700787" bottom="0.393700787401575" header="0" footer="0"/>
@@ -7855,12 +9712,12 @@
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>ANA4, TD/ G1, S4, Mme Limam</t>
+          <t>ANA4, TD/ G1, S3, Mme Limam</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>ALG4, TD/ G1, S3, M.Ould ali</t>
+          <t>ALG4, TD/ G1, S15, M.Ould ali</t>
         </is>
       </c>
       <c r="F8" s="17" t="inlineStr">
@@ -7885,12 +9742,12 @@
       <c r="C9" s="31" t="n"/>
       <c r="D9" s="27" t="inlineStr">
         <is>
-          <t>ALG4, TD/ G2, S5, M.Ould ali</t>
+          <t>ALG4, TD/ G2, S4, M.Ould ali</t>
         </is>
       </c>
       <c r="E9" s="27" t="inlineStr">
         <is>
-          <t>AC, TD/ G2, S4, Mlle Amina FERRAOUN</t>
+          <t>AC, TD/ G2, S2, Mlle Amina FERRAOUN</t>
         </is>
       </c>
       <c r="F9" s="27" t="inlineStr">
@@ -7997,7 +9854,7 @@
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>PROBA, TD/ G1, C3, M. Mohammedi Mustapha</t>
+          <t>PROBA, TD/ G1, C2, M. Mohammedi Mustapha</t>
         </is>
       </c>
       <c r="E17" s="17" t="inlineStr">
@@ -8015,7 +9872,7 @@
       <c r="C18" s="31" t="n"/>
       <c r="D18" s="27" t="inlineStr">
         <is>
-          <t>GÉOMÉ, TD/ G2, C4, Mme Bendahmane Hafida</t>
+          <t>GÉOMÉ, TD/ G2, C3, Mme Bendahmane Hafida</t>
         </is>
       </c>
       <c r="E18" s="27" t="inlineStr">
@@ -9517,7 +11374,7 @@
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>TOL, COUR/ section 1, Amphi4, M. Menad Abdallah</t>
+          <t>TOL, COUR/ section 1, Amphi3, M. Menad Abdallah</t>
         </is>
       </c>
       <c r="D8" s="29" t="inlineStr">
@@ -9527,7 +11384,7 @@
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>EDP, TD/ G1, S5, Mme Belmouhoub-Ould ali</t>
+          <t>EDP, TD/ G1, S3, Mme Belmouhoub-Ould ali</t>
         </is>
       </c>
       <c r="F8" s="17" t="inlineStr">
@@ -9542,7 +11399,7 @@
       </c>
       <c r="H8" s="17" t="inlineStr">
         <is>
-          <t>TRAL, TD/ G1, S15, M. Andasmas</t>
+          <t>TRAL, TD/ G1, S15, M. Andasmas M</t>
         </is>
       </c>
     </row>
@@ -9557,7 +11414,7 @@
       <c r="D9" s="31" t="n"/>
       <c r="E9" s="27" t="inlineStr">
         <is>
-          <t>TRAL, TD/ G2, S6, M. Andasmas</t>
+          <t>TRAL, TD/ G2, S4, M. Andasmas M</t>
         </is>
       </c>
       <c r="F9" s="27" t="inlineStr">
@@ -9664,7 +11521,7 @@
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>Géo. Diff, TD/ G1, S1, M. Fettouch Houari</t>
+          <t>Géo. Diff, TD/ G1, C4, M. Fettouch Houari</t>
         </is>
       </c>
       <c r="E17" s="17" t="inlineStr">
@@ -9764,12 +11621,12 @@
       </c>
       <c r="B26" s="29" t="inlineStr">
         <is>
+          <t>TRAL, COUR/ section 1, Amphi2, Mme Limam</t>
+        </is>
+      </c>
+      <c r="C26" s="29" t="inlineStr">
+        <is>
           <t>TRAL, COUR/ section 1, Amphi3, Mme Limam</t>
-        </is>
-      </c>
-      <c r="C26" s="29" t="inlineStr">
-        <is>
-          <t>TRAL, COUR/ section 1, Amphi2, Mme Limam</t>
         </is>
       </c>
       <c r="D26" s="17" t="n"/>
@@ -11174,57 +13031,49 @@
           <t>AOSI, TD/ G1, B3, KHIAT</t>
         </is>
       </c>
-      <c r="C8" s="17" t="inlineStr">
-        <is>
-          <t>OWS, TP/ G1, A1, DJEBBARA R.</t>
-        </is>
-      </c>
-      <c r="D8" s="29" t="inlineStr">
-        <is>
-          <t>AOSI, COUR/ section 1, Amphi1, KHELIFA N.</t>
+      <c r="C8" s="29" t="inlineStr">
+        <is>
+          <t>AOSI, COUR/ section 1, Amphi4, KHELIFA N.</t>
+        </is>
+      </c>
+      <c r="D8" s="17" t="inlineStr">
+        <is>
+          <t>ALOS, TP/ G1, A4, MOUSSA M.</t>
         </is>
       </c>
       <c r="E8" s="29" t="inlineStr">
         <is>
-          <t>ALOS, COUR/ section 1, Amphi1, MOUSSA M.</t>
+          <t>ALOS, COUR/ section 1, Amphi2, MOUSSA M.</t>
         </is>
       </c>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>AOSI, TP/ G3, A3, KHELIFA N.</t>
-        </is>
-      </c>
-      <c r="G8" s="17" t="inlineStr">
-        <is>
-          <t>AOSI, TP/ G1, M1, KHIAT</t>
-        </is>
-      </c>
+          <t>AOSI, TP/ G3, M2, KHELIFA N.</t>
+        </is>
+      </c>
+      <c r="G8" s="17" t="n"/>
       <c r="H8" s="17" t="n"/>
     </row>
     <row r="9" ht="21.75" customHeight="1" s="24">
       <c r="A9" s="30" t="n"/>
       <c r="B9" s="27" t="inlineStr">
         <is>
-          <t>OWS, TP/ G2, A1, DJEBBARA R.</t>
-        </is>
-      </c>
-      <c r="C9" s="27" t="inlineStr">
-        <is>
-          <t>AOSI, TD/ G2, C2, KHIAT</t>
-        </is>
-      </c>
-      <c r="D9" s="31" t="n"/>
+          <t>ALOS, TP/ G2, A1, MOUSSA M.</t>
+        </is>
+      </c>
+      <c r="C9" s="31" t="n"/>
+      <c r="D9" s="27" t="inlineStr">
+        <is>
+          <t>AOSI, TD/ G2, S5, KHIAT</t>
+        </is>
+      </c>
       <c r="E9" s="31" t="n"/>
       <c r="F9" s="27" t="inlineStr">
         <is>
-          <t>OWS, TP/ G4, A4, DJEBBARA R.</t>
-        </is>
-      </c>
-      <c r="G9" s="27" t="inlineStr">
-        <is>
-          <t>OWS, TP/ G3, M3, DJEBBARA R.</t>
-        </is>
-      </c>
+          <t>ALOS, TP/ G4, M3, MOUSSA M.</t>
+        </is>
+      </c>
+      <c r="G9" s="27" t="n"/>
       <c r="H9" s="27" t="n"/>
     </row>
     <row r="10" ht="21.75" customHeight="1" s="24">
@@ -11234,26 +13083,22 @@
           <t>AOSI, TD/ G3, B4, KHELIFA N.</t>
         </is>
       </c>
-      <c r="C10" s="27" t="inlineStr">
-        <is>
-          <t>AOSI, TD/ G4, C3, KHELIFA N.</t>
-        </is>
-      </c>
-      <c r="D10" s="31" t="n"/>
+      <c r="C10" s="31" t="n"/>
+      <c r="D10" s="27" t="inlineStr">
+        <is>
+          <t>AOSI, TD/ G4, S6, KHELIFA N.</t>
+        </is>
+      </c>
       <c r="E10" s="31" t="n"/>
       <c r="F10" s="27" t="n"/>
-      <c r="G10" s="27" t="inlineStr">
-        <is>
-          <t>AOSI, TP/ G4, M2, KHELIFA N.</t>
-        </is>
-      </c>
+      <c r="G10" s="27" t="n"/>
       <c r="H10" s="27" t="n"/>
     </row>
     <row r="11" ht="21.75" customHeight="1" s="24">
       <c r="A11" s="30" t="n"/>
       <c r="B11" s="27" t="n"/>
-      <c r="C11" s="27" t="n"/>
-      <c r="D11" s="31" t="n"/>
+      <c r="C11" s="31" t="n"/>
+      <c r="D11" s="27" t="n"/>
       <c r="E11" s="31" t="n"/>
       <c r="F11" s="27" t="n"/>
       <c r="G11" s="27" t="n"/>
@@ -11262,8 +13107,8 @@
     <row r="12" ht="21.75" customHeight="1" s="24">
       <c r="A12" s="30" t="n"/>
       <c r="B12" s="27" t="n"/>
-      <c r="C12" s="27" t="n"/>
-      <c r="D12" s="31" t="n"/>
+      <c r="C12" s="31" t="n"/>
+      <c r="D12" s="27" t="n"/>
       <c r="E12" s="31" t="n"/>
       <c r="F12" s="27" t="n"/>
       <c r="G12" s="27" t="n"/>
@@ -11272,8 +13117,8 @@
     <row r="13" ht="21.75" customHeight="1" s="24">
       <c r="A13" s="30" t="n"/>
       <c r="B13" s="27" t="n"/>
-      <c r="C13" s="27" t="n"/>
-      <c r="D13" s="31" t="n"/>
+      <c r="C13" s="31" t="n"/>
+      <c r="D13" s="27" t="n"/>
       <c r="E13" s="31" t="n"/>
       <c r="F13" s="27" t="n"/>
       <c r="G13" s="27" t="n"/>
@@ -11282,8 +13127,8 @@
     <row r="14" ht="21.75" customHeight="1" s="24">
       <c r="A14" s="30" t="n"/>
       <c r="B14" s="27" t="n"/>
-      <c r="C14" s="27" t="n"/>
-      <c r="D14" s="31" t="n"/>
+      <c r="C14" s="31" t="n"/>
+      <c r="D14" s="27" t="n"/>
       <c r="E14" s="31" t="n"/>
       <c r="F14" s="27" t="n"/>
       <c r="G14" s="27" t="n"/>
@@ -11292,8 +13137,8 @@
     <row r="15" ht="21.75" customHeight="1" s="24">
       <c r="A15" s="30" t="n"/>
       <c r="B15" s="27" t="n"/>
-      <c r="C15" s="27" t="n"/>
-      <c r="D15" s="31" t="n"/>
+      <c r="C15" s="31" t="n"/>
+      <c r="D15" s="27" t="n"/>
       <c r="E15" s="31" t="n"/>
       <c r="F15" s="27" t="n"/>
       <c r="G15" s="27" t="n"/>
@@ -11302,8 +13147,8 @@
     <row r="16" ht="21.75" customHeight="1" s="24">
       <c r="A16" s="32" t="n"/>
       <c r="B16" s="16" t="n"/>
-      <c r="C16" s="16" t="n"/>
-      <c r="D16" s="33" t="n"/>
+      <c r="C16" s="33" t="n"/>
+      <c r="D16" s="16" t="n"/>
       <c r="E16" s="33" t="n"/>
       <c r="F16" s="16" t="n"/>
       <c r="G16" s="16" t="n"/>
@@ -11315,14 +13160,14 @@
           <t>Lundi</t>
         </is>
       </c>
-      <c r="B17" s="17" t="inlineStr">
-        <is>
-          <t>AOSI, TP/ G2, M3, KHIAT</t>
-        </is>
-      </c>
-      <c r="C17" s="29" t="inlineStr">
-        <is>
-          <t>SSI, COUR/ section 1, Amphi4, BENTAOUZA C</t>
+      <c r="B17" s="29" t="inlineStr">
+        <is>
+          <t>SSI, COUR/ section 1, Amphi3, BENTAOUZA C</t>
+        </is>
+      </c>
+      <c r="C17" s="17" t="inlineStr">
+        <is>
+          <t>AOSI, TP/ G1, M1, KHIAT</t>
         </is>
       </c>
       <c r="D17" s="29" t="inlineStr">
@@ -11330,35 +13175,71 @@
           <t>OWS, COUR/ section 1, Amphi2, DJEBBARA R.</t>
         </is>
       </c>
-      <c r="E17" s="17" t="n"/>
+      <c r="E17" s="17" t="inlineStr">
+        <is>
+          <t>SSI, TP/ G1, A4, BENTAOUZA C</t>
+        </is>
+      </c>
       <c r="F17" s="17" t="n"/>
-      <c r="G17" s="17" t="n"/>
-      <c r="H17" s="17" t="n"/>
+      <c r="G17" s="17" t="inlineStr">
+        <is>
+          <t>FDD, TP/ G1, M1, HABIB ZAHMANI M</t>
+        </is>
+      </c>
+      <c r="H17" s="17" t="inlineStr">
+        <is>
+          <t>SSI, TP/ G3, M3, BENTAOUZA C</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="21.75" customHeight="1" s="24">
       <c r="A18" s="30" t="n"/>
-      <c r="B18" s="27" t="n"/>
-      <c r="C18" s="31" t="n"/>
+      <c r="B18" s="31" t="n"/>
+      <c r="C18" s="27" t="inlineStr">
+        <is>
+          <t>ALOS, TP/ G3, M3, MOUSSA M.</t>
+        </is>
+      </c>
       <c r="D18" s="31" t="n"/>
-      <c r="E18" s="27" t="n"/>
+      <c r="E18" s="27" t="inlineStr">
+        <is>
+          <t>AOSI, TP/ G2, A3, KHIAT</t>
+        </is>
+      </c>
       <c r="F18" s="27" t="n"/>
-      <c r="G18" s="27" t="n"/>
+      <c r="G18" s="27" t="inlineStr">
+        <is>
+          <t>SSI, TP/ G2, A4, BENTAOUZA C</t>
+        </is>
+      </c>
       <c r="H18" s="27" t="n"/>
     </row>
     <row r="19" ht="21.75" customHeight="1" s="24">
       <c r="A19" s="30" t="n"/>
-      <c r="B19" s="27" t="n"/>
-      <c r="C19" s="31" t="n"/>
+      <c r="B19" s="31" t="n"/>
+      <c r="C19" s="27" t="inlineStr">
+        <is>
+          <t>AOSI, TP/ G4, M2, KHELIFA N.</t>
+        </is>
+      </c>
       <c r="D19" s="31" t="n"/>
-      <c r="E19" s="27" t="n"/>
+      <c r="E19" s="27" t="inlineStr">
+        <is>
+          <t>FDD, TP/ G3, M1, HABIB ZAHMANI M</t>
+        </is>
+      </c>
       <c r="F19" s="27" t="n"/>
-      <c r="G19" s="27" t="n"/>
+      <c r="G19" s="27" t="inlineStr">
+        <is>
+          <t>RO, TP/ G3, M2, BAHNES N.</t>
+        </is>
+      </c>
       <c r="H19" s="27" t="n"/>
     </row>
     <row r="20" ht="21.75" customHeight="1" s="24">
       <c r="A20" s="30" t="n"/>
-      <c r="B20" s="27" t="n"/>
-      <c r="C20" s="31" t="n"/>
+      <c r="B20" s="31" t="n"/>
+      <c r="C20" s="27" t="n"/>
       <c r="D20" s="31" t="n"/>
       <c r="E20" s="27" t="n"/>
       <c r="F20" s="27" t="n"/>
@@ -11367,8 +13248,8 @@
     </row>
     <row r="21" ht="21.75" customHeight="1" s="24">
       <c r="A21" s="30" t="n"/>
-      <c r="B21" s="27" t="n"/>
-      <c r="C21" s="31" t="n"/>
+      <c r="B21" s="31" t="n"/>
+      <c r="C21" s="27" t="n"/>
       <c r="D21" s="31" t="n"/>
       <c r="E21" s="27" t="n"/>
       <c r="F21" s="27" t="n"/>
@@ -11377,8 +13258,8 @@
     </row>
     <row r="22" ht="21.75" customHeight="1" s="24">
       <c r="A22" s="30" t="n"/>
-      <c r="B22" s="27" t="n"/>
-      <c r="C22" s="31" t="n"/>
+      <c r="B22" s="31" t="n"/>
+      <c r="C22" s="27" t="n"/>
       <c r="D22" s="31" t="n"/>
       <c r="E22" s="27" t="n"/>
       <c r="F22" s="27" t="n"/>
@@ -11387,8 +13268,8 @@
     </row>
     <row r="23" ht="21.75" customHeight="1" s="24">
       <c r="A23" s="30" t="n"/>
-      <c r="B23" s="27" t="n"/>
-      <c r="C23" s="31" t="n"/>
+      <c r="B23" s="31" t="n"/>
+      <c r="C23" s="27" t="n"/>
       <c r="D23" s="31" t="n"/>
       <c r="E23" s="27" t="n"/>
       <c r="F23" s="27" t="n"/>
@@ -11397,8 +13278,8 @@
     </row>
     <row r="24" ht="21.75" customHeight="1" s="24">
       <c r="A24" s="30" t="n"/>
-      <c r="B24" s="27" t="n"/>
-      <c r="C24" s="31" t="n"/>
+      <c r="B24" s="31" t="n"/>
+      <c r="C24" s="27" t="n"/>
       <c r="D24" s="31" t="n"/>
       <c r="E24" s="27" t="n"/>
       <c r="F24" s="27" t="n"/>
@@ -11407,8 +13288,8 @@
     </row>
     <row r="25" ht="21.75" customHeight="1" s="24">
       <c r="A25" s="32" t="n"/>
-      <c r="B25" s="16" t="n"/>
-      <c r="C25" s="33" t="n"/>
+      <c r="B25" s="33" t="n"/>
+      <c r="C25" s="16" t="n"/>
       <c r="D25" s="33" t="n"/>
       <c r="E25" s="16" t="n"/>
       <c r="F25" s="16" t="n"/>
@@ -11421,98 +13302,130 @@
           <t>Mardi</t>
         </is>
       </c>
-      <c r="B26" s="29" t="inlineStr">
+      <c r="B26" s="17" t="inlineStr">
+        <is>
+          <t>FDD, TP/ G2, M3, HABIB ZAHMANI M</t>
+        </is>
+      </c>
+      <c r="C26" s="29" t="inlineStr">
         <is>
           <t>FDD, COUR/ section 1, Amphi4, MOUMEN M.</t>
         </is>
       </c>
-      <c r="C26" s="29" t="inlineStr">
-        <is>
-          <t>RO, COUR/ section 1, Amphi3, BAHNES N.</t>
-        </is>
-      </c>
-      <c r="D26" s="17" t="n"/>
-      <c r="E26" s="17" t="n"/>
+      <c r="D26" s="17" t="inlineStr">
+        <is>
+          <t>RO, TP/ G1, A4,  MIROUD</t>
+        </is>
+      </c>
+      <c r="E26" s="29" t="inlineStr">
+        <is>
+          <t>RO, COUR/ section 1, Amphi2, BAHNES N.</t>
+        </is>
+      </c>
       <c r="F26" s="17" t="n"/>
-      <c r="G26" s="17" t="n"/>
-      <c r="H26" s="17" t="n"/>
+      <c r="G26" s="17" t="inlineStr">
+        <is>
+          <t>RO, TP/ G2, M2,  MIROUD</t>
+        </is>
+      </c>
+      <c r="H26" s="17" t="inlineStr">
+        <is>
+          <t>SMA, TP/ G1, A1, MEROUFEL B.</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="21.75" customHeight="1" s="24">
       <c r="A27" s="30" t="n"/>
-      <c r="B27" s="31" t="n"/>
+      <c r="B27" s="27" t="inlineStr">
+        <is>
+          <t>SSI, TP/ G4, M2, BENTAOUZA C</t>
+        </is>
+      </c>
       <c r="C27" s="31" t="n"/>
-      <c r="D27" s="27" t="n"/>
-      <c r="E27" s="27" t="n"/>
+      <c r="D27" s="27" t="inlineStr">
+        <is>
+          <t>SMA, TP/ G2, M1, MEROUFEL B.</t>
+        </is>
+      </c>
+      <c r="E27" s="31" t="n"/>
       <c r="F27" s="27" t="n"/>
-      <c r="G27" s="27" t="n"/>
+      <c r="G27" s="27" t="inlineStr">
+        <is>
+          <t>RO, TP/ G4, M3, BAHNES N.</t>
+        </is>
+      </c>
       <c r="H27" s="27" t="n"/>
     </row>
     <row r="28" ht="21.75" customHeight="1" s="24">
       <c r="A28" s="30" t="n"/>
-      <c r="B28" s="31" t="n"/>
+      <c r="B28" s="27" t="n"/>
       <c r="C28" s="31" t="n"/>
-      <c r="D28" s="27" t="n"/>
-      <c r="E28" s="27" t="n"/>
+      <c r="D28" s="27" t="inlineStr">
+        <is>
+          <t>FDD, TP/ G4, A3, HABIB ZAHMANI M</t>
+        </is>
+      </c>
+      <c r="E28" s="31" t="n"/>
       <c r="F28" s="27" t="n"/>
       <c r="G28" s="27" t="n"/>
       <c r="H28" s="27" t="n"/>
     </row>
     <row r="29" ht="21.75" customHeight="1" s="24">
       <c r="A29" s="30" t="n"/>
-      <c r="B29" s="31" t="n"/>
+      <c r="B29" s="27" t="n"/>
       <c r="C29" s="31" t="n"/>
       <c r="D29" s="27" t="n"/>
-      <c r="E29" s="27" t="n"/>
+      <c r="E29" s="31" t="n"/>
       <c r="F29" s="27" t="n"/>
       <c r="G29" s="27" t="n"/>
       <c r="H29" s="27" t="n"/>
     </row>
     <row r="30" ht="21.75" customHeight="1" s="24">
       <c r="A30" s="30" t="n"/>
-      <c r="B30" s="31" t="n"/>
+      <c r="B30" s="27" t="n"/>
       <c r="C30" s="31" t="n"/>
       <c r="D30" s="27" t="n"/>
-      <c r="E30" s="27" t="n"/>
+      <c r="E30" s="31" t="n"/>
       <c r="F30" s="27" t="n"/>
       <c r="G30" s="27" t="n"/>
       <c r="H30" s="27" t="n"/>
     </row>
     <row r="31" ht="21.75" customHeight="1" s="24">
       <c r="A31" s="30" t="n"/>
-      <c r="B31" s="31" t="n"/>
+      <c r="B31" s="27" t="n"/>
       <c r="C31" s="31" t="n"/>
       <c r="D31" s="27" t="n"/>
-      <c r="E31" s="27" t="n"/>
+      <c r="E31" s="31" t="n"/>
       <c r="F31" s="27" t="n"/>
       <c r="G31" s="27" t="n"/>
       <c r="H31" s="27" t="n"/>
     </row>
     <row r="32" ht="21.75" customHeight="1" s="24">
       <c r="A32" s="30" t="n"/>
-      <c r="B32" s="31" t="n"/>
+      <c r="B32" s="27" t="n"/>
       <c r="C32" s="31" t="n"/>
       <c r="D32" s="27" t="n"/>
-      <c r="E32" s="27" t="n"/>
+      <c r="E32" s="31" t="n"/>
       <c r="F32" s="27" t="n"/>
       <c r="G32" s="27" t="n"/>
       <c r="H32" s="27" t="n"/>
     </row>
     <row r="33" ht="21.75" customHeight="1" s="24">
       <c r="A33" s="30" t="n"/>
-      <c r="B33" s="31" t="n"/>
+      <c r="B33" s="27" t="n"/>
       <c r="C33" s="31" t="n"/>
       <c r="D33" s="27" t="n"/>
-      <c r="E33" s="27" t="n"/>
+      <c r="E33" s="31" t="n"/>
       <c r="F33" s="27" t="n"/>
       <c r="G33" s="27" t="n"/>
       <c r="H33" s="27" t="n"/>
     </row>
     <row r="34" ht="21.75" customHeight="1" s="24">
       <c r="A34" s="32" t="n"/>
-      <c r="B34" s="33" t="n"/>
+      <c r="B34" s="16" t="n"/>
       <c r="C34" s="33" t="n"/>
       <c r="D34" s="16" t="n"/>
-      <c r="E34" s="16" t="n"/>
+      <c r="E34" s="33" t="n"/>
       <c r="F34" s="16" t="n"/>
       <c r="G34" s="16" t="n"/>
       <c r="H34" s="16" t="n"/>
@@ -11533,8 +13446,16 @@
           <t>SMA, COUR/ section 1, Amphi4, MEROUFEL B.</t>
         </is>
       </c>
-      <c r="D35" s="17" t="n"/>
-      <c r="E35" s="17" t="n"/>
+      <c r="D35" s="17" t="inlineStr">
+        <is>
+          <t>SMA, TP/ G3, A3, MEROUFEL B.</t>
+        </is>
+      </c>
+      <c r="E35" s="17" t="inlineStr">
+        <is>
+          <t>SMA, TP/ G4, A1, MEROUFEL B.</t>
+        </is>
+      </c>
       <c r="F35" s="17" t="n"/>
       <c r="G35" s="17" t="n"/>
       <c r="H35" s="17" t="n"/>
@@ -12693,12 +14614,12 @@
     <mergeCell ref="A35:A43"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="D8:D16"/>
+    <mergeCell ref="C8:C16"/>
     <mergeCell ref="E8:E16"/>
-    <mergeCell ref="C17:C25"/>
+    <mergeCell ref="B17:B25"/>
     <mergeCell ref="D17:D25"/>
-    <mergeCell ref="B26:B34"/>
     <mergeCell ref="C26:C34"/>
+    <mergeCell ref="E26:E34"/>
     <mergeCell ref="B35:B43"/>
     <mergeCell ref="C35:C43"/>
   </mergeCells>
@@ -12830,17 +14751,17 @@
       </c>
       <c r="C8" s="17" t="inlineStr">
         <is>
-          <t>GSR, TD/ G1, C4, LAREDJ A.</t>
+          <t>GSR, TD/ G1, C3, LAREDJ A.</t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>GSR, TP/ G1, A1, LAREDJ A.</t>
+          <t>GSR, TP/ G1, M1, LAREDJ A.</t>
         </is>
       </c>
       <c r="E8" s="29" t="inlineStr">
         <is>
-          <t>VS, COUR/ section 1, S7, FILALI F.</t>
+          <t>VS, COUR/ section 1, S5, FILALI F.</t>
         </is>
       </c>
       <c r="F8" s="17" t="inlineStr">
@@ -12849,7 +14770,11 @@
         </is>
       </c>
       <c r="G8" s="17" t="n"/>
-      <c r="H8" s="17" t="n"/>
+      <c r="H8" s="17" t="inlineStr">
+        <is>
+          <t>AOSI, TD/ G1, S2, KHIAT</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="21.75" customHeight="1" s="24">
       <c r="A9" s="30" t="n"/>
@@ -12939,26 +14864,26 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>SRI, COUR/ section 1, C2, BENTAOUZA C</t>
+          <t>ASBDA, COUR/ section 1, C2, HABIB ZAHMANI M</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
         <is>
-          <t>AOSI, COUR/ section 1, C1, KHELIFA N.</t>
-        </is>
-      </c>
-      <c r="D17" s="17" t="inlineStr">
-        <is>
-          <t>AOSI, TD/ G1, S12, KHIAT</t>
-        </is>
-      </c>
+          <t>SRI, COUR/ section 1, C1, BENTAOUZA C</t>
+        </is>
+      </c>
+      <c r="D17" s="17" t="n"/>
       <c r="E17" s="17" t="inlineStr">
         <is>
-          <t>AOSI, TP/ G1, A3, KHIAT</t>
+          <t>VS, TP/ G1, M2, FILALI F.</t>
         </is>
       </c>
       <c r="F17" s="17" t="n"/>
-      <c r="G17" s="17" t="n"/>
+      <c r="G17" s="17" t="inlineStr">
+        <is>
+          <t>PR, TP/ G1, M3, HOCINE N.</t>
+        </is>
+      </c>
       <c r="H17" s="17" t="n"/>
     </row>
     <row r="18" ht="21.75" customHeight="1" s="24">
@@ -13049,12 +14974,1666 @@
       </c>
       <c r="B26" s="29" t="inlineStr">
         <is>
-          <t>ASBDA, COUR/ section 1, C4, HABIB ZAHMANI M</t>
+          <t>AOSI, COUR/ section 1, C3, KHELIFA N.</t>
+        </is>
+      </c>
+      <c r="C26" s="17" t="inlineStr">
+        <is>
+          <t>SRI, TP/ G1, M2, BENTAOUZA C</t>
+        </is>
+      </c>
+      <c r="D26" s="29" t="inlineStr">
+        <is>
+          <t>PR, COUR/ section 1, B3, HOCINE N.</t>
+        </is>
+      </c>
+      <c r="E26" s="17" t="inlineStr">
+        <is>
+          <t>AOSI, TP/ G1, M3, KHIAT</t>
+        </is>
+      </c>
+      <c r="F26" s="17" t="n"/>
+      <c r="G26" s="17" t="n"/>
+      <c r="H26" s="17" t="n"/>
+    </row>
+    <row r="27" ht="21.75" customHeight="1" s="24">
+      <c r="A27" s="30" t="n"/>
+      <c r="B27" s="31" t="n"/>
+      <c r="C27" s="27" t="n"/>
+      <c r="D27" s="31" t="n"/>
+      <c r="E27" s="27" t="n"/>
+      <c r="F27" s="27" t="n"/>
+      <c r="G27" s="27" t="n"/>
+      <c r="H27" s="27" t="n"/>
+    </row>
+    <row r="28" ht="21.75" customHeight="1" s="24">
+      <c r="A28" s="30" t="n"/>
+      <c r="B28" s="31" t="n"/>
+      <c r="C28" s="27" t="n"/>
+      <c r="D28" s="31" t="n"/>
+      <c r="E28" s="27" t="n"/>
+      <c r="F28" s="27" t="n"/>
+      <c r="G28" s="27" t="n"/>
+      <c r="H28" s="27" t="n"/>
+    </row>
+    <row r="29" ht="21.75" customHeight="1" s="24">
+      <c r="A29" s="30" t="n"/>
+      <c r="B29" s="31" t="n"/>
+      <c r="C29" s="27" t="n"/>
+      <c r="D29" s="31" t="n"/>
+      <c r="E29" s="27" t="n"/>
+      <c r="F29" s="27" t="n"/>
+      <c r="G29" s="27" t="n"/>
+      <c r="H29" s="27" t="n"/>
+    </row>
+    <row r="30" ht="21.75" customHeight="1" s="24">
+      <c r="A30" s="30" t="n"/>
+      <c r="B30" s="31" t="n"/>
+      <c r="C30" s="27" t="n"/>
+      <c r="D30" s="31" t="n"/>
+      <c r="E30" s="27" t="n"/>
+      <c r="F30" s="27" t="n"/>
+      <c r="G30" s="27" t="n"/>
+      <c r="H30" s="27" t="n"/>
+    </row>
+    <row r="31" ht="21.75" customHeight="1" s="24">
+      <c r="A31" s="30" t="n"/>
+      <c r="B31" s="31" t="n"/>
+      <c r="C31" s="27" t="n"/>
+      <c r="D31" s="31" t="n"/>
+      <c r="E31" s="27" t="n"/>
+      <c r="F31" s="27" t="n"/>
+      <c r="G31" s="27" t="n"/>
+      <c r="H31" s="27" t="n"/>
+    </row>
+    <row r="32" ht="21.75" customHeight="1" s="24">
+      <c r="A32" s="30" t="n"/>
+      <c r="B32" s="31" t="n"/>
+      <c r="C32" s="27" t="n"/>
+      <c r="D32" s="31" t="n"/>
+      <c r="E32" s="27" t="n"/>
+      <c r="F32" s="27" t="n"/>
+      <c r="G32" s="27" t="n"/>
+      <c r="H32" s="27" t="n"/>
+    </row>
+    <row r="33" ht="21.75" customHeight="1" s="24">
+      <c r="A33" s="30" t="n"/>
+      <c r="B33" s="31" t="n"/>
+      <c r="C33" s="27" t="n"/>
+      <c r="D33" s="31" t="n"/>
+      <c r="E33" s="27" t="n"/>
+      <c r="F33" s="27" t="n"/>
+      <c r="G33" s="27" t="n"/>
+      <c r="H33" s="27" t="n"/>
+    </row>
+    <row r="34" ht="21.75" customHeight="1" s="24">
+      <c r="A34" s="32" t="n"/>
+      <c r="B34" s="33" t="n"/>
+      <c r="C34" s="16" t="n"/>
+      <c r="D34" s="33" t="n"/>
+      <c r="E34" s="16" t="n"/>
+      <c r="F34" s="16" t="n"/>
+      <c r="G34" s="16" t="n"/>
+      <c r="H34" s="16" t="n"/>
+    </row>
+    <row r="35" ht="21.75" customHeight="1" s="24">
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>Mercredi</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>RO, COUR/ section 1, B1, BAHNES N.</t>
+        </is>
+      </c>
+      <c r="C35" s="29" t="inlineStr">
+        <is>
+          <t>GP, COUR/ section 1, B1, DELALI A.</t>
+        </is>
+      </c>
+      <c r="D35" s="17" t="n"/>
+      <c r="E35" s="17" t="n"/>
+      <c r="F35" s="17" t="n"/>
+      <c r="G35" s="17" t="n"/>
+      <c r="H35" s="17" t="n"/>
+    </row>
+    <row r="36" ht="21.75" customHeight="1" s="24">
+      <c r="A36" s="30" t="n"/>
+      <c r="B36" s="31" t="n"/>
+      <c r="C36" s="31" t="n"/>
+      <c r="D36" s="27" t="n"/>
+      <c r="E36" s="27" t="n"/>
+      <c r="F36" s="27" t="n"/>
+      <c r="G36" s="27" t="n"/>
+      <c r="H36" s="27" t="n"/>
+    </row>
+    <row r="37" ht="21.75" customHeight="1" s="24">
+      <c r="A37" s="30" t="n"/>
+      <c r="B37" s="31" t="n"/>
+      <c r="C37" s="31" t="n"/>
+      <c r="D37" s="27" t="n"/>
+      <c r="E37" s="27" t="n"/>
+      <c r="F37" s="27" t="n"/>
+      <c r="G37" s="27" t="n"/>
+      <c r="H37" s="27" t="n"/>
+    </row>
+    <row r="38" ht="21.75" customHeight="1" s="24">
+      <c r="A38" s="30" t="n"/>
+      <c r="B38" s="31" t="n"/>
+      <c r="C38" s="31" t="n"/>
+      <c r="D38" s="27" t="n"/>
+      <c r="E38" s="27" t="n"/>
+      <c r="F38" s="27" t="n"/>
+      <c r="G38" s="27" t="n"/>
+      <c r="H38" s="27" t="n"/>
+    </row>
+    <row r="39" ht="21.75" customHeight="1" s="24">
+      <c r="A39" s="30" t="n"/>
+      <c r="B39" s="31" t="n"/>
+      <c r="C39" s="31" t="n"/>
+      <c r="D39" s="27" t="n"/>
+      <c r="E39" s="27" t="n"/>
+      <c r="F39" s="27" t="n"/>
+      <c r="G39" s="27" t="n"/>
+      <c r="H39" s="27" t="n"/>
+    </row>
+    <row r="40" ht="21.75" customHeight="1" s="24">
+      <c r="A40" s="30" t="n"/>
+      <c r="B40" s="31" t="n"/>
+      <c r="C40" s="31" t="n"/>
+      <c r="D40" s="27" t="n"/>
+      <c r="E40" s="27" t="n"/>
+      <c r="F40" s="27" t="n"/>
+      <c r="G40" s="27" t="n"/>
+      <c r="H40" s="27" t="n"/>
+    </row>
+    <row r="41" ht="21.75" customHeight="1" s="24">
+      <c r="A41" s="30" t="n"/>
+      <c r="B41" s="31" t="n"/>
+      <c r="C41" s="31" t="n"/>
+      <c r="D41" s="27" t="n"/>
+      <c r="E41" s="27" t="n"/>
+      <c r="F41" s="27" t="n"/>
+      <c r="G41" s="27" t="n"/>
+      <c r="H41" s="27" t="n"/>
+    </row>
+    <row r="42" ht="21.75" customHeight="1" s="24">
+      <c r="A42" s="30" t="n"/>
+      <c r="B42" s="31" t="n"/>
+      <c r="C42" s="31" t="n"/>
+      <c r="D42" s="27" t="n"/>
+      <c r="E42" s="27" t="n"/>
+      <c r="F42" s="27" t="n"/>
+      <c r="G42" s="27" t="n"/>
+      <c r="H42" s="27" t="n"/>
+    </row>
+    <row r="43" ht="21.75" customHeight="1" s="24">
+      <c r="A43" s="32" t="n"/>
+      <c r="B43" s="33" t="n"/>
+      <c r="C43" s="33" t="n"/>
+      <c r="D43" s="16" t="n"/>
+      <c r="E43" s="16" t="n"/>
+      <c r="F43" s="16" t="n"/>
+      <c r="G43" s="16" t="n"/>
+      <c r="H43" s="16" t="n"/>
+    </row>
+    <row r="44" ht="21.75" customHeight="1" s="24">
+      <c r="A44" s="28" t="inlineStr">
+        <is>
+          <t>Jeudi</t>
+        </is>
+      </c>
+      <c r="B44" s="17" t="n"/>
+      <c r="C44" s="17" t="n"/>
+      <c r="D44" s="17" t="n"/>
+      <c r="E44" s="17" t="n"/>
+      <c r="F44" s="17" t="n"/>
+      <c r="G44" s="17" t="n"/>
+      <c r="H44" s="17" t="n"/>
+    </row>
+    <row r="45" ht="21.75" customHeight="1" s="24">
+      <c r="A45" s="30" t="n"/>
+      <c r="B45" s="27" t="n"/>
+      <c r="C45" s="27" t="n"/>
+      <c r="D45" s="27" t="n"/>
+      <c r="E45" s="27" t="n"/>
+      <c r="F45" s="27" t="n"/>
+      <c r="G45" s="27" t="n"/>
+      <c r="H45" s="27" t="n"/>
+    </row>
+    <row r="46" ht="21.75" customHeight="1" s="24">
+      <c r="A46" s="30" t="n"/>
+      <c r="B46" s="27" t="n"/>
+      <c r="C46" s="27" t="n"/>
+      <c r="D46" s="27" t="n"/>
+      <c r="E46" s="27" t="n"/>
+      <c r="F46" s="27" t="n"/>
+      <c r="G46" s="27" t="n"/>
+      <c r="H46" s="27" t="n"/>
+    </row>
+    <row r="47" ht="21.75" customHeight="1" s="24">
+      <c r="A47" s="30" t="n"/>
+      <c r="B47" s="27" t="n"/>
+      <c r="C47" s="27" t="n"/>
+      <c r="D47" s="27" t="n"/>
+      <c r="E47" s="27" t="n"/>
+      <c r="F47" s="27" t="n"/>
+      <c r="G47" s="27" t="n"/>
+      <c r="H47" s="27" t="n"/>
+    </row>
+    <row r="48" ht="21.75" customHeight="1" s="24">
+      <c r="A48" s="30" t="n"/>
+      <c r="B48" s="27" t="n"/>
+      <c r="C48" s="27" t="n"/>
+      <c r="D48" s="27" t="n"/>
+      <c r="E48" s="27" t="n"/>
+      <c r="F48" s="27" t="n"/>
+      <c r="G48" s="27" t="n"/>
+      <c r="H48" s="27" t="n"/>
+    </row>
+    <row r="49" ht="21.75" customHeight="1" s="24">
+      <c r="A49" s="30" t="n"/>
+      <c r="B49" s="27" t="n"/>
+      <c r="C49" s="27" t="n"/>
+      <c r="D49" s="27" t="n"/>
+      <c r="E49" s="27" t="n"/>
+      <c r="F49" s="27" t="n"/>
+      <c r="G49" s="27" t="n"/>
+      <c r="H49" s="27" t="n"/>
+    </row>
+    <row r="50" ht="21.75" customHeight="1" s="24">
+      <c r="A50" s="30" t="n"/>
+      <c r="B50" s="27" t="n"/>
+      <c r="C50" s="27" t="n"/>
+      <c r="D50" s="27" t="n"/>
+      <c r="E50" s="27" t="n"/>
+      <c r="F50" s="27" t="n"/>
+      <c r="G50" s="27" t="n"/>
+      <c r="H50" s="27" t="n"/>
+    </row>
+    <row r="51" ht="21.75" customHeight="1" s="24">
+      <c r="A51" s="30" t="n"/>
+      <c r="B51" s="27" t="n"/>
+      <c r="C51" s="27" t="n"/>
+      <c r="D51" s="27" t="n"/>
+      <c r="E51" s="27" t="n"/>
+      <c r="F51" s="27" t="n"/>
+      <c r="G51" s="27" t="n"/>
+      <c r="H51" s="27" t="n"/>
+    </row>
+    <row r="52" ht="21.75" customHeight="1" s="24">
+      <c r="A52" s="32" t="n"/>
+      <c r="B52" s="16" t="n"/>
+      <c r="C52" s="16" t="n"/>
+      <c r="D52" s="16" t="n"/>
+      <c r="E52" s="16" t="n"/>
+      <c r="F52" s="16" t="n"/>
+      <c r="G52" s="16" t="n"/>
+      <c r="H52" s="16" t="n"/>
+    </row>
+    <row r="53" ht="18.75" customHeight="1" s="24"/>
+    <row r="54" ht="18.75" customHeight="1" s="24"/>
+    <row r="55" ht="18.75" customHeight="1" s="24"/>
+    <row r="56" ht="18.75" customHeight="1" s="24"/>
+    <row r="57" ht="18.75" customHeight="1" s="24"/>
+    <row r="58" ht="18.75" customHeight="1" s="24"/>
+    <row r="59" ht="18.75" customHeight="1" s="24"/>
+    <row r="60" ht="18.75" customHeight="1" s="24"/>
+    <row r="61" ht="18.75" customHeight="1" s="24"/>
+    <row r="62" ht="18.75" customHeight="1" s="24"/>
+    <row r="63" ht="18.75" customHeight="1" s="24"/>
+    <row r="64" ht="18.75" customHeight="1" s="24"/>
+    <row r="65" ht="18.75" customHeight="1" s="24"/>
+    <row r="66" ht="18.75" customHeight="1" s="24"/>
+    <row r="67" ht="18.75" customHeight="1" s="24"/>
+    <row r="68" ht="18.75" customHeight="1" s="24"/>
+    <row r="69" ht="18.75" customHeight="1" s="24"/>
+    <row r="70" ht="18.75" customHeight="1" s="24"/>
+    <row r="71" ht="18.75" customHeight="1" s="24"/>
+    <row r="72" ht="18.75" customHeight="1" s="24"/>
+    <row r="73" ht="18.75" customHeight="1" s="24"/>
+    <row r="74" ht="18.75" customHeight="1" s="24"/>
+    <row r="75" ht="18.75" customHeight="1" s="24"/>
+    <row r="76" ht="18.75" customHeight="1" s="24"/>
+    <row r="77" ht="18.75" customHeight="1" s="24"/>
+    <row r="78" ht="18.75" customHeight="1" s="24"/>
+    <row r="79" ht="18.75" customHeight="1" s="24"/>
+    <row r="80" ht="18.75" customHeight="1" s="24"/>
+    <row r="81" ht="18.75" customHeight="1" s="24"/>
+    <row r="82" ht="18.75" customHeight="1" s="24"/>
+    <row r="83" ht="18.75" customHeight="1" s="24"/>
+    <row r="84" ht="18.75" customHeight="1" s="24"/>
+    <row r="85" ht="18.75" customHeight="1" s="24"/>
+    <row r="86" ht="18.75" customHeight="1" s="24"/>
+    <row r="87" ht="18.75" customHeight="1" s="24"/>
+    <row r="88" ht="18.75" customHeight="1" s="24"/>
+    <row r="89" ht="18.75" customHeight="1" s="24"/>
+    <row r="90" ht="18.75" customHeight="1" s="24"/>
+    <row r="91" ht="18.75" customHeight="1" s="24"/>
+    <row r="92" ht="18.75" customHeight="1" s="24"/>
+    <row r="93" ht="18.75" customHeight="1" s="24"/>
+    <row r="94" ht="18.75" customHeight="1" s="24"/>
+    <row r="95" ht="18.75" customHeight="1" s="24"/>
+    <row r="96" ht="18.75" customHeight="1" s="24"/>
+    <row r="97" ht="18.75" customHeight="1" s="24"/>
+    <row r="98" ht="18.75" customHeight="1" s="24"/>
+    <row r="99" ht="18.75" customHeight="1" s="24"/>
+    <row r="100" ht="18.75" customHeight="1" s="24"/>
+    <row r="101" ht="18.75" customHeight="1" s="24"/>
+    <row r="102" ht="18.75" customHeight="1" s="24"/>
+    <row r="103" ht="18.75" customHeight="1" s="24"/>
+    <row r="104" ht="18.75" customHeight="1" s="24"/>
+    <row r="105" ht="18.75" customHeight="1" s="24"/>
+    <row r="106" ht="18.75" customHeight="1" s="24"/>
+    <row r="107" ht="18.75" customHeight="1" s="24"/>
+    <row r="108" ht="18.75" customHeight="1" s="24"/>
+    <row r="109" ht="18.75" customHeight="1" s="24"/>
+    <row r="110" ht="18.75" customHeight="1" s="24"/>
+    <row r="111" ht="18.75" customHeight="1" s="24"/>
+    <row r="112" ht="18.75" customHeight="1" s="24"/>
+    <row r="113" ht="18.75" customHeight="1" s="24"/>
+    <row r="114" ht="18.75" customHeight="1" s="24"/>
+    <row r="115" ht="18.75" customHeight="1" s="24"/>
+    <row r="116" ht="18.75" customHeight="1" s="24"/>
+    <row r="117" ht="18.75" customHeight="1" s="24"/>
+    <row r="118" ht="18.75" customHeight="1" s="24"/>
+    <row r="119" ht="18.75" customHeight="1" s="24"/>
+    <row r="120" ht="18.75" customHeight="1" s="24"/>
+    <row r="121" ht="18.75" customHeight="1" s="24"/>
+    <row r="122" ht="18.75" customHeight="1" s="24"/>
+    <row r="123" ht="18.75" customHeight="1" s="24"/>
+    <row r="124" ht="18.75" customHeight="1" s="24"/>
+    <row r="125" ht="18.75" customHeight="1" s="24"/>
+    <row r="126" ht="18.75" customHeight="1" s="24"/>
+    <row r="127" ht="18.75" customHeight="1" s="24"/>
+    <row r="128" ht="18.75" customHeight="1" s="24"/>
+    <row r="129" ht="18.75" customHeight="1" s="24"/>
+    <row r="130" ht="18.75" customHeight="1" s="24"/>
+    <row r="131" ht="18.75" customHeight="1" s="24"/>
+    <row r="132" ht="18.75" customHeight="1" s="24"/>
+    <row r="133" ht="18.75" customHeight="1" s="24"/>
+    <row r="134" ht="18.75" customHeight="1" s="24"/>
+    <row r="135" ht="18.75" customHeight="1" s="24"/>
+    <row r="136" ht="18.75" customHeight="1" s="24"/>
+    <row r="137" ht="18.75" customHeight="1" s="24"/>
+    <row r="138" ht="18.75" customHeight="1" s="24"/>
+    <row r="139" ht="18.75" customHeight="1" s="24"/>
+    <row r="140" ht="18.75" customHeight="1" s="24"/>
+    <row r="141" ht="18.75" customHeight="1" s="24"/>
+    <row r="142" ht="18.75" customHeight="1" s="24"/>
+    <row r="143" ht="18.75" customHeight="1" s="24"/>
+    <row r="144" ht="18.75" customHeight="1" s="24"/>
+    <row r="145" ht="18.75" customHeight="1" s="24"/>
+    <row r="146" ht="18.75" customHeight="1" s="24"/>
+    <row r="147" ht="18.75" customHeight="1" s="24"/>
+    <row r="148" ht="18.75" customHeight="1" s="24"/>
+    <row r="149" ht="18.75" customHeight="1" s="24"/>
+    <row r="150" ht="18.75" customHeight="1" s="24"/>
+    <row r="151" ht="18.75" customHeight="1" s="24"/>
+    <row r="152" ht="18.75" customHeight="1" s="24"/>
+    <row r="153" ht="18.75" customHeight="1" s="24"/>
+    <row r="154" ht="18.75" customHeight="1" s="24"/>
+    <row r="155" ht="18.75" customHeight="1" s="24"/>
+    <row r="156" ht="18.75" customHeight="1" s="24"/>
+    <row r="157" ht="18.75" customHeight="1" s="24"/>
+    <row r="158" ht="18.75" customHeight="1" s="24"/>
+    <row r="159" ht="18.75" customHeight="1" s="24"/>
+    <row r="160" ht="18.75" customHeight="1" s="24"/>
+    <row r="161" ht="18.75" customHeight="1" s="24"/>
+    <row r="162" ht="18.75" customHeight="1" s="24"/>
+    <row r="163" ht="18.75" customHeight="1" s="24"/>
+    <row r="164" ht="18.75" customHeight="1" s="24"/>
+    <row r="165" ht="18.75" customHeight="1" s="24"/>
+    <row r="166" ht="18.75" customHeight="1" s="24"/>
+    <row r="167" ht="18.75" customHeight="1" s="24"/>
+    <row r="168" ht="18.75" customHeight="1" s="24"/>
+    <row r="169" ht="18.75" customHeight="1" s="24"/>
+    <row r="170" ht="18.75" customHeight="1" s="24"/>
+    <row r="171" ht="18.75" customHeight="1" s="24"/>
+    <row r="172" ht="18.75" customHeight="1" s="24"/>
+    <row r="173" ht="18.75" customHeight="1" s="24"/>
+    <row r="174" ht="18.75" customHeight="1" s="24"/>
+    <row r="175" ht="18.75" customHeight="1" s="24"/>
+    <row r="176" ht="18.75" customHeight="1" s="24"/>
+    <row r="177" ht="18.75" customHeight="1" s="24"/>
+    <row r="178" ht="18.75" customHeight="1" s="24"/>
+    <row r="179" ht="18.75" customHeight="1" s="24"/>
+    <row r="180" ht="18.75" customHeight="1" s="24"/>
+    <row r="181" ht="18.75" customHeight="1" s="24"/>
+    <row r="182" ht="18.75" customHeight="1" s="24"/>
+    <row r="183" ht="18.75" customHeight="1" s="24"/>
+    <row r="184" ht="18.75" customHeight="1" s="24"/>
+    <row r="185" ht="18.75" customHeight="1" s="24"/>
+    <row r="186" ht="18.75" customHeight="1" s="24"/>
+    <row r="187" ht="18.75" customHeight="1" s="24"/>
+    <row r="188" ht="18.75" customHeight="1" s="24"/>
+    <row r="189" ht="18.75" customHeight="1" s="24"/>
+    <row r="190" ht="18.75" customHeight="1" s="24"/>
+    <row r="191" ht="18.75" customHeight="1" s="24"/>
+    <row r="192" ht="18.75" customHeight="1" s="24"/>
+    <row r="193" ht="18.75" customHeight="1" s="24"/>
+    <row r="194" ht="18.75" customHeight="1" s="24"/>
+    <row r="195" ht="18.75" customHeight="1" s="24"/>
+    <row r="196" ht="18.75" customHeight="1" s="24"/>
+    <row r="197" ht="18.75" customHeight="1" s="24"/>
+    <row r="198" ht="18.75" customHeight="1" s="24"/>
+    <row r="199" ht="18.75" customHeight="1" s="24"/>
+    <row r="200" ht="18.75" customHeight="1" s="24"/>
+    <row r="201" ht="18.75" customHeight="1" s="24"/>
+    <row r="202" ht="18.75" customHeight="1" s="24"/>
+    <row r="203" ht="18.75" customHeight="1" s="24"/>
+    <row r="204" ht="18.75" customHeight="1" s="24"/>
+    <row r="205" ht="18.75" customHeight="1" s="24"/>
+    <row r="206" ht="18.75" customHeight="1" s="24"/>
+    <row r="207" ht="18.75" customHeight="1" s="24"/>
+    <row r="208" ht="18.75" customHeight="1" s="24"/>
+    <row r="209" ht="18.75" customHeight="1" s="24"/>
+    <row r="210" ht="18.75" customHeight="1" s="24"/>
+    <row r="211" ht="18.75" customHeight="1" s="24"/>
+    <row r="212" ht="18.75" customHeight="1" s="24"/>
+    <row r="213" ht="18.75" customHeight="1" s="24"/>
+    <row r="214" ht="18.75" customHeight="1" s="24"/>
+    <row r="215" ht="18.75" customHeight="1" s="24"/>
+    <row r="216" ht="18.75" customHeight="1" s="24"/>
+    <row r="217" ht="18.75" customHeight="1" s="24"/>
+    <row r="218" ht="18.75" customHeight="1" s="24"/>
+    <row r="219" ht="18.75" customHeight="1" s="24"/>
+    <row r="220" ht="18.75" customHeight="1" s="24"/>
+    <row r="221" ht="18.75" customHeight="1" s="24"/>
+    <row r="222" ht="18.75" customHeight="1" s="24"/>
+    <row r="223" ht="18.75" customHeight="1" s="24"/>
+    <row r="224" ht="18.75" customHeight="1" s="24"/>
+    <row r="225" ht="18.75" customHeight="1" s="24"/>
+    <row r="226" ht="18.75" customHeight="1" s="24"/>
+    <row r="227" ht="18.75" customHeight="1" s="24"/>
+    <row r="228" ht="18.75" customHeight="1" s="24"/>
+    <row r="229" ht="18.75" customHeight="1" s="24"/>
+    <row r="230" ht="18.75" customHeight="1" s="24"/>
+    <row r="231" ht="18.75" customHeight="1" s="24"/>
+    <row r="232" ht="18.75" customHeight="1" s="24"/>
+    <row r="233" ht="18.75" customHeight="1" s="24"/>
+    <row r="234" ht="18.75" customHeight="1" s="24"/>
+    <row r="235" ht="18.75" customHeight="1" s="24"/>
+    <row r="236" ht="18.75" customHeight="1" s="24"/>
+    <row r="237" ht="18.75" customHeight="1" s="24"/>
+    <row r="238" ht="18.75" customHeight="1" s="24"/>
+    <row r="239" ht="18.75" customHeight="1" s="24"/>
+    <row r="240" ht="18.75" customHeight="1" s="24"/>
+    <row r="241" ht="18.75" customHeight="1" s="24"/>
+    <row r="242" ht="18.75" customHeight="1" s="24"/>
+    <row r="243" ht="18.75" customHeight="1" s="24"/>
+    <row r="244" ht="18.75" customHeight="1" s="24"/>
+    <row r="245" ht="18.75" customHeight="1" s="24"/>
+    <row r="246" ht="18.75" customHeight="1" s="24"/>
+    <row r="247" ht="18.75" customHeight="1" s="24"/>
+    <row r="248" ht="18.75" customHeight="1" s="24"/>
+    <row r="249" ht="18.75" customHeight="1" s="24"/>
+    <row r="250" ht="18.75" customHeight="1" s="24"/>
+    <row r="251" ht="18.75" customHeight="1" s="24"/>
+    <row r="252" ht="18.75" customHeight="1" s="24"/>
+    <row r="253" ht="18.75" customHeight="1" s="24"/>
+    <row r="254" ht="18.75" customHeight="1" s="24"/>
+    <row r="255" ht="18.75" customHeight="1" s="24"/>
+    <row r="256" ht="18.75" customHeight="1" s="24"/>
+    <row r="257" ht="18.75" customHeight="1" s="24"/>
+    <row r="258" ht="18.75" customHeight="1" s="24"/>
+    <row r="259" ht="18.75" customHeight="1" s="24"/>
+    <row r="260" ht="18.75" customHeight="1" s="24"/>
+    <row r="261" ht="18.75" customHeight="1" s="24"/>
+    <row r="262" ht="18.75" customHeight="1" s="24"/>
+    <row r="263" ht="18.75" customHeight="1" s="24"/>
+    <row r="264" ht="18.75" customHeight="1" s="24"/>
+    <row r="265" ht="18.75" customHeight="1" s="24"/>
+    <row r="266" ht="18.75" customHeight="1" s="24"/>
+    <row r="267" ht="18.75" customHeight="1" s="24"/>
+    <row r="268" ht="18.75" customHeight="1" s="24"/>
+    <row r="269" ht="18.75" customHeight="1" s="24"/>
+    <row r="270" ht="18.75" customHeight="1" s="24"/>
+    <row r="271" ht="18.75" customHeight="1" s="24"/>
+    <row r="272" ht="18.75" customHeight="1" s="24"/>
+    <row r="273" ht="18.75" customHeight="1" s="24"/>
+    <row r="274" ht="18.75" customHeight="1" s="24"/>
+    <row r="275" ht="18.75" customHeight="1" s="24"/>
+    <row r="276" ht="18.75" customHeight="1" s="24"/>
+    <row r="277" ht="18.75" customHeight="1" s="24"/>
+    <row r="278" ht="18.75" customHeight="1" s="24"/>
+    <row r="279" ht="18.75" customHeight="1" s="24"/>
+    <row r="280" ht="18.75" customHeight="1" s="24"/>
+    <row r="281" ht="18.75" customHeight="1" s="24"/>
+    <row r="282" ht="18.75" customHeight="1" s="24"/>
+    <row r="283" ht="18.75" customHeight="1" s="24"/>
+    <row r="284" ht="18.75" customHeight="1" s="24"/>
+    <row r="285" ht="18.75" customHeight="1" s="24"/>
+    <row r="286" ht="18.75" customHeight="1" s="24"/>
+    <row r="287" ht="18.75" customHeight="1" s="24"/>
+    <row r="288" ht="18.75" customHeight="1" s="24"/>
+    <row r="289" ht="18.75" customHeight="1" s="24"/>
+    <row r="290" ht="18.75" customHeight="1" s="24"/>
+    <row r="291" ht="18.75" customHeight="1" s="24"/>
+    <row r="292" ht="18.75" customHeight="1" s="24"/>
+    <row r="293" ht="18.75" customHeight="1" s="24"/>
+    <row r="294" ht="18.75" customHeight="1" s="24"/>
+    <row r="295" ht="18.75" customHeight="1" s="24"/>
+    <row r="296" ht="18.75" customHeight="1" s="24"/>
+    <row r="297" ht="18.75" customHeight="1" s="24"/>
+    <row r="298" ht="18.75" customHeight="1" s="24"/>
+    <row r="299" ht="18.75" customHeight="1" s="24"/>
+    <row r="300" ht="18.75" customHeight="1" s="24"/>
+    <row r="301" ht="18.75" customHeight="1" s="24"/>
+    <row r="302" ht="18.75" customHeight="1" s="24"/>
+    <row r="303" ht="18.75" customHeight="1" s="24"/>
+    <row r="304" ht="18.75" customHeight="1" s="24"/>
+    <row r="305" ht="18.75" customHeight="1" s="24"/>
+    <row r="306" ht="18.75" customHeight="1" s="24"/>
+    <row r="307" ht="18.75" customHeight="1" s="24"/>
+    <row r="308" ht="18.75" customHeight="1" s="24"/>
+    <row r="309" ht="18.75" customHeight="1" s="24"/>
+    <row r="310" ht="18.75" customHeight="1" s="24"/>
+    <row r="311" ht="18.75" customHeight="1" s="24"/>
+    <row r="312" ht="18.75" customHeight="1" s="24"/>
+    <row r="313" ht="18.75" customHeight="1" s="24"/>
+    <row r="314" ht="18.75" customHeight="1" s="24"/>
+    <row r="315" ht="18.75" customHeight="1" s="24"/>
+    <row r="316" ht="18.75" customHeight="1" s="24"/>
+    <row r="317" ht="18.75" customHeight="1" s="24"/>
+    <row r="318" ht="18.75" customHeight="1" s="24"/>
+    <row r="319" ht="18.75" customHeight="1" s="24"/>
+    <row r="320" ht="18.75" customHeight="1" s="24"/>
+    <row r="321" ht="18.75" customHeight="1" s="24"/>
+    <row r="322" ht="18.75" customHeight="1" s="24"/>
+    <row r="323" ht="18.75" customHeight="1" s="24"/>
+    <row r="324" ht="18.75" customHeight="1" s="24"/>
+    <row r="325" ht="18.75" customHeight="1" s="24"/>
+    <row r="326" ht="18.75" customHeight="1" s="24"/>
+    <row r="327" ht="18.75" customHeight="1" s="24"/>
+    <row r="328" ht="18.75" customHeight="1" s="24"/>
+    <row r="329" ht="18.75" customHeight="1" s="24"/>
+    <row r="330" ht="18.75" customHeight="1" s="24"/>
+    <row r="331" ht="18.75" customHeight="1" s="24"/>
+    <row r="332" ht="18.75" customHeight="1" s="24"/>
+    <row r="333" ht="18.75" customHeight="1" s="24"/>
+    <row r="334" ht="18.75" customHeight="1" s="24"/>
+    <row r="335" ht="18.75" customHeight="1" s="24"/>
+    <row r="336" ht="18.75" customHeight="1" s="24"/>
+    <row r="337" ht="18.75" customHeight="1" s="24"/>
+    <row r="338" ht="18.75" customHeight="1" s="24"/>
+    <row r="339" ht="18.75" customHeight="1" s="24"/>
+    <row r="340" ht="18.75" customHeight="1" s="24"/>
+    <row r="341" ht="18.75" customHeight="1" s="24"/>
+    <row r="342" ht="18.75" customHeight="1" s="24"/>
+    <row r="343" ht="18.75" customHeight="1" s="24"/>
+    <row r="344" ht="18.75" customHeight="1" s="24"/>
+    <row r="345" ht="18.75" customHeight="1" s="24"/>
+    <row r="346" ht="18.75" customHeight="1" s="24"/>
+    <row r="347" ht="18.75" customHeight="1" s="24"/>
+    <row r="348" ht="18.75" customHeight="1" s="24"/>
+    <row r="349" ht="18.75" customHeight="1" s="24"/>
+    <row r="350" ht="18.75" customHeight="1" s="24"/>
+    <row r="351" ht="18.75" customHeight="1" s="24"/>
+    <row r="352" ht="18.75" customHeight="1" s="24"/>
+    <row r="353" ht="18.75" customHeight="1" s="24"/>
+    <row r="354" ht="18.75" customHeight="1" s="24"/>
+    <row r="355" ht="18.75" customHeight="1" s="24"/>
+    <row r="356" ht="18.75" customHeight="1" s="24"/>
+    <row r="357" ht="18.75" customHeight="1" s="24"/>
+    <row r="358" ht="18.75" customHeight="1" s="24"/>
+    <row r="359" ht="18.75" customHeight="1" s="24"/>
+    <row r="360" ht="18.75" customHeight="1" s="24"/>
+    <row r="361" ht="18.75" customHeight="1" s="24"/>
+    <row r="362" ht="18.75" customHeight="1" s="24"/>
+    <row r="363" ht="18.75" customHeight="1" s="24"/>
+    <row r="364" ht="18.75" customHeight="1" s="24"/>
+    <row r="365" ht="18.75" customHeight="1" s="24"/>
+    <row r="366" ht="18.75" customHeight="1" s="24"/>
+    <row r="367" ht="18.75" customHeight="1" s="24"/>
+    <row r="368" ht="18.75" customHeight="1" s="24"/>
+    <row r="369" ht="18.75" customHeight="1" s="24"/>
+    <row r="370" ht="18.75" customHeight="1" s="24"/>
+    <row r="371" ht="18.75" customHeight="1" s="24"/>
+    <row r="372" ht="18.75" customHeight="1" s="24"/>
+    <row r="373" ht="18.75" customHeight="1" s="24"/>
+    <row r="374" ht="18.75" customHeight="1" s="24"/>
+    <row r="375" ht="18.75" customHeight="1" s="24"/>
+    <row r="376" ht="18.75" customHeight="1" s="24"/>
+    <row r="377" ht="18.75" customHeight="1" s="24"/>
+    <row r="378" ht="18.75" customHeight="1" s="24"/>
+    <row r="379" ht="18.75" customHeight="1" s="24"/>
+    <row r="380" ht="18.75" customHeight="1" s="24"/>
+    <row r="381" ht="18.75" customHeight="1" s="24"/>
+    <row r="382" ht="18.75" customHeight="1" s="24"/>
+    <row r="383" ht="18.75" customHeight="1" s="24"/>
+    <row r="384" ht="18.75" customHeight="1" s="24"/>
+    <row r="385" ht="18.75" customHeight="1" s="24"/>
+    <row r="386" ht="18.75" customHeight="1" s="24"/>
+    <row r="387" ht="18.75" customHeight="1" s="24"/>
+    <row r="388" ht="18.75" customHeight="1" s="24"/>
+    <row r="389" ht="18.75" customHeight="1" s="24"/>
+    <row r="390" ht="18.75" customHeight="1" s="24"/>
+    <row r="391" ht="18.75" customHeight="1" s="24"/>
+    <row r="392" ht="18.75" customHeight="1" s="24"/>
+    <row r="393" ht="18.75" customHeight="1" s="24"/>
+    <row r="394" ht="18.75" customHeight="1" s="24"/>
+    <row r="395" ht="18.75" customHeight="1" s="24"/>
+    <row r="396" ht="18.75" customHeight="1" s="24"/>
+    <row r="397" ht="18.75" customHeight="1" s="24"/>
+    <row r="398" ht="18.75" customHeight="1" s="24"/>
+    <row r="399" ht="18.75" customHeight="1" s="24"/>
+    <row r="400" ht="18.75" customHeight="1" s="24"/>
+    <row r="401" ht="18.75" customHeight="1" s="24"/>
+    <row r="402" ht="18.75" customHeight="1" s="24"/>
+    <row r="403" ht="18.75" customHeight="1" s="24"/>
+    <row r="404" ht="18.75" customHeight="1" s="24"/>
+    <row r="405" ht="18.75" customHeight="1" s="24"/>
+    <row r="406" ht="18.75" customHeight="1" s="24"/>
+    <row r="407" ht="18.75" customHeight="1" s="24"/>
+    <row r="408" ht="18.75" customHeight="1" s="24"/>
+    <row r="409" ht="18.75" customHeight="1" s="24"/>
+    <row r="410" ht="18.75" customHeight="1" s="24"/>
+    <row r="411" ht="18.75" customHeight="1" s="24"/>
+    <row r="412" ht="18.75" customHeight="1" s="24"/>
+    <row r="413" ht="18.75" customHeight="1" s="24"/>
+    <row r="414" ht="18.75" customHeight="1" s="24"/>
+    <row r="415" ht="18.75" customHeight="1" s="24"/>
+    <row r="416" ht="18.75" customHeight="1" s="24"/>
+    <row r="417" ht="18.75" customHeight="1" s="24"/>
+    <row r="418" ht="18.75" customHeight="1" s="24"/>
+    <row r="419" ht="18.75" customHeight="1" s="24"/>
+    <row r="420" ht="18.75" customHeight="1" s="24"/>
+    <row r="421" ht="18.75" customHeight="1" s="24"/>
+    <row r="422" ht="18.75" customHeight="1" s="24"/>
+    <row r="423" ht="18.75" customHeight="1" s="24"/>
+    <row r="424" ht="18.75" customHeight="1" s="24"/>
+    <row r="425" ht="18.75" customHeight="1" s="24"/>
+    <row r="426" ht="18.75" customHeight="1" s="24"/>
+    <row r="427" ht="18.75" customHeight="1" s="24"/>
+    <row r="428" ht="18.75" customHeight="1" s="24"/>
+    <row r="429" ht="18.75" customHeight="1" s="24"/>
+    <row r="430" ht="18.75" customHeight="1" s="24"/>
+    <row r="431" ht="18.75" customHeight="1" s="24"/>
+    <row r="432" ht="18.75" customHeight="1" s="24"/>
+    <row r="433" ht="18.75" customHeight="1" s="24"/>
+    <row r="434" ht="18.75" customHeight="1" s="24"/>
+    <row r="435" ht="18.75" customHeight="1" s="24"/>
+    <row r="436" ht="18.75" customHeight="1" s="24"/>
+    <row r="437" ht="18.75" customHeight="1" s="24"/>
+    <row r="438" ht="18.75" customHeight="1" s="24"/>
+    <row r="439" ht="18.75" customHeight="1" s="24"/>
+    <row r="440" ht="18.75" customHeight="1" s="24"/>
+    <row r="441" ht="18.75" customHeight="1" s="24"/>
+    <row r="442" ht="18.75" customHeight="1" s="24"/>
+    <row r="443" ht="18.75" customHeight="1" s="24"/>
+    <row r="444" ht="18.75" customHeight="1" s="24"/>
+    <row r="445" ht="18.75" customHeight="1" s="24"/>
+    <row r="446" ht="18.75" customHeight="1" s="24"/>
+    <row r="447" ht="18.75" customHeight="1" s="24"/>
+    <row r="448" ht="18.75" customHeight="1" s="24"/>
+    <row r="449" ht="18.75" customHeight="1" s="24"/>
+    <row r="450" ht="18.75" customHeight="1" s="24"/>
+    <row r="451" ht="18.75" customHeight="1" s="24"/>
+    <row r="452" ht="18.75" customHeight="1" s="24"/>
+    <row r="453" ht="18.75" customHeight="1" s="24"/>
+    <row r="454" ht="18.75" customHeight="1" s="24"/>
+    <row r="455" ht="18.75" customHeight="1" s="24"/>
+    <row r="456" ht="18.75" customHeight="1" s="24"/>
+    <row r="457" ht="18.75" customHeight="1" s="24"/>
+    <row r="458" ht="18.75" customHeight="1" s="24"/>
+    <row r="459" ht="18.75" customHeight="1" s="24"/>
+    <row r="460" ht="18.75" customHeight="1" s="24"/>
+    <row r="461" ht="18.75" customHeight="1" s="24"/>
+    <row r="462" ht="18.75" customHeight="1" s="24"/>
+    <row r="463" ht="18.75" customHeight="1" s="24"/>
+    <row r="464" ht="18.75" customHeight="1" s="24"/>
+    <row r="465" ht="18.75" customHeight="1" s="24"/>
+    <row r="466" ht="18.75" customHeight="1" s="24"/>
+    <row r="467" ht="18.75" customHeight="1" s="24"/>
+    <row r="468" ht="18.75" customHeight="1" s="24"/>
+    <row r="469" ht="18.75" customHeight="1" s="24"/>
+    <row r="470" ht="18.75" customHeight="1" s="24"/>
+    <row r="471" ht="18.75" customHeight="1" s="24"/>
+    <row r="472" ht="18.75" customHeight="1" s="24"/>
+    <row r="473" ht="18.75" customHeight="1" s="24"/>
+    <row r="474" ht="18.75" customHeight="1" s="24"/>
+    <row r="475" ht="18.75" customHeight="1" s="24"/>
+    <row r="476" ht="18.75" customHeight="1" s="24"/>
+    <row r="477" ht="18.75" customHeight="1" s="24"/>
+    <row r="478" ht="18.75" customHeight="1" s="24"/>
+    <row r="479" ht="18.75" customHeight="1" s="24"/>
+    <row r="480" ht="18.75" customHeight="1" s="24"/>
+    <row r="481" ht="18.75" customHeight="1" s="24"/>
+    <row r="482" ht="18.75" customHeight="1" s="24"/>
+    <row r="483" ht="18.75" customHeight="1" s="24"/>
+    <row r="484" ht="18.75" customHeight="1" s="24"/>
+    <row r="485" ht="18.75" customHeight="1" s="24"/>
+    <row r="486" ht="18.75" customHeight="1" s="24"/>
+    <row r="487" ht="18.75" customHeight="1" s="24"/>
+    <row r="488" ht="18.75" customHeight="1" s="24"/>
+    <row r="489" ht="18.75" customHeight="1" s="24"/>
+    <row r="490" ht="18.75" customHeight="1" s="24"/>
+    <row r="491" ht="18.75" customHeight="1" s="24"/>
+    <row r="492" ht="18.75" customHeight="1" s="24"/>
+    <row r="493" ht="18.75" customHeight="1" s="24"/>
+    <row r="494" ht="18.75" customHeight="1" s="24"/>
+    <row r="495" ht="18.75" customHeight="1" s="24"/>
+    <row r="496" ht="18.75" customHeight="1" s="24"/>
+    <row r="497" ht="18.75" customHeight="1" s="24"/>
+    <row r="498" ht="18.75" customHeight="1" s="24"/>
+    <row r="499" ht="18.75" customHeight="1" s="24"/>
+    <row r="500" ht="18.75" customHeight="1" s="24"/>
+    <row r="501" ht="18.75" customHeight="1" s="24"/>
+    <row r="502" ht="18.75" customHeight="1" s="24"/>
+    <row r="503" ht="18.75" customHeight="1" s="24"/>
+    <row r="504" ht="18.75" customHeight="1" s="24"/>
+    <row r="505" ht="18.75" customHeight="1" s="24"/>
+    <row r="506" ht="18.75" customHeight="1" s="24"/>
+    <row r="507" ht="18.75" customHeight="1" s="24"/>
+    <row r="508" ht="18.75" customHeight="1" s="24"/>
+    <row r="509" ht="18.75" customHeight="1" s="24"/>
+    <row r="510" ht="18.75" customHeight="1" s="24"/>
+    <row r="511" ht="18.75" customHeight="1" s="24"/>
+    <row r="512" ht="18.75" customHeight="1" s="24"/>
+    <row r="513" ht="18.75" customHeight="1" s="24"/>
+    <row r="514" ht="18.75" customHeight="1" s="24"/>
+    <row r="515" ht="18.75" customHeight="1" s="24"/>
+    <row r="516" ht="18.75" customHeight="1" s="24"/>
+    <row r="517" ht="18.75" customHeight="1" s="24"/>
+    <row r="518" ht="18.75" customHeight="1" s="24"/>
+    <row r="519" ht="18.75" customHeight="1" s="24"/>
+    <row r="520" ht="18.75" customHeight="1" s="24"/>
+    <row r="521" ht="18.75" customHeight="1" s="24"/>
+    <row r="522" ht="18.75" customHeight="1" s="24"/>
+    <row r="523" ht="18.75" customHeight="1" s="24"/>
+    <row r="524" ht="18.75" customHeight="1" s="24"/>
+    <row r="525" ht="18.75" customHeight="1" s="24"/>
+    <row r="526" ht="18.75" customHeight="1" s="24"/>
+    <row r="527" ht="18.75" customHeight="1" s="24"/>
+    <row r="528" ht="18.75" customHeight="1" s="24"/>
+    <row r="529" ht="18.75" customHeight="1" s="24"/>
+    <row r="530" ht="18.75" customHeight="1" s="24"/>
+    <row r="531" ht="18.75" customHeight="1" s="24"/>
+    <row r="532" ht="18.75" customHeight="1" s="24"/>
+    <row r="533" ht="18.75" customHeight="1" s="24"/>
+    <row r="534" ht="18.75" customHeight="1" s="24"/>
+    <row r="535" ht="18.75" customHeight="1" s="24"/>
+    <row r="536" ht="18.75" customHeight="1" s="24"/>
+    <row r="537" ht="18.75" customHeight="1" s="24"/>
+    <row r="538" ht="18.75" customHeight="1" s="24"/>
+    <row r="539" ht="18.75" customHeight="1" s="24"/>
+    <row r="540" ht="18.75" customHeight="1" s="24"/>
+    <row r="541" ht="18.75" customHeight="1" s="24"/>
+    <row r="542" ht="18.75" customHeight="1" s="24"/>
+    <row r="543" ht="18.75" customHeight="1" s="24"/>
+    <row r="544" ht="18.75" customHeight="1" s="24"/>
+    <row r="545" ht="18.75" customHeight="1" s="24"/>
+    <row r="546" ht="18.75" customHeight="1" s="24"/>
+    <row r="547" ht="18.75" customHeight="1" s="24"/>
+    <row r="548" ht="18.75" customHeight="1" s="24"/>
+    <row r="549" ht="18.75" customHeight="1" s="24"/>
+    <row r="550" ht="18.75" customHeight="1" s="24"/>
+    <row r="551" ht="18.75" customHeight="1" s="24"/>
+    <row r="552" ht="18.75" customHeight="1" s="24"/>
+    <row r="553" ht="18.75" customHeight="1" s="24"/>
+    <row r="554" ht="18.75" customHeight="1" s="24"/>
+    <row r="555" ht="18.75" customHeight="1" s="24"/>
+    <row r="556" ht="18.75" customHeight="1" s="24"/>
+    <row r="557" ht="18.75" customHeight="1" s="24"/>
+    <row r="558" ht="18.75" customHeight="1" s="24"/>
+    <row r="559" ht="18.75" customHeight="1" s="24"/>
+    <row r="560" ht="18.75" customHeight="1" s="24"/>
+    <row r="561" ht="18.75" customHeight="1" s="24"/>
+    <row r="562" ht="18.75" customHeight="1" s="24"/>
+    <row r="563" ht="18.75" customHeight="1" s="24"/>
+    <row r="564" ht="18.75" customHeight="1" s="24"/>
+    <row r="565" ht="18.75" customHeight="1" s="24"/>
+    <row r="566" ht="18.75" customHeight="1" s="24"/>
+    <row r="567" ht="18.75" customHeight="1" s="24"/>
+    <row r="568" ht="18.75" customHeight="1" s="24"/>
+    <row r="569" ht="18.75" customHeight="1" s="24"/>
+    <row r="570" ht="18.75" customHeight="1" s="24"/>
+    <row r="571" ht="18.75" customHeight="1" s="24"/>
+    <row r="572" ht="18.75" customHeight="1" s="24"/>
+    <row r="573" ht="18.75" customHeight="1" s="24"/>
+    <row r="574" ht="18.75" customHeight="1" s="24"/>
+    <row r="575" ht="18.75" customHeight="1" s="24"/>
+    <row r="576" ht="18.75" customHeight="1" s="24"/>
+    <row r="577" ht="18.75" customHeight="1" s="24"/>
+    <row r="578" ht="18.75" customHeight="1" s="24"/>
+    <row r="579" ht="18.75" customHeight="1" s="24"/>
+    <row r="580" ht="18.75" customHeight="1" s="24"/>
+    <row r="581" ht="18.75" customHeight="1" s="24"/>
+    <row r="582" ht="18.75" customHeight="1" s="24"/>
+    <row r="583" ht="18.75" customHeight="1" s="24"/>
+    <row r="584" ht="18.75" customHeight="1" s="24"/>
+    <row r="585" ht="18.75" customHeight="1" s="24"/>
+    <row r="586" ht="18.75" customHeight="1" s="24"/>
+    <row r="587" ht="18.75" customHeight="1" s="24"/>
+    <row r="588" ht="18.75" customHeight="1" s="24"/>
+    <row r="589" ht="18.75" customHeight="1" s="24"/>
+    <row r="590" ht="18.75" customHeight="1" s="24"/>
+    <row r="591" ht="18.75" customHeight="1" s="24"/>
+    <row r="592" ht="18.75" customHeight="1" s="24"/>
+    <row r="593" ht="18.75" customHeight="1" s="24"/>
+    <row r="594" ht="18.75" customHeight="1" s="24"/>
+    <row r="595" ht="18.75" customHeight="1" s="24"/>
+    <row r="596" ht="18.75" customHeight="1" s="24"/>
+    <row r="597" ht="18.75" customHeight="1" s="24"/>
+    <row r="598" ht="18.75" customHeight="1" s="24"/>
+    <row r="599" ht="18.75" customHeight="1" s="24"/>
+    <row r="600" ht="18.75" customHeight="1" s="24"/>
+    <row r="601" ht="18.75" customHeight="1" s="24"/>
+    <row r="602" ht="18.75" customHeight="1" s="24"/>
+    <row r="603" ht="18.75" customHeight="1" s="24"/>
+    <row r="604" ht="18.75" customHeight="1" s="24"/>
+    <row r="605" ht="18.75" customHeight="1" s="24"/>
+    <row r="606" ht="18.75" customHeight="1" s="24"/>
+    <row r="607" ht="18.75" customHeight="1" s="24"/>
+    <row r="608" ht="18.75" customHeight="1" s="24"/>
+    <row r="609" ht="18.75" customHeight="1" s="24"/>
+    <row r="610" ht="18.75" customHeight="1" s="24"/>
+    <row r="611" ht="18.75" customHeight="1" s="24"/>
+    <row r="612" ht="18.75" customHeight="1" s="24"/>
+    <row r="613" ht="18.75" customHeight="1" s="24"/>
+    <row r="614" ht="18.75" customHeight="1" s="24"/>
+    <row r="615" ht="18.75" customHeight="1" s="24"/>
+    <row r="616" ht="18.75" customHeight="1" s="24"/>
+    <row r="617" ht="18.75" customHeight="1" s="24"/>
+    <row r="618" ht="18.75" customHeight="1" s="24"/>
+    <row r="619" ht="18.75" customHeight="1" s="24"/>
+    <row r="620" ht="18.75" customHeight="1" s="24"/>
+    <row r="621" ht="18.75" customHeight="1" s="24"/>
+    <row r="622" ht="18.75" customHeight="1" s="24"/>
+    <row r="623" ht="18.75" customHeight="1" s="24"/>
+    <row r="624" ht="18.75" customHeight="1" s="24"/>
+    <row r="625" ht="18.75" customHeight="1" s="24"/>
+    <row r="626" ht="18.75" customHeight="1" s="24"/>
+    <row r="627" ht="18.75" customHeight="1" s="24"/>
+    <row r="628" ht="18.75" customHeight="1" s="24"/>
+    <row r="629" ht="18.75" customHeight="1" s="24"/>
+    <row r="630" ht="18.75" customHeight="1" s="24"/>
+    <row r="631" ht="18.75" customHeight="1" s="24"/>
+    <row r="632" ht="18.75" customHeight="1" s="24"/>
+    <row r="633" ht="18.75" customHeight="1" s="24"/>
+    <row r="634" ht="18.75" customHeight="1" s="24"/>
+    <row r="635" ht="18.75" customHeight="1" s="24"/>
+    <row r="636" ht="18.75" customHeight="1" s="24"/>
+    <row r="637" ht="18.75" customHeight="1" s="24"/>
+    <row r="638" ht="18.75" customHeight="1" s="24"/>
+    <row r="639" ht="18.75" customHeight="1" s="24"/>
+    <row r="640" ht="18.75" customHeight="1" s="24"/>
+    <row r="641" ht="18.75" customHeight="1" s="24"/>
+    <row r="642" ht="18.75" customHeight="1" s="24"/>
+    <row r="643" ht="18.75" customHeight="1" s="24"/>
+    <row r="644" ht="18.75" customHeight="1" s="24"/>
+    <row r="645" ht="18.75" customHeight="1" s="24"/>
+    <row r="646" ht="18.75" customHeight="1" s="24"/>
+    <row r="647" ht="18.75" customHeight="1" s="24"/>
+    <row r="648" ht="18.75" customHeight="1" s="24"/>
+    <row r="649" ht="18.75" customHeight="1" s="24"/>
+    <row r="650" ht="18.75" customHeight="1" s="24"/>
+    <row r="651" ht="18.75" customHeight="1" s="24"/>
+    <row r="652" ht="18.75" customHeight="1" s="24"/>
+    <row r="653" ht="18.75" customHeight="1" s="24"/>
+    <row r="654" ht="18.75" customHeight="1" s="24"/>
+    <row r="655" ht="18.75" customHeight="1" s="24"/>
+    <row r="656" ht="18.75" customHeight="1" s="24"/>
+    <row r="657" ht="18.75" customHeight="1" s="24"/>
+    <row r="658" ht="18.75" customHeight="1" s="24"/>
+    <row r="659" ht="18.75" customHeight="1" s="24"/>
+    <row r="660" ht="18.75" customHeight="1" s="24"/>
+    <row r="661" ht="18.75" customHeight="1" s="24"/>
+    <row r="662" ht="18.75" customHeight="1" s="24"/>
+    <row r="663" ht="18.75" customHeight="1" s="24"/>
+    <row r="664" ht="18.75" customHeight="1" s="24"/>
+    <row r="665" ht="18.75" customHeight="1" s="24"/>
+    <row r="666" ht="18.75" customHeight="1" s="24"/>
+    <row r="667" ht="18.75" customHeight="1" s="24"/>
+    <row r="668" ht="18.75" customHeight="1" s="24"/>
+    <row r="669" ht="18.75" customHeight="1" s="24"/>
+    <row r="670" ht="18.75" customHeight="1" s="24"/>
+    <row r="671" ht="18.75" customHeight="1" s="24"/>
+    <row r="672" ht="18.75" customHeight="1" s="24"/>
+    <row r="673" ht="18.75" customHeight="1" s="24"/>
+    <row r="674" ht="18.75" customHeight="1" s="24"/>
+    <row r="675" ht="18.75" customHeight="1" s="24"/>
+    <row r="676" ht="18.75" customHeight="1" s="24"/>
+    <row r="677" ht="18.75" customHeight="1" s="24"/>
+    <row r="678" ht="18.75" customHeight="1" s="24"/>
+    <row r="679" ht="18.75" customHeight="1" s="24"/>
+    <row r="680" ht="18.75" customHeight="1" s="24"/>
+    <row r="681" ht="18.75" customHeight="1" s="24"/>
+    <row r="682" ht="18.75" customHeight="1" s="24"/>
+    <row r="683" ht="18.75" customHeight="1" s="24"/>
+    <row r="684" ht="18.75" customHeight="1" s="24"/>
+    <row r="685" ht="18.75" customHeight="1" s="24"/>
+    <row r="686" ht="18.75" customHeight="1" s="24"/>
+    <row r="687" ht="18.75" customHeight="1" s="24"/>
+    <row r="688" ht="18.75" customHeight="1" s="24"/>
+    <row r="689" ht="18.75" customHeight="1" s="24"/>
+    <row r="690" ht="18.75" customHeight="1" s="24"/>
+    <row r="691" ht="18.75" customHeight="1" s="24"/>
+    <row r="692" ht="18.75" customHeight="1" s="24"/>
+    <row r="693" ht="18.75" customHeight="1" s="24"/>
+    <row r="694" ht="18.75" customHeight="1" s="24"/>
+    <row r="695" ht="18.75" customHeight="1" s="24"/>
+    <row r="696" ht="18.75" customHeight="1" s="24"/>
+    <row r="697" ht="18.75" customHeight="1" s="24"/>
+    <row r="698" ht="18.75" customHeight="1" s="24"/>
+    <row r="699" ht="18.75" customHeight="1" s="24"/>
+    <row r="700" ht="18.75" customHeight="1" s="24"/>
+    <row r="701" ht="18.75" customHeight="1" s="24"/>
+    <row r="702" ht="18.75" customHeight="1" s="24"/>
+    <row r="703" ht="18.75" customHeight="1" s="24"/>
+    <row r="704" ht="18.75" customHeight="1" s="24"/>
+    <row r="705" ht="18.75" customHeight="1" s="24"/>
+    <row r="706" ht="18.75" customHeight="1" s="24"/>
+    <row r="707" ht="18.75" customHeight="1" s="24"/>
+    <row r="708" ht="18.75" customHeight="1" s="24"/>
+    <row r="709" ht="18.75" customHeight="1" s="24"/>
+    <row r="710" ht="18.75" customHeight="1" s="24"/>
+    <row r="711" ht="18.75" customHeight="1" s="24"/>
+    <row r="712" ht="18.75" customHeight="1" s="24"/>
+    <row r="713" ht="18.75" customHeight="1" s="24"/>
+    <row r="714" ht="18.75" customHeight="1" s="24"/>
+    <row r="715" ht="18.75" customHeight="1" s="24"/>
+    <row r="716" ht="18.75" customHeight="1" s="24"/>
+    <row r="717" ht="18.75" customHeight="1" s="24"/>
+    <row r="718" ht="18.75" customHeight="1" s="24"/>
+    <row r="719" ht="18.75" customHeight="1" s="24"/>
+    <row r="720" ht="18.75" customHeight="1" s="24"/>
+    <row r="721" ht="18.75" customHeight="1" s="24"/>
+    <row r="722" ht="18.75" customHeight="1" s="24"/>
+    <row r="723" ht="18.75" customHeight="1" s="24"/>
+    <row r="724" ht="18.75" customHeight="1" s="24"/>
+    <row r="725" ht="18.75" customHeight="1" s="24"/>
+    <row r="726" ht="18.75" customHeight="1" s="24"/>
+    <row r="727" ht="18.75" customHeight="1" s="24"/>
+    <row r="728" ht="18.75" customHeight="1" s="24"/>
+    <row r="729" ht="18.75" customHeight="1" s="24"/>
+    <row r="730" ht="18.75" customHeight="1" s="24"/>
+    <row r="731" ht="18.75" customHeight="1" s="24"/>
+    <row r="732" ht="18.75" customHeight="1" s="24"/>
+    <row r="733" ht="18.75" customHeight="1" s="24"/>
+    <row r="734" ht="18.75" customHeight="1" s="24"/>
+    <row r="735" ht="18.75" customHeight="1" s="24"/>
+    <row r="736" ht="18.75" customHeight="1" s="24"/>
+    <row r="737" ht="18.75" customHeight="1" s="24"/>
+    <row r="738" ht="18.75" customHeight="1" s="24"/>
+    <row r="739" ht="18.75" customHeight="1" s="24"/>
+    <row r="740" ht="18.75" customHeight="1" s="24"/>
+    <row r="741" ht="18.75" customHeight="1" s="24"/>
+    <row r="742" ht="18.75" customHeight="1" s="24"/>
+    <row r="743" ht="18.75" customHeight="1" s="24"/>
+    <row r="744" ht="18.75" customHeight="1" s="24"/>
+    <row r="745" ht="18.75" customHeight="1" s="24"/>
+    <row r="746" ht="18.75" customHeight="1" s="24"/>
+    <row r="747" ht="18.75" customHeight="1" s="24"/>
+    <row r="748" ht="18.75" customHeight="1" s="24"/>
+    <row r="749" ht="18.75" customHeight="1" s="24"/>
+    <row r="750" ht="18.75" customHeight="1" s="24"/>
+    <row r="751" ht="18.75" customHeight="1" s="24"/>
+    <row r="752" ht="18.75" customHeight="1" s="24"/>
+    <row r="753" ht="18.75" customHeight="1" s="24"/>
+    <row r="754" ht="18.75" customHeight="1" s="24"/>
+    <row r="755" ht="18.75" customHeight="1" s="24"/>
+    <row r="756" ht="18.75" customHeight="1" s="24"/>
+    <row r="757" ht="18.75" customHeight="1" s="24"/>
+    <row r="758" ht="18.75" customHeight="1" s="24"/>
+    <row r="759" ht="18.75" customHeight="1" s="24"/>
+    <row r="760" ht="18.75" customHeight="1" s="24"/>
+    <row r="761" ht="18.75" customHeight="1" s="24"/>
+    <row r="762" ht="18.75" customHeight="1" s="24"/>
+    <row r="763" ht="18.75" customHeight="1" s="24"/>
+    <row r="764" ht="18.75" customHeight="1" s="24"/>
+    <row r="765" ht="18.75" customHeight="1" s="24"/>
+    <row r="766" ht="18.75" customHeight="1" s="24"/>
+    <row r="767" ht="18.75" customHeight="1" s="24"/>
+    <row r="768" ht="18.75" customHeight="1" s="24"/>
+    <row r="769" ht="18.75" customHeight="1" s="24"/>
+    <row r="770" ht="18.75" customHeight="1" s="24"/>
+    <row r="771" ht="18.75" customHeight="1" s="24"/>
+    <row r="772" ht="18.75" customHeight="1" s="24"/>
+    <row r="773" ht="18.75" customHeight="1" s="24"/>
+    <row r="774" ht="18.75" customHeight="1" s="24"/>
+    <row r="775" ht="18.75" customHeight="1" s="24"/>
+    <row r="776" ht="18.75" customHeight="1" s="24"/>
+    <row r="777" ht="18.75" customHeight="1" s="24"/>
+    <row r="778" ht="18.75" customHeight="1" s="24"/>
+    <row r="779" ht="18.75" customHeight="1" s="24"/>
+    <row r="780" ht="18.75" customHeight="1" s="24"/>
+    <row r="781" ht="18.75" customHeight="1" s="24"/>
+    <row r="782" ht="18.75" customHeight="1" s="24"/>
+    <row r="783" ht="18.75" customHeight="1" s="24"/>
+    <row r="784" ht="18.75" customHeight="1" s="24"/>
+    <row r="785" ht="18.75" customHeight="1" s="24"/>
+    <row r="786" ht="18.75" customHeight="1" s="24"/>
+    <row r="787" ht="18.75" customHeight="1" s="24"/>
+    <row r="788" ht="18.75" customHeight="1" s="24"/>
+    <row r="789" ht="18.75" customHeight="1" s="24"/>
+    <row r="790" ht="18.75" customHeight="1" s="24"/>
+    <row r="791" ht="18.75" customHeight="1" s="24"/>
+    <row r="792" ht="18.75" customHeight="1" s="24"/>
+    <row r="793" ht="18.75" customHeight="1" s="24"/>
+    <row r="794" ht="18.75" customHeight="1" s="24"/>
+    <row r="795" ht="18.75" customHeight="1" s="24"/>
+    <row r="796" ht="18.75" customHeight="1" s="24"/>
+    <row r="797" ht="18.75" customHeight="1" s="24"/>
+    <row r="798" ht="18.75" customHeight="1" s="24"/>
+    <row r="799" ht="18.75" customHeight="1" s="24"/>
+    <row r="800" ht="18.75" customHeight="1" s="24"/>
+    <row r="801" ht="18.75" customHeight="1" s="24"/>
+    <row r="802" ht="18.75" customHeight="1" s="24"/>
+    <row r="803" ht="18.75" customHeight="1" s="24"/>
+    <row r="804" ht="18.75" customHeight="1" s="24"/>
+    <row r="805" ht="18.75" customHeight="1" s="24"/>
+    <row r="806" ht="18.75" customHeight="1" s="24"/>
+    <row r="807" ht="18.75" customHeight="1" s="24"/>
+    <row r="808" ht="18.75" customHeight="1" s="24"/>
+    <row r="809" ht="18.75" customHeight="1" s="24"/>
+    <row r="810" ht="18.75" customHeight="1" s="24"/>
+    <row r="811" ht="18.75" customHeight="1" s="24"/>
+    <row r="812" ht="18.75" customHeight="1" s="24"/>
+    <row r="813" ht="18.75" customHeight="1" s="24"/>
+    <row r="814" ht="18.75" customHeight="1" s="24"/>
+    <row r="815" ht="18.75" customHeight="1" s="24"/>
+    <row r="816" ht="18.75" customHeight="1" s="24"/>
+    <row r="817" ht="18.75" customHeight="1" s="24"/>
+    <row r="818" ht="18.75" customHeight="1" s="24"/>
+    <row r="819" ht="18.75" customHeight="1" s="24"/>
+    <row r="820" ht="18.75" customHeight="1" s="24"/>
+    <row r="821" ht="18.75" customHeight="1" s="24"/>
+    <row r="822" ht="18.75" customHeight="1" s="24"/>
+    <row r="823" ht="18.75" customHeight="1" s="24"/>
+    <row r="824" ht="18.75" customHeight="1" s="24"/>
+    <row r="825" ht="18.75" customHeight="1" s="24"/>
+    <row r="826" ht="18.75" customHeight="1" s="24"/>
+    <row r="827" ht="18.75" customHeight="1" s="24"/>
+    <row r="828" ht="18.75" customHeight="1" s="24"/>
+    <row r="829" ht="18.75" customHeight="1" s="24"/>
+    <row r="830" ht="18.75" customHeight="1" s="24"/>
+    <row r="831" ht="18.75" customHeight="1" s="24"/>
+    <row r="832" ht="18.75" customHeight="1" s="24"/>
+    <row r="833" ht="18.75" customHeight="1" s="24"/>
+    <row r="834" ht="18.75" customHeight="1" s="24"/>
+    <row r="835" ht="18.75" customHeight="1" s="24"/>
+    <row r="836" ht="18.75" customHeight="1" s="24"/>
+    <row r="837" ht="18.75" customHeight="1" s="24"/>
+    <row r="838" ht="18.75" customHeight="1" s="24"/>
+    <row r="839" ht="18.75" customHeight="1" s="24"/>
+    <row r="840" ht="18.75" customHeight="1" s="24"/>
+    <row r="841" ht="18.75" customHeight="1" s="24"/>
+    <row r="842" ht="18.75" customHeight="1" s="24"/>
+    <row r="843" ht="18.75" customHeight="1" s="24"/>
+    <row r="844" ht="18.75" customHeight="1" s="24"/>
+    <row r="845" ht="18.75" customHeight="1" s="24"/>
+    <row r="846" ht="18.75" customHeight="1" s="24"/>
+    <row r="847" ht="18.75" customHeight="1" s="24"/>
+    <row r="848" ht="18.75" customHeight="1" s="24"/>
+    <row r="849" ht="18.75" customHeight="1" s="24"/>
+    <row r="850" ht="18.75" customHeight="1" s="24"/>
+    <row r="851" ht="18.75" customHeight="1" s="24"/>
+    <row r="852" ht="18.75" customHeight="1" s="24"/>
+    <row r="853" ht="18.75" customHeight="1" s="24"/>
+    <row r="854" ht="18.75" customHeight="1" s="24"/>
+    <row r="855" ht="18.75" customHeight="1" s="24"/>
+    <row r="856" ht="18.75" customHeight="1" s="24"/>
+    <row r="857" ht="18.75" customHeight="1" s="24"/>
+    <row r="858" ht="18.75" customHeight="1" s="24"/>
+    <row r="859" ht="18.75" customHeight="1" s="24"/>
+    <row r="860" ht="18.75" customHeight="1" s="24"/>
+    <row r="861" ht="18.75" customHeight="1" s="24"/>
+    <row r="862" ht="18.75" customHeight="1" s="24"/>
+    <row r="863" ht="18.75" customHeight="1" s="24"/>
+    <row r="864" ht="18.75" customHeight="1" s="24"/>
+    <row r="865" ht="18.75" customHeight="1" s="24"/>
+    <row r="866" ht="18.75" customHeight="1" s="24"/>
+    <row r="867" ht="18.75" customHeight="1" s="24"/>
+    <row r="868" ht="18.75" customHeight="1" s="24"/>
+    <row r="869" ht="18.75" customHeight="1" s="24"/>
+    <row r="870" ht="18.75" customHeight="1" s="24"/>
+    <row r="871" ht="18.75" customHeight="1" s="24"/>
+    <row r="872" ht="18.75" customHeight="1" s="24"/>
+    <row r="873" ht="18.75" customHeight="1" s="24"/>
+    <row r="874" ht="18.75" customHeight="1" s="24"/>
+    <row r="875" ht="18.75" customHeight="1" s="24"/>
+    <row r="876" ht="18.75" customHeight="1" s="24"/>
+    <row r="877" ht="18.75" customHeight="1" s="24"/>
+    <row r="878" ht="18.75" customHeight="1" s="24"/>
+    <row r="879" ht="18.75" customHeight="1" s="24"/>
+    <row r="880" ht="18.75" customHeight="1" s="24"/>
+    <row r="881" ht="18.75" customHeight="1" s="24"/>
+    <row r="882" ht="18.75" customHeight="1" s="24"/>
+    <row r="883" ht="18.75" customHeight="1" s="24"/>
+    <row r="884" ht="18.75" customHeight="1" s="24"/>
+    <row r="885" ht="18.75" customHeight="1" s="24"/>
+    <row r="886" ht="18.75" customHeight="1" s="24"/>
+    <row r="887" ht="18.75" customHeight="1" s="24"/>
+    <row r="888" ht="18.75" customHeight="1" s="24"/>
+    <row r="889" ht="18.75" customHeight="1" s="24"/>
+    <row r="890" ht="18.75" customHeight="1" s="24"/>
+    <row r="891" ht="18.75" customHeight="1" s="24"/>
+    <row r="892" ht="18.75" customHeight="1" s="24"/>
+    <row r="893" ht="18.75" customHeight="1" s="24"/>
+    <row r="894" ht="18.75" customHeight="1" s="24"/>
+    <row r="895" ht="18.75" customHeight="1" s="24"/>
+    <row r="896" ht="18.75" customHeight="1" s="24"/>
+    <row r="897" ht="18.75" customHeight="1" s="24"/>
+    <row r="898" ht="18.75" customHeight="1" s="24"/>
+    <row r="899" ht="18.75" customHeight="1" s="24"/>
+    <row r="900" ht="18.75" customHeight="1" s="24"/>
+    <row r="901" ht="18.75" customHeight="1" s="24"/>
+    <row r="902" ht="18.75" customHeight="1" s="24"/>
+    <row r="903" ht="18.75" customHeight="1" s="24"/>
+    <row r="904" ht="18.75" customHeight="1" s="24"/>
+    <row r="905" ht="18.75" customHeight="1" s="24"/>
+    <row r="906" ht="18.75" customHeight="1" s="24"/>
+    <row r="907" ht="18.75" customHeight="1" s="24"/>
+    <row r="908" ht="18.75" customHeight="1" s="24"/>
+    <row r="909" ht="18.75" customHeight="1" s="24"/>
+    <row r="910" ht="18.75" customHeight="1" s="24"/>
+    <row r="911" ht="18.75" customHeight="1" s="24"/>
+    <row r="912" ht="18.75" customHeight="1" s="24"/>
+    <row r="913" ht="18.75" customHeight="1" s="24"/>
+    <row r="914" ht="18.75" customHeight="1" s="24"/>
+    <row r="915" ht="18.75" customHeight="1" s="24"/>
+    <row r="916" ht="18.75" customHeight="1" s="24"/>
+    <row r="917" ht="18.75" customHeight="1" s="24"/>
+    <row r="918" ht="18.75" customHeight="1" s="24"/>
+    <row r="919" ht="18.75" customHeight="1" s="24"/>
+    <row r="920" ht="18.75" customHeight="1" s="24"/>
+    <row r="921" ht="18.75" customHeight="1" s="24"/>
+    <row r="922" ht="18.75" customHeight="1" s="24"/>
+    <row r="923" ht="18.75" customHeight="1" s="24"/>
+    <row r="924" ht="18.75" customHeight="1" s="24"/>
+    <row r="925" ht="18.75" customHeight="1" s="24"/>
+    <row r="926" ht="18.75" customHeight="1" s="24"/>
+    <row r="927" ht="18.75" customHeight="1" s="24"/>
+    <row r="928" ht="18.75" customHeight="1" s="24"/>
+    <row r="929" ht="18.75" customHeight="1" s="24"/>
+    <row r="930" ht="18.75" customHeight="1" s="24"/>
+    <row r="931" ht="18.75" customHeight="1" s="24"/>
+    <row r="932" ht="18.75" customHeight="1" s="24"/>
+    <row r="933" ht="18.75" customHeight="1" s="24"/>
+    <row r="934" ht="18.75" customHeight="1" s="24"/>
+    <row r="935" ht="18.75" customHeight="1" s="24"/>
+    <row r="936" ht="18.75" customHeight="1" s="24"/>
+    <row r="937" ht="18.75" customHeight="1" s="24"/>
+    <row r="938" ht="18.75" customHeight="1" s="24"/>
+    <row r="939" ht="18.75" customHeight="1" s="24"/>
+    <row r="940" ht="18.75" customHeight="1" s="24"/>
+    <row r="941" ht="18.75" customHeight="1" s="24"/>
+    <row r="942" ht="18.75" customHeight="1" s="24"/>
+    <row r="943" ht="18.75" customHeight="1" s="24"/>
+    <row r="944" ht="18.75" customHeight="1" s="24"/>
+    <row r="945" ht="18.75" customHeight="1" s="24"/>
+    <row r="946" ht="18.75" customHeight="1" s="24"/>
+    <row r="947" ht="18.75" customHeight="1" s="24"/>
+    <row r="948" ht="18.75" customHeight="1" s="24"/>
+    <row r="949" ht="18.75" customHeight="1" s="24"/>
+    <row r="950" ht="18.75" customHeight="1" s="24"/>
+    <row r="951" ht="18.75" customHeight="1" s="24"/>
+    <row r="952" ht="18.75" customHeight="1" s="24"/>
+    <row r="953" ht="18.75" customHeight="1" s="24"/>
+    <row r="954" ht="18.75" customHeight="1" s="24"/>
+    <row r="955" ht="18.75" customHeight="1" s="24"/>
+    <row r="956" ht="18.75" customHeight="1" s="24"/>
+    <row r="957" ht="18.75" customHeight="1" s="24"/>
+    <row r="958" ht="18.75" customHeight="1" s="24"/>
+    <row r="959" ht="18.75" customHeight="1" s="24"/>
+    <row r="960" ht="18.75" customHeight="1" s="24"/>
+    <row r="961" ht="18.75" customHeight="1" s="24"/>
+    <row r="962" ht="18.75" customHeight="1" s="24"/>
+    <row r="963" ht="18.75" customHeight="1" s="24"/>
+    <row r="964" ht="18.75" customHeight="1" s="24"/>
+    <row r="965" ht="18.75" customHeight="1" s="24"/>
+    <row r="966" ht="18.75" customHeight="1" s="24"/>
+    <row r="967" ht="18.75" customHeight="1" s="24"/>
+    <row r="968" ht="18.75" customHeight="1" s="24"/>
+    <row r="969" ht="18.75" customHeight="1" s="24"/>
+    <row r="970" ht="18.75" customHeight="1" s="24"/>
+    <row r="971" ht="18.75" customHeight="1" s="24"/>
+    <row r="972" ht="18.75" customHeight="1" s="24"/>
+    <row r="973" ht="18.75" customHeight="1" s="24"/>
+    <row r="974" ht="18.75" customHeight="1" s="24"/>
+    <row r="975" ht="18.75" customHeight="1" s="24"/>
+    <row r="976" ht="18.75" customHeight="1" s="24"/>
+    <row r="977" ht="18.75" customHeight="1" s="24"/>
+    <row r="978" ht="18.75" customHeight="1" s="24"/>
+    <row r="979" ht="18.75" customHeight="1" s="24"/>
+    <row r="980" ht="18.75" customHeight="1" s="24"/>
+    <row r="981" ht="18.75" customHeight="1" s="24"/>
+    <row r="982" ht="18.75" customHeight="1" s="24"/>
+    <row r="983" ht="18.75" customHeight="1" s="24"/>
+    <row r="984" ht="18.75" customHeight="1" s="24"/>
+    <row r="985" ht="18.75" customHeight="1" s="24"/>
+    <row r="986" ht="18.75" customHeight="1" s="24"/>
+    <row r="987" ht="18.75" customHeight="1" s="24"/>
+    <row r="988" ht="18.75" customHeight="1" s="24"/>
+    <row r="989" ht="18.75" customHeight="1" s="24"/>
+    <row r="990" ht="18.75" customHeight="1" s="24"/>
+    <row r="991" ht="18.75" customHeight="1" s="24"/>
+    <row r="992" ht="18.75" customHeight="1" s="24"/>
+    <row r="993" ht="18.75" customHeight="1" s="24"/>
+    <row r="994" ht="18.75" customHeight="1" s="24"/>
+    <row r="995" ht="18.75" customHeight="1" s="24"/>
+    <row r="996" ht="18.75" customHeight="1" s="24"/>
+    <row r="997" ht="18.75" customHeight="1" s="24"/>
+    <row r="998" ht="18.75" customHeight="1" s="24"/>
+    <row r="999" ht="18.75" customHeight="1" s="24"/>
+    <row r="1000" ht="18.75" customHeight="1" s="24"/>
+    <row r="1001" ht="18.75" customHeight="1" s="24"/>
+    <row r="1002" ht="18.75" customHeight="1" s="24"/>
+    <row r="1003" ht="18.75" customHeight="1" s="24"/>
+    <row r="1004" ht="18.75" customHeight="1" s="24"/>
+    <row r="1005" ht="18.75" customHeight="1" s="24"/>
+    <row r="1006" ht="18.75" customHeight="1" s="24"/>
+    <row r="1007" ht="18.75" customHeight="1" s="24"/>
+    <row r="1008" ht="18.75" customHeight="1" s="24"/>
+    <row r="1009" ht="18.75" customHeight="1" s="24"/>
+    <row r="1010" ht="18.75" customHeight="1" s="24"/>
+    <row r="1011" ht="18.75" customHeight="1" s="24"/>
+    <row r="1012" ht="18.75" customHeight="1" s="24"/>
+    <row r="1013" ht="18.75" customHeight="1" s="24"/>
+    <row r="1014" ht="18.75" customHeight="1" s="24"/>
+    <row r="1015" ht="18.75" customHeight="1" s="24"/>
+    <row r="1016" ht="18.75" customHeight="1" s="24"/>
+    <row r="1017" ht="18.75" customHeight="1" s="24"/>
+    <row r="1018" ht="18.75" customHeight="1" s="24"/>
+    <row r="1019" ht="18.75" customHeight="1" s="24"/>
+    <row r="1020" ht="18.75" customHeight="1" s="24"/>
+    <row r="1021" ht="18.75" customHeight="1" s="24"/>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A44:A52"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="A35:A43"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="E8:E16"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="C17:C25"/>
+    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="D26:D34"/>
+    <mergeCell ref="B35:B43"/>
+    <mergeCell ref="C35:C43"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.433070866141732" right="0.196850393700787" top="0.196850393700787" bottom="0.393700787401575" header="0" footer="0"/>
+  <pageSetup orientation="landscape" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Z52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="26.375" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col width="4.75" customWidth="1" style="24" min="1" max="1"/>
+    <col width="30.625" customWidth="1" style="24" min="2" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1" s="24">
+      <c r="A1" s="23" t="inlineStr">
+        <is>
+          <t>UNIVERSITE ABDELHAMID IBN BADIS</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="n"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" s="24">
+      <c r="A2" s="25" t="inlineStr">
+        <is>
+          <t>FACULTE DES SCIENCES EXACTES ET DE L'INFORMATIQUE</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="24">
+      <c r="A3" s="26" t="inlineStr">
+        <is>
+          <t>Département de Mathématiques et Informatique</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" s="24">
+      <c r="A4" s="5" t="n"/>
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="6" t="n"/>
+      <c r="F4" s="6" t="n"/>
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="4" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" s="24">
+      <c r="A5" s="23" t="inlineStr">
+        <is>
+          <t>Emploi du M1-AF</t>
+        </is>
+      </c>
+      <c r="H5" s="7" t="n"/>
+    </row>
+    <row r="6" ht="27" customHeight="1" s="24">
+      <c r="A6" s="8" t="n"/>
+      <c r="B6" s="23" t="n"/>
+      <c r="C6" s="23" t="n"/>
+      <c r="D6" s="23" t="n"/>
+      <c r="E6" s="23" t="n"/>
+      <c r="F6" s="23" t="n"/>
+      <c r="G6" s="23" t="n"/>
+      <c r="H6" s="7" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" s="24">
+      <c r="A7" s="9" t="n"/>
+      <c r="B7" s="12" t="inlineStr">
+        <is>
+          <t>8h 30 - 09h 30</t>
+        </is>
+      </c>
+      <c r="C7" s="12" t="inlineStr">
+        <is>
+          <t>9h  30 - 10h 30</t>
+        </is>
+      </c>
+      <c r="D7" s="12" t="inlineStr">
+        <is>
+          <t>10h 30 - 11h 30</t>
+        </is>
+      </c>
+      <c r="E7" s="12" t="inlineStr">
+        <is>
+          <t>11h 30 - 12h 30</t>
+        </is>
+      </c>
+      <c r="F7" s="12" t="inlineStr">
+        <is>
+          <t>12h 30 - 13h 30</t>
+        </is>
+      </c>
+      <c r="G7" s="13" t="inlineStr">
+        <is>
+          <t>13h30-14h30</t>
+        </is>
+      </c>
+      <c r="H7" s="11" t="inlineStr">
+        <is>
+          <t>14h30-15h30</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="21.75" customHeight="1" s="24">
+      <c r="A8" s="28" t="inlineStr">
+        <is>
+          <t>Dimanche</t>
+        </is>
+      </c>
+      <c r="B8" s="29" t="inlineStr">
+        <is>
+          <t>AC2, COUR/ section 1, C2, M. BELAIDI Benharrat</t>
+        </is>
+      </c>
+      <c r="C8" s="17" t="inlineStr">
+        <is>
+          <t>AC2, TD/ G1, C4, M. BELAIDI Benharrat</t>
+        </is>
+      </c>
+      <c r="D8" s="17" t="inlineStr">
+        <is>
+          <t>AC2, TD/ G1, S7, M. BELAIDI Benharrat</t>
+        </is>
+      </c>
+      <c r="E8" s="29" t="inlineStr">
+        <is>
+          <t>TO2, COUR/ section 1, S6, M. B. BENDOUKHA</t>
+        </is>
+      </c>
+      <c r="F8" s="17" t="inlineStr">
+        <is>
+          <t>TO2, TD/ G1, S6, M. B. BENDOUKHA</t>
+        </is>
+      </c>
+      <c r="G8" s="17" t="inlineStr">
+        <is>
+          <t>GéoDiff2, TD/ G1, S3, M. BELARBI Lakehal</t>
+        </is>
+      </c>
+      <c r="H8" s="17" t="inlineStr">
+        <is>
+          <t>GéoDiff2, TD/ G1, S3, M. BELARBI Lakehal</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="21.75" customHeight="1" s="24">
+      <c r="A9" s="30" t="n"/>
+      <c r="B9" s="31" t="n"/>
+      <c r="C9" s="27" t="n"/>
+      <c r="D9" s="27" t="n"/>
+      <c r="E9" s="31" t="n"/>
+      <c r="F9" s="27" t="n"/>
+      <c r="G9" s="27" t="n"/>
+      <c r="H9" s="27" t="n"/>
+    </row>
+    <row r="10" ht="21.75" customHeight="1" s="24">
+      <c r="A10" s="30" t="n"/>
+      <c r="B10" s="31" t="n"/>
+      <c r="C10" s="27" t="n"/>
+      <c r="D10" s="27" t="n"/>
+      <c r="E10" s="31" t="n"/>
+      <c r="F10" s="27" t="n"/>
+      <c r="G10" s="27" t="n"/>
+      <c r="H10" s="27" t="n"/>
+    </row>
+    <row r="11" ht="21.75" customHeight="1" s="24">
+      <c r="A11" s="30" t="n"/>
+      <c r="B11" s="31" t="n"/>
+      <c r="C11" s="27" t="n"/>
+      <c r="D11" s="27" t="n"/>
+      <c r="E11" s="31" t="n"/>
+      <c r="F11" s="27" t="n"/>
+      <c r="G11" s="27" t="n"/>
+      <c r="H11" s="27" t="n"/>
+    </row>
+    <row r="12" ht="21.75" customHeight="1" s="24">
+      <c r="A12" s="30" t="n"/>
+      <c r="B12" s="31" t="n"/>
+      <c r="C12" s="27" t="n"/>
+      <c r="D12" s="27" t="n"/>
+      <c r="E12" s="31" t="n"/>
+      <c r="F12" s="27" t="n"/>
+      <c r="G12" s="27" t="n"/>
+      <c r="H12" s="27" t="n"/>
+    </row>
+    <row r="13" ht="21.75" customHeight="1" s="24">
+      <c r="A13" s="30" t="n"/>
+      <c r="B13" s="31" t="n"/>
+      <c r="C13" s="27" t="n"/>
+      <c r="D13" s="27" t="n"/>
+      <c r="E13" s="31" t="n"/>
+      <c r="F13" s="27" t="n"/>
+      <c r="G13" s="27" t="n"/>
+      <c r="H13" s="27" t="n"/>
+    </row>
+    <row r="14" ht="21.75" customHeight="1" s="24">
+      <c r="A14" s="30" t="n"/>
+      <c r="B14" s="31" t="n"/>
+      <c r="C14" s="27" t="n"/>
+      <c r="D14" s="27" t="n"/>
+      <c r="E14" s="31" t="n"/>
+      <c r="F14" s="27" t="n"/>
+      <c r="G14" s="27" t="n"/>
+      <c r="H14" s="27" t="n"/>
+    </row>
+    <row r="15" ht="21.75" customHeight="1" s="24">
+      <c r="A15" s="30" t="n"/>
+      <c r="B15" s="31" t="n"/>
+      <c r="C15" s="27" t="n"/>
+      <c r="D15" s="27" t="n"/>
+      <c r="E15" s="31" t="n"/>
+      <c r="F15" s="27" t="n"/>
+      <c r="G15" s="27" t="n"/>
+      <c r="H15" s="27" t="n"/>
+    </row>
+    <row r="16" ht="21.75" customHeight="1" s="24">
+      <c r="A16" s="32" t="n"/>
+      <c r="B16" s="33" t="n"/>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="33" t="n"/>
+      <c r="F16" s="16" t="n"/>
+      <c r="G16" s="16" t="n"/>
+      <c r="H16" s="16" t="n"/>
+    </row>
+    <row r="17" ht="21.75" customHeight="1" s="24">
+      <c r="A17" s="28" t="inlineStr">
+        <is>
+          <t>Lundi</t>
+        </is>
+      </c>
+      <c r="B17" s="29" t="inlineStr">
+        <is>
+          <t>GéoDiff2, COUR/ section 1, C3, M. BELARBI Lakehal</t>
+        </is>
+      </c>
+      <c r="C17" s="29" t="inlineStr">
+        <is>
+          <t>Dis2, COUR/ section 1, C2, M. BOUZIT Hamid</t>
+        </is>
+      </c>
+      <c r="D17" s="17" t="inlineStr">
+        <is>
+          <t>Dis2, TD/ G1, S1, M. BOUZIT Hamid</t>
+        </is>
+      </c>
+      <c r="E17" s="17" t="inlineStr">
+        <is>
+          <t>EDP2, TD/ G1, C2, M. Andasmas M</t>
+        </is>
+      </c>
+      <c r="F17" s="17" t="inlineStr">
+        <is>
+          <t>EDP2, TD/ G1, S1, M. Andasmas M</t>
+        </is>
+      </c>
+      <c r="G17" s="17" t="inlineStr">
+        <is>
+          <t>STAT2, TD/ G1, S13, Mlle Dj.BENSIKADDOUR</t>
+        </is>
+      </c>
+      <c r="H17" s="17" t="inlineStr">
+        <is>
+          <t>SEMIGROUP, TD/ G1, S12, Mlle Medeghri Ahmed</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="21.75" customHeight="1" s="24">
+      <c r="A18" s="30" t="n"/>
+      <c r="B18" s="31" t="n"/>
+      <c r="C18" s="31" t="n"/>
+      <c r="D18" s="27" t="n"/>
+      <c r="E18" s="27" t="n"/>
+      <c r="F18" s="27" t="n"/>
+      <c r="G18" s="27" t="n"/>
+      <c r="H18" s="27" t="n"/>
+    </row>
+    <row r="19" ht="21.75" customHeight="1" s="24">
+      <c r="A19" s="30" t="n"/>
+      <c r="B19" s="31" t="n"/>
+      <c r="C19" s="31" t="n"/>
+      <c r="D19" s="27" t="n"/>
+      <c r="E19" s="27" t="n"/>
+      <c r="F19" s="27" t="n"/>
+      <c r="G19" s="27" t="n"/>
+      <c r="H19" s="27" t="n"/>
+    </row>
+    <row r="20" ht="21.75" customHeight="1" s="24">
+      <c r="A20" s="30" t="n"/>
+      <c r="B20" s="31" t="n"/>
+      <c r="C20" s="31" t="n"/>
+      <c r="D20" s="27" t="n"/>
+      <c r="E20" s="27" t="n"/>
+      <c r="F20" s="27" t="n"/>
+      <c r="G20" s="27" t="n"/>
+      <c r="H20" s="27" t="n"/>
+    </row>
+    <row r="21" ht="21.75" customHeight="1" s="24">
+      <c r="A21" s="30" t="n"/>
+      <c r="B21" s="31" t="n"/>
+      <c r="C21" s="31" t="n"/>
+      <c r="D21" s="27" t="n"/>
+      <c r="E21" s="27" t="n"/>
+      <c r="F21" s="27" t="n"/>
+      <c r="G21" s="27" t="n"/>
+      <c r="H21" s="27" t="n"/>
+    </row>
+    <row r="22" ht="21.75" customHeight="1" s="24">
+      <c r="A22" s="30" t="n"/>
+      <c r="B22" s="31" t="n"/>
+      <c r="C22" s="31" t="n"/>
+      <c r="D22" s="27" t="n"/>
+      <c r="E22" s="27" t="n"/>
+      <c r="F22" s="27" t="n"/>
+      <c r="G22" s="27" t="n"/>
+      <c r="H22" s="27" t="n"/>
+    </row>
+    <row r="23" ht="21.75" customHeight="1" s="24">
+      <c r="A23" s="30" t="n"/>
+      <c r="B23" s="31" t="n"/>
+      <c r="C23" s="31" t="n"/>
+      <c r="D23" s="27" t="n"/>
+      <c r="E23" s="27" t="n"/>
+      <c r="F23" s="27" t="n"/>
+      <c r="G23" s="27" t="n"/>
+      <c r="H23" s="27" t="n"/>
+    </row>
+    <row r="24" ht="21.75" customHeight="1" s="24">
+      <c r="A24" s="30" t="n"/>
+      <c r="B24" s="31" t="n"/>
+      <c r="C24" s="31" t="n"/>
+      <c r="D24" s="27" t="n"/>
+      <c r="E24" s="27" t="n"/>
+      <c r="F24" s="27" t="n"/>
+      <c r="G24" s="27" t="n"/>
+      <c r="H24" s="27" t="n"/>
+    </row>
+    <row r="25" ht="21.75" customHeight="1" s="24">
+      <c r="A25" s="32" t="n"/>
+      <c r="B25" s="33" t="n"/>
+      <c r="C25" s="33" t="n"/>
+      <c r="D25" s="16" t="n"/>
+      <c r="E25" s="16" t="n"/>
+      <c r="F25" s="16" t="n"/>
+      <c r="G25" s="16" t="n"/>
+      <c r="H25" s="16" t="n"/>
+    </row>
+    <row r="26" ht="21.75" customHeight="1" s="24">
+      <c r="A26" s="28" t="inlineStr">
+        <is>
+          <t>Mardi</t>
+        </is>
+      </c>
+      <c r="B26" s="29" t="inlineStr">
+        <is>
+          <t>EDP2, COUR/ section 1, C4, M. Andasmas M</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>PR, COUR/ section 1, C3, HOCINE N.</t>
+          <t>STAT2, COUR/ section 1, C1, Mlle Dj.BENSIKADDOUR</t>
         </is>
       </c>
       <c r="D26" s="17" t="n"/>
@@ -13151,12 +16730,12 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>RO, COUR/ section 1, B1, BAHNES N.</t>
+          <t>SEMIGROUP, COUR/ section 1, B2, Mlle Medeghri Ahmed</t>
         </is>
       </c>
       <c r="C35" s="29" t="inlineStr">
         <is>
-          <t>GP, COUR/ section 1, B1, DELALI A.</t>
+          <t>Anglais2, COUR/ section 1, B2, M. Dahmani Z.</t>
         </is>
       </c>
       <c r="D35" s="17" t="n"/>

--- a/src/Department MI.xlsx
+++ b/src/Department MI.xlsx
@@ -2567,7 +2567,7 @@
       </c>
       <c r="H8" s="17" t="inlineStr">
         <is>
-          <t>TG, TD/ G1, S4, Mr Ablaoui H.</t>
+          <t>TG, TD/ G1, S3, Mr Ablaoui H.</t>
         </is>
       </c>
     </row>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>OAF 2, COUR/ section 1, C4, Mr S. M. Bahri</t>
+          <t>OAF 2, COUR/ section 1, S14, Mr S. M. Bahri</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>PROGQUAD, TD/ G1, S12, M. AMIR A.</t>
+          <t>PROGQUAD, TD/ G1, C3, M. AMIR A.</t>
         </is>
       </c>
       <c r="E17" s="17" t="inlineStr">
@@ -9722,17 +9722,17 @@
       </c>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>ANA4, TD/ G1, S15, Mme Limam</t>
+          <t>AC, TD/ G1, S2, Mlle Amina FERRAOUN</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>AC, TD/ G1, S14, Mlle Amina FERRAOUN</t>
+          <t>ANUM2, TD/ G1, S14, M. Belhamiti Omar</t>
         </is>
       </c>
       <c r="H8" s="17" t="inlineStr">
         <is>
-          <t>ANUM2, TD/ G1, S13, M. Belhamiti Omar</t>
+          <t>PROBA, TD/ G1, S13, M. Mohammedi Mustapha</t>
         </is>
       </c>
     </row>
@@ -9752,7 +9752,7 @@
       </c>
       <c r="F9" s="27" t="inlineStr">
         <is>
-          <t>ANUM2, TD/ G2, S2, M. Belhamiti Omar</t>
+          <t>ANA4, TD/ G2, S15, Mme Limam</t>
         </is>
       </c>
       <c r="G9" s="27" t="inlineStr">
@@ -9762,7 +9762,7 @@
       </c>
       <c r="H9" s="27" t="inlineStr">
         <is>
-          <t>ANA4, TD/ G2, S12, Mme Limam</t>
+          <t>ANUM2, TD/ G2, S12, M. Belhamiti Omar</t>
         </is>
       </c>
     </row>
@@ -9842,53 +9842,53 @@
           <t>Lundi</t>
         </is>
       </c>
-      <c r="B17" s="29" t="inlineStr">
+      <c r="B17" s="17" t="inlineStr">
+        <is>
+          <t>ANA4, TD/ G1, C2, Mme Limam</t>
+        </is>
+      </c>
+      <c r="C17" s="29" t="inlineStr">
         <is>
           <t>ALG4, COUR/ section 1, S16, M.Ould ali</t>
         </is>
       </c>
-      <c r="C17" s="29" t="inlineStr">
+      <c r="D17" s="29" t="inlineStr">
         <is>
           <t>AC, COUR/ section 1, S16, Mlle Amina FERRAOUN</t>
         </is>
       </c>
-      <c r="D17" s="17" t="inlineStr">
-        <is>
-          <t>PROBA, TD/ G1, C2, M. Mohammedi Mustapha</t>
-        </is>
-      </c>
       <c r="E17" s="17" t="inlineStr">
         <is>
-          <t>GÉOMÉ, TD/ G1, B4, Mme Bendahmane Hafida</t>
-        </is>
-      </c>
-      <c r="F17" s="17" t="n"/>
+          <t>GÉOMÉ, TD/ G1, B3, Mme Bendahmane Hafida</t>
+        </is>
+      </c>
+      <c r="F17" s="17" t="inlineStr">
+        <is>
+          <t>GÉOMÉ, TD/ G2, S1, Mme Bendahmane Hafida</t>
+        </is>
+      </c>
       <c r="G17" s="17" t="n"/>
       <c r="H17" s="17" t="n"/>
     </row>
     <row r="18" ht="21.75" customHeight="1" s="24">
       <c r="A18" s="30" t="n"/>
-      <c r="B18" s="31" t="n"/>
+      <c r="B18" s="27" t="inlineStr">
+        <is>
+          <t>PROBA, TD/ G2, C3, M. Mohammedi Mustapha</t>
+        </is>
+      </c>
       <c r="C18" s="31" t="n"/>
-      <c r="D18" s="27" t="inlineStr">
-        <is>
-          <t>GÉOMÉ, TD/ G2, C3, Mme Bendahmane Hafida</t>
-        </is>
-      </c>
-      <c r="E18" s="27" t="inlineStr">
-        <is>
-          <t>PROBA, TD/ G2, B3, M. Mohammedi Mustapha</t>
-        </is>
-      </c>
+      <c r="D18" s="31" t="n"/>
+      <c r="E18" s="27" t="n"/>
       <c r="F18" s="27" t="n"/>
       <c r="G18" s="27" t="n"/>
       <c r="H18" s="27" t="n"/>
     </row>
     <row r="19" ht="21.75" customHeight="1" s="24">
       <c r="A19" s="30" t="n"/>
-      <c r="B19" s="31" t="n"/>
+      <c r="B19" s="27" t="n"/>
       <c r="C19" s="31" t="n"/>
-      <c r="D19" s="27" t="n"/>
+      <c r="D19" s="31" t="n"/>
       <c r="E19" s="27" t="n"/>
       <c r="F19" s="27" t="n"/>
       <c r="G19" s="27" t="n"/>
@@ -9896,9 +9896,9 @@
     </row>
     <row r="20" ht="21.75" customHeight="1" s="24">
       <c r="A20" s="30" t="n"/>
-      <c r="B20" s="31" t="n"/>
+      <c r="B20" s="27" t="n"/>
       <c r="C20" s="31" t="n"/>
-      <c r="D20" s="27" t="n"/>
+      <c r="D20" s="31" t="n"/>
       <c r="E20" s="27" t="n"/>
       <c r="F20" s="27" t="n"/>
       <c r="G20" s="27" t="n"/>
@@ -9906,9 +9906,9 @@
     </row>
     <row r="21" ht="21.75" customHeight="1" s="24">
       <c r="A21" s="30" t="n"/>
-      <c r="B21" s="31" t="n"/>
+      <c r="B21" s="27" t="n"/>
       <c r="C21" s="31" t="n"/>
-      <c r="D21" s="27" t="n"/>
+      <c r="D21" s="31" t="n"/>
       <c r="E21" s="27" t="n"/>
       <c r="F21" s="27" t="n"/>
       <c r="G21" s="27" t="n"/>
@@ -9916,9 +9916,9 @@
     </row>
     <row r="22" ht="21.75" customHeight="1" s="24">
       <c r="A22" s="30" t="n"/>
-      <c r="B22" s="31" t="n"/>
+      <c r="B22" s="27" t="n"/>
       <c r="C22" s="31" t="n"/>
-      <c r="D22" s="27" t="n"/>
+      <c r="D22" s="31" t="n"/>
       <c r="E22" s="27" t="n"/>
       <c r="F22" s="27" t="n"/>
       <c r="G22" s="27" t="n"/>
@@ -9926,9 +9926,9 @@
     </row>
     <row r="23" ht="21.75" customHeight="1" s="24">
       <c r="A23" s="30" t="n"/>
-      <c r="B23" s="31" t="n"/>
+      <c r="B23" s="27" t="n"/>
       <c r="C23" s="31" t="n"/>
-      <c r="D23" s="27" t="n"/>
+      <c r="D23" s="31" t="n"/>
       <c r="E23" s="27" t="n"/>
       <c r="F23" s="27" t="n"/>
       <c r="G23" s="27" t="n"/>
@@ -9936,9 +9936,9 @@
     </row>
     <row r="24" ht="21.75" customHeight="1" s="24">
       <c r="A24" s="30" t="n"/>
-      <c r="B24" s="31" t="n"/>
+      <c r="B24" s="27" t="n"/>
       <c r="C24" s="31" t="n"/>
-      <c r="D24" s="27" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="27" t="n"/>
       <c r="F24" s="27" t="n"/>
       <c r="G24" s="27" t="n"/>
@@ -9946,9 +9946,9 @@
     </row>
     <row r="25" ht="21.75" customHeight="1" s="24">
       <c r="A25" s="32" t="n"/>
-      <c r="B25" s="33" t="n"/>
+      <c r="B25" s="16" t="n"/>
       <c r="C25" s="33" t="n"/>
-      <c r="D25" s="16" t="n"/>
+      <c r="D25" s="33" t="n"/>
       <c r="E25" s="16" t="n"/>
       <c r="F25" s="16" t="n"/>
       <c r="G25" s="16" t="n"/>
@@ -11238,8 +11238,8 @@
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="B8:B16"/>
     <mergeCell ref="C8:C16"/>
-    <mergeCell ref="B17:B25"/>
     <mergeCell ref="C17:C25"/>
+    <mergeCell ref="D17:D25"/>
     <mergeCell ref="B26:B34"/>
     <mergeCell ref="C26:C34"/>
     <mergeCell ref="B35:B43"/>
@@ -11389,17 +11389,17 @@
       </c>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>TOL, TD/ G1, S3, M. Menad Abdallah</t>
+          <t>EDP, TD/ G1, S4, Mme Belmouhoub-Ould ali</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>EDP, TD/ G1, S2, Mme Belmouhoub-Ould ali</t>
+          <t>TRAL, TD/ G1, S2, M. Andasmas M</t>
         </is>
       </c>
       <c r="H8" s="17" t="inlineStr">
         <is>
-          <t>TRAL, TD/ G1, S15, M. Andasmas M</t>
+          <t>Géo. Diff, TD/ G1, S14, M. Fettouch Houari</t>
         </is>
       </c>
     </row>
@@ -11419,7 +11419,7 @@
       </c>
       <c r="F9" s="27" t="inlineStr">
         <is>
-          <t>EDP, TD/ G2, S4, Mme Belmouhoub-Ould ali</t>
+          <t>TOL, TD/ G2, S3, M. Menad Abdallah</t>
         </is>
       </c>
       <c r="G9" s="27" t="inlineStr">
@@ -11427,11 +11427,7 @@
           <t>TOL, TD/ G2, S15, M. Menad Abdallah</t>
         </is>
       </c>
-      <c r="H9" s="27" t="inlineStr">
-        <is>
-          <t>TOL, TD/ G2, S14, M. Menad Abdallah</t>
-        </is>
-      </c>
+      <c r="H9" s="27" t="n"/>
     </row>
     <row r="10" ht="21.75" customHeight="1" s="24">
       <c r="A10" s="30" t="n"/>
@@ -11509,24 +11505,24 @@
           <t>Lundi</t>
         </is>
       </c>
-      <c r="B17" s="29" t="inlineStr">
+      <c r="B17" s="17" t="inlineStr">
+        <is>
+          <t>TOL, TD/ G1, C4, M. Menad Abdallah</t>
+        </is>
+      </c>
+      <c r="C17" s="29" t="inlineStr">
+        <is>
+          <t>EDP, COUR/ section 1, Amphi3, Mme Belmouhoub-Ould ali</t>
+        </is>
+      </c>
+      <c r="D17" s="29" t="inlineStr">
         <is>
           <t>EDP, COUR/ section 1, Amphi2, Mme Belmouhoub-Ould ali</t>
         </is>
       </c>
-      <c r="C17" s="29" t="inlineStr">
-        <is>
-          <t>EDP, COUR/ section 1, Amphi3, Mme Belmouhoub-Ould ali</t>
-        </is>
-      </c>
-      <c r="D17" s="17" t="inlineStr">
-        <is>
-          <t>Géo. Diff, TD/ G1, C4, M. Fettouch Houari</t>
-        </is>
-      </c>
       <c r="E17" s="17" t="inlineStr">
         <is>
-          <t>Géo. Diff, TD/ G2, C1, M. Fettouch Houari</t>
+          <t>Géo. Diff, TD/ G2, B4, M. Fettouch Houari</t>
         </is>
       </c>
       <c r="F17" s="17" t="n"/>
@@ -11535,9 +11531,13 @@
     </row>
     <row r="18" ht="21.75" customHeight="1" s="24">
       <c r="A18" s="30" t="n"/>
-      <c r="B18" s="31" t="n"/>
+      <c r="B18" s="27" t="inlineStr">
+        <is>
+          <t>EDP, TD/ G2, S1, Mme Belmouhoub-Ould ali</t>
+        </is>
+      </c>
       <c r="C18" s="31" t="n"/>
-      <c r="D18" s="27" t="n"/>
+      <c r="D18" s="31" t="n"/>
       <c r="E18" s="27" t="n"/>
       <c r="F18" s="27" t="n"/>
       <c r="G18" s="27" t="n"/>
@@ -11545,9 +11545,9 @@
     </row>
     <row r="19" ht="21.75" customHeight="1" s="24">
       <c r="A19" s="30" t="n"/>
-      <c r="B19" s="31" t="n"/>
+      <c r="B19" s="27" t="n"/>
       <c r="C19" s="31" t="n"/>
-      <c r="D19" s="27" t="n"/>
+      <c r="D19" s="31" t="n"/>
       <c r="E19" s="27" t="n"/>
       <c r="F19" s="27" t="n"/>
       <c r="G19" s="27" t="n"/>
@@ -11555,9 +11555,9 @@
     </row>
     <row r="20" ht="21.75" customHeight="1" s="24">
       <c r="A20" s="30" t="n"/>
-      <c r="B20" s="31" t="n"/>
+      <c r="B20" s="27" t="n"/>
       <c r="C20" s="31" t="n"/>
-      <c r="D20" s="27" t="n"/>
+      <c r="D20" s="31" t="n"/>
       <c r="E20" s="27" t="n"/>
       <c r="F20" s="27" t="n"/>
       <c r="G20" s="27" t="n"/>
@@ -11565,9 +11565,9 @@
     </row>
     <row r="21" ht="21.75" customHeight="1" s="24">
       <c r="A21" s="30" t="n"/>
-      <c r="B21" s="31" t="n"/>
+      <c r="B21" s="27" t="n"/>
       <c r="C21" s="31" t="n"/>
-      <c r="D21" s="27" t="n"/>
+      <c r="D21" s="31" t="n"/>
       <c r="E21" s="27" t="n"/>
       <c r="F21" s="27" t="n"/>
       <c r="G21" s="27" t="n"/>
@@ -11575,9 +11575,9 @@
     </row>
     <row r="22" ht="21.75" customHeight="1" s="24">
       <c r="A22" s="30" t="n"/>
-      <c r="B22" s="31" t="n"/>
+      <c r="B22" s="27" t="n"/>
       <c r="C22" s="31" t="n"/>
-      <c r="D22" s="27" t="n"/>
+      <c r="D22" s="31" t="n"/>
       <c r="E22" s="27" t="n"/>
       <c r="F22" s="27" t="n"/>
       <c r="G22" s="27" t="n"/>
@@ -11585,9 +11585,9 @@
     </row>
     <row r="23" ht="21.75" customHeight="1" s="24">
       <c r="A23" s="30" t="n"/>
-      <c r="B23" s="31" t="n"/>
+      <c r="B23" s="27" t="n"/>
       <c r="C23" s="31" t="n"/>
-      <c r="D23" s="27" t="n"/>
+      <c r="D23" s="31" t="n"/>
       <c r="E23" s="27" t="n"/>
       <c r="F23" s="27" t="n"/>
       <c r="G23" s="27" t="n"/>
@@ -11595,9 +11595,9 @@
     </row>
     <row r="24" ht="21.75" customHeight="1" s="24">
       <c r="A24" s="30" t="n"/>
-      <c r="B24" s="31" t="n"/>
+      <c r="B24" s="27" t="n"/>
       <c r="C24" s="31" t="n"/>
-      <c r="D24" s="27" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="27" t="n"/>
       <c r="F24" s="27" t="n"/>
       <c r="G24" s="27" t="n"/>
@@ -11605,9 +11605,9 @@
     </row>
     <row r="25" ht="21.75" customHeight="1" s="24">
       <c r="A25" s="32" t="n"/>
-      <c r="B25" s="33" t="n"/>
+      <c r="B25" s="16" t="n"/>
       <c r="C25" s="33" t="n"/>
-      <c r="D25" s="16" t="n"/>
+      <c r="D25" s="33" t="n"/>
       <c r="E25" s="16" t="n"/>
       <c r="F25" s="16" t="n"/>
       <c r="G25" s="16" t="n"/>
@@ -12897,8 +12897,8 @@
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="C8:C16"/>
     <mergeCell ref="D8:D16"/>
-    <mergeCell ref="B17:B25"/>
     <mergeCell ref="C17:C25"/>
+    <mergeCell ref="D17:D25"/>
     <mergeCell ref="B26:B34"/>
     <mergeCell ref="C26:C34"/>
     <mergeCell ref="B35:B43"/>
@@ -13162,7 +13162,7 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>SSI, COUR/ section 1, Amphi3, BENTAOUZA C</t>
+          <t>SSI, COUR/ section 1, Amphi2, BENTAOUZA C</t>
         </is>
       </c>
       <c r="C17" s="17" t="inlineStr">
@@ -13172,7 +13172,7 @@
       </c>
       <c r="D17" s="29" t="inlineStr">
         <is>
-          <t>OWS, COUR/ section 1, Amphi2, DJEBBARA R.</t>
+          <t>OWS, COUR/ section 1, Amphi3, DJEBBARA R.</t>
         </is>
       </c>
       <c r="E17" s="17" t="inlineStr">
@@ -14772,7 +14772,7 @@
       <c r="G8" s="17" t="n"/>
       <c r="H8" s="17" t="inlineStr">
         <is>
-          <t>AOSI, TD/ G1, S2, KHIAT</t>
+          <t>AOSI, TD/ G1, S15, KHIAT</t>
         </is>
       </c>
     </row>
@@ -14864,7 +14864,7 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>ASBDA, COUR/ section 1, C2, HABIB ZAHMANI M</t>
+          <t>ASBDA, COUR/ section 1, S12, HABIB ZAHMANI M</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
@@ -16414,7 +16414,7 @@
       </c>
       <c r="H8" s="17" t="inlineStr">
         <is>
-          <t>GéoDiff2, TD/ G1, S3, M. BELARBI Lakehal</t>
+          <t>GéoDiff2, TD/ G1, S2, M. BELARBI Lakehal</t>
         </is>
       </c>
     </row>
@@ -16506,7 +16506,7 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>GéoDiff2, COUR/ section 1, C3, M. BELARBI Lakehal</t>
+          <t>GéoDiff2, COUR/ section 1, S13, M. BELARBI Lakehal</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
@@ -16516,17 +16516,17 @@
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>Dis2, TD/ G1, S1, M. BOUZIT Hamid</t>
+          <t>Dis2, TD/ G1, C2, M. BOUZIT Hamid</t>
         </is>
       </c>
       <c r="E17" s="17" t="inlineStr">
         <is>
-          <t>EDP2, TD/ G1, C2, M. Andasmas M</t>
+          <t>EDP2, TD/ G1, C1, M. Andasmas M</t>
         </is>
       </c>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>EDP2, TD/ G1, S1, M. Andasmas M</t>
+          <t>EDP2, TD/ G1, S12, M. Andasmas M</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
